--- a/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
+++ b/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032EF063-B788-4370-AB59-4B2FA5CA9184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941BD6D5-1608-4CFC-8E0B-CBB98D8344FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1214,7 +1214,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
+++ b/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941BD6D5-1608-4CFC-8E0B-CBB98D8344FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E49ABF9-0100-42D8-91E3-965856E72719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Serenity_Premium" sheetId="4" r:id="rId3"/>
     <sheet name="Safrican_Just_Funeral" sheetId="5" r:id="rId4"/>
     <sheet name="ChangeBeneData" sheetId="3" r:id="rId5"/>
+    <sheet name="AddRolePlayer" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -131,9 +132,6 @@
   </si>
   <si>
     <t>ML_20000</t>
-  </si>
-  <si>
-    <t>Main Life R30000</t>
   </si>
   <si>
     <t>ML_40000</t>
@@ -337,16 +335,19 @@
     <t>SF17721125</t>
   </si>
   <si>
-    <t>Passed</t>
+    <t>SK00008569</t>
   </si>
   <si>
-    <t>14/12/2021 13:18:24</t>
+    <t>ID</t>
   </si>
   <si>
-    <t>14/12/2021 13:19:26</t>
+    <t>AddRolePlayer</t>
   </si>
   <si>
-    <t>SK00008569</t>
+    <t>SS31244130</t>
+  </si>
+  <si>
+    <t>8001146259080</t>
   </si>
 </sst>
 </file>
@@ -456,7 +457,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -551,12 +552,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -616,11 +626,15 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -897,8 +911,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}" name="Table1" displayName="Table1" ref="A1:I6" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="A1:I6" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}" name="Table1" displayName="Table1" ref="A1:I7" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:I7" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F815EF09-5A8D-41CD-9C8D-1F1F859054C1}" name="Policy No" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{A75649DE-6DED-4E66-9436-0C7BC08EC505}" name="Function" dataDxfId="7"/>
@@ -1210,11 +1224,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1230,7 +1244,7 @@
     <col min="9" max="9" width="18.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row spans="1:9" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45" outlineLevel="0" r="1">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -1259,9 +1273,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="58" x14ac:dyDescent="0.35" outlineLevel="0" r="2">
       <c r="A2" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>2</v>
@@ -1278,20 +1292,24 @@
       <c r="F2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G2" s="42"/>
+      <c r="H2" s="39" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I2" s="47" t="inlineStr">
+        <is>
+          <t>15/12/2021 17:07:58</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:9" x14ac:dyDescent="0.35" outlineLevel="0" r="3">
       <c r="A3" s="29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -1299,82 +1317,125 @@
         <v>3000</v>
       </c>
       <c r="F3" s="26"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="42"/>
-    </row>
-    <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G3" s="42"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="46"/>
+    </row>
+    <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="4">
       <c r="A4" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" s="26">
         <v>3000</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="42"/>
-    </row>
-    <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+      <c r="G4" s="42"/>
+      <c r="H4" s="40" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I4" s="41" t="inlineStr">
+        <is>
+          <t>15/12/2021 17:01:59</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="5">
       <c r="A5" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>88</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>89</v>
       </c>
       <c r="E5" s="35">
         <v>3000</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G5" s="38"/>
-      <c r="H5" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="H5" s="39" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I5" s="46" t="inlineStr">
+        <is>
+          <t>15/12/2021 17:09:06</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="6">
       <c r="A6" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="36" t="s">
+      <c r="D6" s="36" t="s">
         <v>92</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>93</v>
       </c>
       <c r="E6" s="35">
         <v>3000</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G6" s="38"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="42"/>
+      <c r="H6" s="40" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="I6" s="41" t="inlineStr">
+        <is>
+          <t>15/12/2021 17:12:16</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:9" x14ac:dyDescent="0.35" outlineLevel="0" r="7">
+      <c r="A7" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="44" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I7" s="45" t="inlineStr">
+        <is>
+          <t>15/12/2021 17:17:22</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1452,11 +1513,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCEC4A5-EA47-4865-975C-89362B916486}">
   <dimension ref="A1:AP88"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="9" max="9" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
@@ -1478,240 +1542,240 @@
         <v>30</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AA1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AB1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AH1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AI1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AK1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AM1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AM1" s="13" t="s">
+      <c r="AN1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AO1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AO1" s="12" t="s">
+      <c r="AP1" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="AP1" s="12" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA2" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG2" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH2" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AM2" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AO2" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AP2" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.35">
@@ -8307,7 +8371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5E7B35-3B13-4283-A904-8C8CA7625FAB}">
   <dimension ref="A1:AY88"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
@@ -8320,7 +8384,7 @@
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>26</v>
@@ -8338,294 +8402,294 @@
         <v>30</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="22" t="s">
+      <c r="P1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="W1" s="21" t="s">
+      <c r="Y1" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z1" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA1" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="X1" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y1" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z1" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AC1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE1" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH1" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ1" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK1" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL1" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM1" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN1" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO1" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP1" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="AB1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC1" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD1" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE1" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF1" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG1" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH1" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI1" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ1" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK1" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL1" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM1" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN1" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO1" s="21" t="s">
+      <c r="AQ1" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AP1" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ1" s="21" t="s">
+      <c r="AS1" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT1" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV1" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX1" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="AR1" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS1" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT1" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU1" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV1" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="AW1" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="AX1" s="21" t="s">
+      <c r="AY1" s="21" t="s">
         <v>80</v>
-      </c>
-      <c r="AY1" s="21" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S2" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AC2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AD2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AE2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AI2" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AK2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AL2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AM2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AN2" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AO2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AP2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AQ2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AR2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AS2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AT2" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AU2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AV2" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AW2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AX2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AY2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.35">
@@ -17807,4 +17871,32 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACE6922-48CC-4DAE-B734-2DA1995626B5}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
+++ b/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E49ABF9-0100-42D8-91E3-965856E72719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EAF850-30AF-4E0D-9F8C-2E8532DF1C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -290,9 +290,6 @@
     <t>IncreaseSumAssured</t>
   </si>
   <si>
-    <t>SS00754233</t>
-  </si>
-  <si>
     <t>ReInstate</t>
   </si>
   <si>
@@ -335,19 +332,22 @@
     <t>SF17721125</t>
   </si>
   <si>
-    <t>SK00008569</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
     <t>AddRolePlayer</t>
   </si>
   <si>
-    <t>SS31244130</t>
+    <t>SS00256539</t>
   </si>
   <si>
-    <t>8001146259080</t>
+    <t>SS00256538</t>
+  </si>
+  <si>
+    <t>SS44244330</t>
+  </si>
+  <si>
+    <t>9006120590086</t>
   </si>
 </sst>
 </file>
@@ -357,7 +357,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###########################0.00#########"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,6 +400,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF0451A5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="10">
@@ -566,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -635,6 +641,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1224,11 +1234,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1244,7 +1254,7 @@
     <col min="9" max="9" width="18.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row spans="1:9" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45" outlineLevel="0" r="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -1273,9 +1283,9 @@
         <v>11</v>
       </c>
     </row>
-    <row spans="1:9" ht="58" x14ac:dyDescent="0.35" outlineLevel="0" r="2">
+    <row r="2" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>2</v>
@@ -1293,20 +1303,12 @@
         <v>24</v>
       </c>
       <c r="G2" s="42"/>
-      <c r="H2" s="39" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="I2" s="47" t="inlineStr">
-        <is>
-          <t>15/12/2021 17:07:58</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:9" x14ac:dyDescent="0.35" outlineLevel="0" r="3">
+      <c r="H2" s="39"/>
+      <c r="I2" s="47"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>81</v>
@@ -1321,121 +1323,92 @@
       <c r="H3" s="39"/>
       <c r="I3" s="46"/>
     </row>
-    <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="4">
+    <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="26">
         <v>3000</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G4" s="42"/>
-      <c r="H4" s="40" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="I4" s="41" t="inlineStr">
-        <is>
-          <t>15/12/2021 17:01:59</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="5">
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
+    </row>
+    <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>87</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>88</v>
       </c>
       <c r="E5" s="35">
         <v>3000</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="38"/>
-      <c r="H5" s="39" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="I5" s="46" t="inlineStr">
-        <is>
-          <t>15/12/2021 17:09:06</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="6">
+      <c r="H5" s="39"/>
+      <c r="I5" s="46"/>
+    </row>
+    <row r="6" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="36" t="s">
+      <c r="D6" s="36" t="s">
         <v>91</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>92</v>
       </c>
       <c r="E6" s="35">
         <v>3000</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G6" s="38"/>
-      <c r="H6" s="40" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="I6" s="41" t="inlineStr">
-        <is>
-          <t>15/12/2021 17:12:16</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:9" x14ac:dyDescent="0.35" outlineLevel="0" r="7">
+      <c r="H6" s="40"/>
+      <c r="I6" s="49"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
         <v>101</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
       <c r="E7" s="35"/>
       <c r="F7" s="43"/>
       <c r="G7" s="38"/>
-      <c r="H7" s="44" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="I7" s="45" t="inlineStr">
-        <is>
-          <t>15/12/2021 17:17:22</t>
-        </is>
-      </c>
+      <c r="H7" s="44"/>
+      <c r="I7" s="45"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -17878,7 +17851,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17888,7 +17861,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">

--- a/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
+++ b/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EAF850-30AF-4E0D-9F8C-2E8532DF1C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA944C4E-88F6-4CE0-9B94-E0D5EBF3A1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="112">
   <si>
     <t>Policy No</t>
   </si>
@@ -242,9 +242,6 @@
     <t>Numeric</t>
   </si>
   <si>
-    <t>Term</t>
-  </si>
-  <si>
     <t>ML_30000</t>
   </si>
   <si>
@@ -349,6 +346,36 @@
   <si>
     <t>9006120590086</t>
   </si>
+  <si>
+    <t>17/12/2021 16:25:06</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>AddaLife</t>
+  </si>
+  <si>
+    <t>SS00256542</t>
+  </si>
+  <si>
+    <t>SS00244261</t>
+  </si>
+  <si>
+    <t>20/12/2021 13:20:28</t>
+  </si>
+  <si>
+    <t>IncreaseSumAssuredAge</t>
+  </si>
+  <si>
+    <t>SS00256543</t>
+  </si>
+  <si>
+    <t>ChangeLifeAssured</t>
+  </si>
+  <si>
+    <t>20/12/2021 21:03:32</t>
+  </si>
 </sst>
 </file>
 
@@ -357,7 +384,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###########################0.00#########"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,10 +429,17 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="6"/>
-      <color rgb="FF0451A5"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -463,7 +497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -475,19 +509,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -535,17 +556,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -558,21 +568,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -614,37 +615,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -670,7 +667,7 @@
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -683,6 +680,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -704,7 +707,7 @@
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -717,6 +720,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -726,7 +735,7 @@
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -739,13 +748,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
+        <vertical style="thin">
           <color indexed="64"/>
-        </right>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -762,8 +770,34 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -781,8 +815,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -800,8 +838,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -818,13 +860,30 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -834,8 +893,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -921,8 +984,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}" name="Table1" displayName="Table1" ref="A1:I7" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="A1:I7" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}" name="Table1" displayName="Table1" ref="A1:I10" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:I10" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F815EF09-5A8D-41CD-9C8D-1F1F859054C1}" name="Policy No" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{A75649DE-6DED-4E66-9436-0C7BC08EC505}" name="Function" dataDxfId="7"/>
@@ -1235,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1255,37 +1318,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
-        <v>96</v>
+      <c r="A2" s="39" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>2</v>
@@ -1302,16 +1365,16 @@
       <c r="F2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="47"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="29" t="s">
-        <v>99</v>
+      <c r="A3" s="39" t="s">
+        <v>98</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -1319,96 +1382,150 @@
         <v>3000</v>
       </c>
       <c r="F3" s="26"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="46"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
-        <v>100</v>
+      <c r="A4" s="39" t="s">
+        <v>99</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" s="26">
         <v>3000</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
+        <v>91</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="H4" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="36" t="s">
+      <c r="A5" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="E5" s="26">
+        <v>3000</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="35">
+      <c r="C6" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="26">
         <v>3000</v>
       </c>
-      <c r="F5" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="46"/>
-    </row>
-    <row r="6" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="35">
-        <v>3000</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="49"/>
+      <c r="F6" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="35"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
+      <c r="A7" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="48"/>
+      <c r="A9" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1425,7 +1542,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1486,9 +1603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCEC4A5-EA47-4865-975C-89362B916486}">
   <dimension ref="A1:AP88"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1515,7 +1630,7 @@
         <v>30</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>31</v>
@@ -8344,8 +8459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5E7B35-3B13-4283-A904-8C8CA7625FAB}">
   <dimension ref="A1:AY88"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8357,7 +8472,7 @@
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>26</v>
@@ -8375,7 +8490,7 @@
         <v>30</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H1" s="21" t="s">
         <v>31</v>
@@ -8387,16 +8502,16 @@
         <v>33</v>
       </c>
       <c r="K1" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="22" t="s">
         <v>71</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>72</v>
       </c>
       <c r="O1" s="21" t="s">
         <v>34</v>
@@ -8426,16 +8541,16 @@
         <v>42</v>
       </c>
       <c r="X1" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Z1" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="AA1" s="21" t="s">
         <v>75</v>
-      </c>
-      <c r="AA1" s="21" t="s">
-        <v>76</v>
       </c>
       <c r="AB1" s="21" t="s">
         <v>43</v>
@@ -8480,10 +8595,10 @@
         <v>57</v>
       </c>
       <c r="AP1" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ1" s="21" t="s">
         <v>77</v>
-      </c>
-      <c r="AQ1" s="21" t="s">
-        <v>78</v>
       </c>
       <c r="AR1" s="21" t="s">
         <v>58</v>
@@ -8504,10 +8619,10 @@
         <v>63</v>
       </c>
       <c r="AX1" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY1" s="21" t="s">
         <v>79</v>
-      </c>
-      <c r="AY1" s="21" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.35">
@@ -17861,12 +17976,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
+++ b/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C084C0F-0D20-4DA0-A8A6-0D483480EFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E40148-F547-4E6E-9EF5-6913A1CCE660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy-Servicing" sheetId="2" r:id="rId1"/>
     <sheet name="ChangeLifeData" sheetId="6" r:id="rId2"/>
-    <sheet name="Dropdown" sheetId="8" r:id="rId3"/>
-    <sheet name="Serenity_Premium" sheetId="4" r:id="rId4"/>
+    <sheet name="Serenity_Premium" sheetId="4" r:id="rId3"/>
+    <sheet name="Dropdown" sheetId="8" r:id="rId4"/>
     <sheet name="ChangeBeneData" sheetId="3" r:id="rId5"/>
     <sheet name="Safrican_Just_Funeral" sheetId="5" r:id="rId6"/>
     <sheet name="AddaLife" sheetId="9" r:id="rId7"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="211">
   <si>
     <t>Policy No</t>
   </si>
@@ -547,24 +547,6 @@
     <t>Military</t>
   </si>
   <si>
-    <t>General Management. This department develops and executes overall business strategies. ...</t>
-  </si>
-  <si>
-    <t>Marketing Department. ...</t>
-  </si>
-  <si>
-    <t>Operations Department. ...</t>
-  </si>
-  <si>
-    <t>Finance Department. ...</t>
-  </si>
-  <si>
-    <t>Sales Department. ...</t>
-  </si>
-  <si>
-    <t>Human Resource Department. ...</t>
-  </si>
-  <si>
     <t>Purchase Department.</t>
   </si>
   <si>
@@ -589,9 +571,6 @@
     <t>Col</t>
   </si>
   <si>
-    <t>SS00754230</t>
-  </si>
-  <si>
     <t>Upgrade sum assure of role-player</t>
   </si>
   <si>
@@ -625,45 +604,9 @@
     <t>Sum assured age should determine the increase in total sum assured based on rate table ,Premiums should increase.</t>
   </si>
   <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>04/01/2022 16:35:01</t>
-  </si>
-  <si>
-    <t>04/01/2022 16:33:43</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>04/01/2022 16:31:50</t>
-  </si>
-  <si>
-    <t>04/01/2022 16:36:10</t>
-  </si>
-  <si>
-    <t>04/01/2022 16:37:22</t>
-  </si>
-  <si>
-    <t>04/01/2022 16:39:00</t>
-  </si>
-  <si>
-    <t>SS00754237</t>
-  </si>
-  <si>
     <t>RemovaleOfNonCompulsoryLife</t>
   </si>
   <si>
-    <t>04/01/2022 16:59:39</t>
-  </si>
-  <si>
-    <t>04/01/2022 17:02:24</t>
-  </si>
-  <si>
-    <t>04/01/2022 17:00:57</t>
-  </si>
-  <si>
     <t>First_Name</t>
   </si>
   <si>
@@ -679,40 +622,61 @@
     <t>Comm_date</t>
   </si>
   <si>
-    <t>Zuma</t>
-  </si>
-  <si>
     <t>Jacob</t>
   </si>
   <si>
-    <t>Z</t>
-  </si>
-  <si>
     <t>Child</t>
   </si>
   <si>
     <t>dob</t>
   </si>
   <si>
-    <t>SS03245671</t>
-  </si>
-  <si>
     <t>Zulu</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>Nsizwa</t>
-  </si>
-  <si>
-    <t>0010096399083</t>
-  </si>
-  <si>
-    <t>2000/10/09</t>
-  </si>
-  <si>
-    <t>05/01/2022 10:09:30</t>
+    <t>SS03245675</t>
+  </si>
+  <si>
+    <t>Sales Department</t>
+  </si>
+  <si>
+    <t>Human Resource Department</t>
+  </si>
+  <si>
+    <t>Finance Department</t>
+  </si>
+  <si>
+    <t>Operations Department</t>
+  </si>
+  <si>
+    <t>Marketing Department</t>
+  </si>
+  <si>
+    <t>General Management. This department develops and executes overall business strategies</t>
+  </si>
+  <si>
+    <t>Gugu</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>0005140974089</t>
+  </si>
+  <si>
+    <t>Nstako</t>
+  </si>
+  <si>
+    <t>SS03245676</t>
+  </si>
+  <si>
+    <t>0003176390080</t>
+  </si>
+  <si>
+    <t>2000/03/17</t>
   </si>
 </sst>
 </file>
@@ -1720,8 +1684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1783,15 +1747,11 @@
         <v>3000</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G2" s="37"/>
-      <c r="H2" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>194</v>
-      </c>
+      <c r="H2" s="38"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="45" t="s">
@@ -1807,12 +1767,8 @@
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="37"/>
-      <c r="H3" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>195</v>
-      </c>
+      <c r="H3" s="38"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="45" t="s">
@@ -1822,24 +1778,20 @@
         <v>80</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E4" s="45">
         <v>3000</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G4" s="37"/>
-      <c r="H4" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>197</v>
-      </c>
+      <c r="H4" s="38"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="45" t="s">
@@ -1852,21 +1804,17 @@
         <v>82</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E5" s="45">
         <v>3000</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G5" s="37"/>
-      <c r="H5" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>198</v>
-      </c>
+      <c r="H5" s="38"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="45" t="s">
@@ -1879,7 +1827,7 @@
         <v>85</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E6" s="45">
         <v>3000</v>
@@ -1888,12 +1836,8 @@
         <v>98</v>
       </c>
       <c r="G6" s="37"/>
-      <c r="H6" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>199</v>
-      </c>
+      <c r="H6" s="38"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="45" t="s">
@@ -1915,12 +1859,8 @@
         <v>87</v>
       </c>
       <c r="G7" s="37"/>
-      <c r="H7" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>200</v>
-      </c>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="45"/>
@@ -1935,7 +1875,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="45" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="B9" s="45" t="s">
         <v>90</v>
@@ -1952,7 +1892,7 @@
     </row>
     <row r="10" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="45" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B10" s="45" t="s">
         <v>92</v>
@@ -1961,21 +1901,17 @@
         <v>110</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E10" s="45">
         <v>3000</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G10" s="37"/>
-      <c r="H10" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="I10" s="41" t="s">
-        <v>222</v>
-      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="41"/>
     </row>
     <row r="11" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="46" t="s">
@@ -1988,21 +1924,17 @@
         <v>109</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E11" s="45">
         <v>3000</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G11" s="37"/>
-      <c r="H11" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="I11" s="41" t="s">
-        <v>203</v>
-      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="41"/>
     </row>
     <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="49" t="s">
@@ -2012,10 +1944,10 @@
         <v>96</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E12" s="45">
         <v>3000</v>
@@ -2024,31 +1956,23 @@
         <v>108</v>
       </c>
       <c r="G12" s="42"/>
-      <c r="H12" s="43" t="s">
-        <v>193</v>
-      </c>
-      <c r="I12" s="44" t="s">
-        <v>204</v>
-      </c>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
     </row>
     <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="49" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="49"/>
       <c r="E13" s="49"/>
       <c r="F13" s="49"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="43" t="s">
-        <v>193</v>
-      </c>
-      <c r="I13" s="44" t="s">
-        <v>205</v>
-      </c>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="50"/>
@@ -2073,7 +1997,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2081,7 +2005,7 @@
     <col min="1" max="1" width="9.6328125" customWidth="1"/>
     <col min="2" max="2" width="11.1796875" customWidth="1"/>
     <col min="3" max="3" width="14.1796875" customWidth="1"/>
-    <col min="4" max="4" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.26953125" customWidth="1"/>
     <col min="6" max="6" width="20.90625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2108,22 +2032,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2175,294 +2099,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0280A1E1-10C8-479A-A428-3162F59DEFE5}">
-  <dimension ref="A1:F20"/>
-  <sheetViews>
-    <sheetView topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="79.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" customWidth="1"/>
-    <col min="4" max="4" width="34.54296875" customWidth="1"/>
-    <col min="5" max="5" width="29.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" t="s">
-        <v>148</v>
-      </c>
-      <c r="F6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>177</v>
-      </c>
-      <c r="B11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>124</v>
-      </c>
-      <c r="F17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCEC4A5-EA47-4865-975C-89362B916486}">
   <dimension ref="A1:AP88"/>
   <sheetViews>
@@ -9315,6 +8951,292 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0280A1E1-10C8-479A-A428-3162F59DEFE5}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="79.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.08984375" customWidth="1"/>
+    <col min="3" max="3" width="27.1796875" customWidth="1"/>
+    <col min="4" max="4" width="34.54296875" customWidth="1"/>
+    <col min="5" max="5" width="29.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18829,7 +18751,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18842,28 +18764,28 @@
         <v>16</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="C1" s="52" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="F1" s="52" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="I1" s="52" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -18871,25 +18793,25 @@
         <v>21</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F2" s="52" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="54" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H2" s="52" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="I2" s="53">
         <v>44562</v>
@@ -18908,13 +18830,13 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -18922,13 +18844,13 @@
         <v>16</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="C1" s="52" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E1" s="52" t="s">
         <v>17</v>
@@ -18937,13 +18859,13 @@
         <v>18</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="H1" s="52" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="I1" s="52" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -18951,13 +18873,13 @@
         <v>21</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E2" s="53">
         <v>36746</v>
@@ -18965,11 +18887,11 @@
       <c r="F2" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="54">
-        <v>8085149089</v>
+      <c r="G2" s="54" t="s">
+        <v>206</v>
       </c>
       <c r="H2" s="52" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="I2" s="53">
         <v>44562</v>

--- a/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
+++ b/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E40148-F547-4E6E-9EF5-6913A1CCE660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187D8E0A-737C-4606-8BE6-75EE63F2F784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="212">
   <si>
     <t>Policy No</t>
   </si>
@@ -677,6 +677,9 @@
   </si>
   <si>
     <t>2000/03/17</t>
+  </si>
+  <si>
+    <t>SF87010125</t>
   </si>
 </sst>
 </file>
@@ -1681,11 +1684,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1701,7 +1704,7 @@
     <col min="9" max="9" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row spans="1:9" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45" outlineLevel="0" r="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1730,7 +1733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="58" x14ac:dyDescent="0.35" outlineLevel="0" r="2">
       <c r="A2" s="45" t="s">
         <v>89</v>
       </c>
@@ -1753,7 +1756,7 @@
       <c r="H2" s="38"/>
       <c r="I2" s="31"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row spans="1:9" x14ac:dyDescent="0.35" outlineLevel="0" r="3">
       <c r="A3" s="45" t="s">
         <v>91</v>
       </c>
@@ -1770,7 +1773,7 @@
       <c r="H3" s="38"/>
       <c r="I3" s="31"/>
     </row>
-    <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="4">
       <c r="A4" s="45" t="s">
         <v>91</v>
       </c>
@@ -1793,7 +1796,7 @@
       <c r="H4" s="38"/>
       <c r="I4" s="31"/>
     </row>
-    <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="5">
       <c r="A5" s="45" t="s">
         <v>88</v>
       </c>
@@ -1816,7 +1819,7 @@
       <c r="H5" s="38"/>
       <c r="I5" s="31"/>
     </row>
-    <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="6">
       <c r="A6" s="45" t="s">
         <v>84</v>
       </c>
@@ -1839,7 +1842,7 @@
       <c r="H6" s="38"/>
       <c r="I6" s="31"/>
     </row>
-    <row r="7" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="7">
       <c r="A7" s="45" t="s">
         <v>84</v>
       </c>
@@ -1862,7 +1865,7 @@
       <c r="H7" s="39"/>
       <c r="I7" s="40"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row spans="1:9" x14ac:dyDescent="0.35" outlineLevel="0" r="8">
       <c r="A8" s="45"/>
       <c r="B8" s="45"/>
       <c r="C8" s="45"/>
@@ -1873,7 +1876,7 @@
       <c r="H8" s="39"/>
       <c r="I8" s="40"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row spans="1:9" x14ac:dyDescent="0.35" outlineLevel="0" r="9">
       <c r="A9" s="45" t="s">
         <v>197</v>
       </c>
@@ -1890,7 +1893,7 @@
       <c r="H9" s="39"/>
       <c r="I9" s="41"/>
     </row>
-    <row r="10" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="10">
       <c r="A10" s="45" t="s">
         <v>208</v>
       </c>
@@ -1913,7 +1916,7 @@
       <c r="H10" s="39"/>
       <c r="I10" s="41"/>
     </row>
-    <row r="11" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="87" x14ac:dyDescent="0.35" outlineLevel="0" r="11">
       <c r="A11" s="46" t="s">
         <v>93</v>
       </c>
@@ -1936,7 +1939,7 @@
       <c r="H11" s="39"/>
       <c r="I11" s="41"/>
     </row>
-    <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="12">
       <c r="A12" s="49" t="s">
         <v>95</v>
       </c>
@@ -1959,9 +1962,9 @@
       <c r="H12" s="43"/>
       <c r="I12" s="44"/>
     </row>
-    <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row spans="1:9" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="13">
       <c r="A13" s="49" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="B13" s="49" t="s">
         <v>186</v>
@@ -1971,10 +1974,18 @@
       <c r="E13" s="49"/>
       <c r="F13" s="49"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="44"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H13" s="43" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I13" s="44" t="inlineStr">
+        <is>
+          <t>07/01/2022 09:05:39</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:9" x14ac:dyDescent="0.35" outlineLevel="0" r="14">
       <c r="A14" s="50"/>
       <c r="B14" s="50"/>
       <c r="C14" s="51"/>

--- a/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
+++ b/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187D8E0A-737C-4606-8BE6-75EE63F2F784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC017EE9-B71D-4175-A884-3CA543498B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="211">
   <si>
     <t>Policy No</t>
   </si>
@@ -677,9 +677,6 @@
   </si>
   <si>
     <t>2000/03/17</t>
-  </si>
-  <si>
-    <t>SF87010125</t>
   </si>
 </sst>
 </file>
@@ -1687,8 +1684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="62" zoomScaleNormal="62" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1964,7 +1961,7 @@
     </row>
     <row spans="1:9" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="13">
       <c r="A13" s="49" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B13" s="49" t="s">
         <v>186</v>
@@ -1981,7 +1978,7 @@
       </c>
       <c r="I13" s="44" t="inlineStr">
         <is>
-          <t>07/01/2022 09:05:39</t>
+          <t>07/01/2022 10:21:51</t>
         </is>
       </c>
     </row>

--- a/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
+++ b/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC017EE9-B71D-4175-A884-3CA543498B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E40148-F547-4E6E-9EF5-6913A1CCE660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1681,11 +1681,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="62" zoomScaleNormal="62" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1701,7 +1701,7 @@
     <col min="9" max="9" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row spans="1:9" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45" outlineLevel="0" r="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row spans="1:9" ht="58" x14ac:dyDescent="0.35" outlineLevel="0" r="2">
+    <row r="2" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
         <v>89</v>
       </c>
@@ -1753,7 +1753,7 @@
       <c r="H2" s="38"/>
       <c r="I2" s="31"/>
     </row>
-    <row spans="1:9" x14ac:dyDescent="0.35" outlineLevel="0" r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="45" t="s">
         <v>91</v>
       </c>
@@ -1770,7 +1770,7 @@
       <c r="H3" s="38"/>
       <c r="I3" s="31"/>
     </row>
-    <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="4">
+    <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="45" t="s">
         <v>91</v>
       </c>
@@ -1793,7 +1793,7 @@
       <c r="H4" s="38"/>
       <c r="I4" s="31"/>
     </row>
-    <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="5">
+    <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="45" t="s">
         <v>88</v>
       </c>
@@ -1816,7 +1816,7 @@
       <c r="H5" s="38"/>
       <c r="I5" s="31"/>
     </row>
-    <row spans="1:9" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="6">
+    <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="45" t="s">
         <v>84</v>
       </c>
@@ -1839,7 +1839,7 @@
       <c r="H6" s="38"/>
       <c r="I6" s="31"/>
     </row>
-    <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="7">
+    <row r="7" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="45" t="s">
         <v>84</v>
       </c>
@@ -1862,7 +1862,7 @@
       <c r="H7" s="39"/>
       <c r="I7" s="40"/>
     </row>
-    <row spans="1:9" x14ac:dyDescent="0.35" outlineLevel="0" r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="45"/>
       <c r="B8" s="45"/>
       <c r="C8" s="45"/>
@@ -1873,7 +1873,7 @@
       <c r="H8" s="39"/>
       <c r="I8" s="40"/>
     </row>
-    <row spans="1:9" x14ac:dyDescent="0.35" outlineLevel="0" r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="45" t="s">
         <v>197</v>
       </c>
@@ -1890,7 +1890,7 @@
       <c r="H9" s="39"/>
       <c r="I9" s="41"/>
     </row>
-    <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="10">
+    <row r="10" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="45" t="s">
         <v>208</v>
       </c>
@@ -1913,7 +1913,7 @@
       <c r="H10" s="39"/>
       <c r="I10" s="41"/>
     </row>
-    <row spans="1:9" ht="87" x14ac:dyDescent="0.35" outlineLevel="0" r="11">
+    <row r="11" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="46" t="s">
         <v>93</v>
       </c>
@@ -1936,7 +1936,7 @@
       <c r="H11" s="39"/>
       <c r="I11" s="41"/>
     </row>
-    <row spans="1:9" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="12">
+    <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="49" t="s">
         <v>95</v>
       </c>
@@ -1959,7 +1959,7 @@
       <c r="H12" s="43"/>
       <c r="I12" s="44"/>
     </row>
-    <row spans="1:9" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="13">
+    <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="49" t="s">
         <v>197</v>
       </c>
@@ -1971,18 +1971,10 @@
       <c r="E13" s="49"/>
       <c r="F13" s="49"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="43" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="I13" s="44" t="inlineStr">
-        <is>
-          <t>07/01/2022 10:21:51</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:9" x14ac:dyDescent="0.35" outlineLevel="0" r="14">
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="50"/>
       <c r="B14" s="50"/>
       <c r="C14" s="51"/>

--- a/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
+++ b/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E40148-F547-4E6E-9EF5-6913A1CCE660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33BC09C-46E4-4C6A-BABD-4C5BF7C6069C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="213">
   <si>
     <t>Policy No</t>
   </si>
@@ -677,6 +677,12 @@
   </si>
   <si>
     <t>2000/03/17</t>
+  </si>
+  <si>
+    <t>AddBeneficiary</t>
+  </si>
+  <si>
+    <t>SF02031231</t>
   </si>
 </sst>
 </file>
@@ -686,7 +692,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###########################0.00#########"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,13 +748,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF002153"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -904,7 +903,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -988,7 +987,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -997,22 +996,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1368,8 +1361,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}" name="Table1" displayName="Table1" ref="A1:I13" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="A1:I13" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}" name="Table1" displayName="Table1" ref="A1:I14" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:I14" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F815EF09-5A8D-41CD-9C8D-1F1F859054C1}" name="Policy No" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{A75649DE-6DED-4E66-9436-0C7BC08EC505}" name="Function" dataDxfId="7"/>
@@ -1684,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1975,12 +1968,19 @@
       <c r="I13" s="44"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
+      <c r="A14" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="44"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -18760,60 +18760,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="50" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="51">
         <v>44562</v>
       </c>
     </row>
@@ -18840,60 +18840,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="50" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="51">
         <v>36746</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="51">
         <v>44562</v>
       </c>
     </row>

--- a/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
+++ b/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E697642\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33BC09C-46E4-4C6A-BABD-4C5BF7C6069C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CF4179-38F1-4E42-A9A1-E916C3A80B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy-Servicing" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Safrican_Just_Funeral" sheetId="5" r:id="rId6"/>
     <sheet name="AddaLife" sheetId="9" r:id="rId7"/>
     <sheet name="AddRolePlayer" sheetId="7" r:id="rId8"/>
+    <sheet name="AddRoleNext_month" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ChangeLifeData!$A$1:$F$2</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="231">
   <si>
     <t>Policy No</t>
   </si>
@@ -664,9 +665,6 @@
     <t>G</t>
   </si>
   <si>
-    <t>0005140974089</t>
-  </si>
-  <si>
     <t>Nstako</t>
   </si>
   <si>
@@ -683,6 +681,63 @@
   </si>
   <si>
     <t>SF02031231</t>
+  </si>
+  <si>
+    <t>TerminateRoleP</t>
+  </si>
+  <si>
+    <t>AddRoleNext_month</t>
+  </si>
+  <si>
+    <t>TerminateRoleP_next</t>
+  </si>
+  <si>
+    <t>2022/02/01</t>
+  </si>
+  <si>
+    <t>2000/08/08</t>
+  </si>
+  <si>
+    <t>2022/01/01</t>
+  </si>
+  <si>
+    <t>0008089063088</t>
+  </si>
+  <si>
+    <t>0008088872083</t>
+  </si>
+  <si>
+    <t>Add role Player starting on the 1st of the current month.</t>
+  </si>
+  <si>
+    <t>Terminate role Player starting on the 1st of the current month.</t>
+  </si>
+  <si>
+    <t>Add role Player starting on the 1st of the Nextt month.</t>
+  </si>
+  <si>
+    <t>Terminate role Player starting on the 1st of the Nextt month.</t>
+  </si>
+  <si>
+    <t>SS11100053</t>
+  </si>
+  <si>
+    <t>SS11100063</t>
+  </si>
+  <si>
+    <t>10/01/2022 14:50:27</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>10/01/2022 14:55:36</t>
+  </si>
+  <si>
+    <t>10/01/2022 14:57:18</t>
+  </si>
+  <si>
+    <t>10/01/2022 14:59:00</t>
   </si>
 </sst>
 </file>
@@ -903,7 +958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1007,6 +1062,15 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1675,10 +1739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1855,37 +1919,55 @@
       <c r="H7" s="39"/>
       <c r="I7" s="40"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
+    <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>220</v>
+      </c>
       <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
+      <c r="E8" s="45">
+        <v>3000</v>
+      </c>
       <c r="F8" s="45"/>
       <c r="G8" s="37"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="40"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H8" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="45" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="45"/>
+        <v>212</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>221</v>
+      </c>
       <c r="D9" s="45"/>
       <c r="E9" s="45">
         <v>3000</v>
       </c>
       <c r="F9" s="45"/>
       <c r="G9" s="37"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="41"/>
+      <c r="H9" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B10" s="45" t="s">
         <v>92</v>
@@ -1961,7 +2043,9 @@
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
+      <c r="E13" s="49">
+        <v>300</v>
+      </c>
       <c r="F13" s="49"/>
       <c r="G13" s="42"/>
       <c r="H13" s="43"/>
@@ -1969,18 +2053,66 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
+      <c r="E14" s="49">
+        <v>300</v>
+      </c>
       <c r="F14" s="49"/>
       <c r="G14" s="42"/>
       <c r="H14" s="43"/>
       <c r="I14" s="44"/>
+    </row>
+    <row r="15" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49">
+        <v>300</v>
+      </c>
+      <c r="F15" s="49"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="I15" s="55" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49">
+        <v>300</v>
+      </c>
+      <c r="F16" s="49"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="I16" s="55" t="s">
+        <v>230</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -18751,7 +18883,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18793,7 +18925,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C2" s="50" t="s">
         <v>195</v>
@@ -18802,13 +18934,13 @@
         <v>196</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F2" s="50" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H2" s="50" t="s">
         <v>193</v>
@@ -18830,7 +18962,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18881,24 +19013,100 @@
       <c r="D2" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="E2" s="51">
-        <v>36746</v>
+      <c r="E2" s="53" t="s">
+        <v>216</v>
       </c>
       <c r="F2" s="50" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="H2" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="I2" s="51">
-        <v>44562</v>
+      <c r="I2" s="53" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF5162B-B2C4-4F7B-B896-E345E78663FD}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="12.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
+++ b/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E697642\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CF4179-38F1-4E42-A9A1-E916C3A80B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74371C28-A856-4C6C-975F-1A0EE33D6D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy-Servicing" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="239">
   <si>
     <t>Policy No</t>
   </si>
@@ -738,6 +738,30 @@
   </si>
   <si>
     <t>10/01/2022 14:59:00</t>
+  </si>
+  <si>
+    <t>PostDatedUpgrade</t>
+  </si>
+  <si>
+    <t>Upgrade benefits starting from next month</t>
+  </si>
+  <si>
+    <t>PostDatedDowngrade</t>
+  </si>
+  <si>
+    <t>Downgrade benefits starting from next month</t>
+  </si>
+  <si>
+    <t>SS11111122</t>
+  </si>
+  <si>
+    <t>SS40244230</t>
+  </si>
+  <si>
+    <t>11/01/2022 13:27:04</t>
+  </si>
+  <si>
+    <t>11/01/2022 13:11:27</t>
   </si>
 </sst>
 </file>
@@ -1739,10 +1763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2112,6 +2136,46 @@
       </c>
       <c r="I16" s="55" t="s">
         <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" s="49">
+        <v>300</v>
+      </c>
+      <c r="H17" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="I17" s="55" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" t="s">
+        <v>234</v>
+      </c>
+      <c r="E18" s="49">
+        <v>300</v>
+      </c>
+      <c r="H18" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="I18" s="55" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
+++ b/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E697642\Desktop\autologs\2022\2022_01_12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74371C28-A856-4C6C-975F-1A0EE33D6D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82BB3763-86D6-4CEB-9FB5-AB566D2D1DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy-Servicing" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="248">
   <si>
     <t>Policy No</t>
   </si>
@@ -299,9 +299,6 @@
     <t>ChangeCollectionM</t>
   </si>
   <si>
-    <t>SS00754236</t>
-  </si>
-  <si>
     <t>Change type of collection method</t>
   </si>
   <si>
@@ -638,9 +635,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>SS03245675</t>
-  </si>
-  <si>
     <t>Sales Department</t>
   </si>
   <si>
@@ -668,21 +662,9 @@
     <t>Nstako</t>
   </si>
   <si>
-    <t>SS03245676</t>
-  </si>
-  <si>
-    <t>0003176390080</t>
-  </si>
-  <si>
-    <t>2000/03/17</t>
-  </si>
-  <si>
     <t>AddBeneficiary</t>
   </si>
   <si>
-    <t>SF02031231</t>
-  </si>
-  <si>
     <t>TerminateRoleP</t>
   </si>
   <si>
@@ -701,12 +683,6 @@
     <t>2022/01/01</t>
   </si>
   <si>
-    <t>0008089063088</t>
-  </si>
-  <si>
-    <t>0008088872083</t>
-  </si>
-  <si>
     <t>Add role Player starting on the 1st of the current month.</t>
   </si>
   <si>
@@ -719,49 +695,100 @@
     <t>Terminate role Player starting on the 1st of the Nextt month.</t>
   </si>
   <si>
-    <t>SS11100053</t>
-  </si>
-  <si>
-    <t>SS11100063</t>
-  </si>
-  <si>
-    <t>10/01/2022 14:50:27</t>
+    <t>PostDatedUpgrade</t>
+  </si>
+  <si>
+    <t>Upgrade benefits starting from next month</t>
+  </si>
+  <si>
+    <t>PostDatedDowngrade</t>
+  </si>
+  <si>
+    <t>Downgrade benefits starting from next month</t>
+  </si>
+  <si>
+    <t>SS11111122</t>
+  </si>
+  <si>
+    <t>SS40244230</t>
+  </si>
+  <si>
+    <t>SS11100095</t>
+  </si>
+  <si>
+    <t>SS11100096</t>
+  </si>
+  <si>
+    <t>0008089345089</t>
+  </si>
+  <si>
+    <t>0008088665081</t>
   </si>
   <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>10/01/2022 14:55:36</t>
-  </si>
-  <si>
-    <t>10/01/2022 14:57:18</t>
-  </si>
-  <si>
-    <t>10/01/2022 14:59:00</t>
-  </si>
-  <si>
-    <t>PostDatedUpgrade</t>
-  </si>
-  <si>
-    <t>Upgrade benefits starting from next month</t>
-  </si>
-  <si>
-    <t>PostDatedDowngrade</t>
-  </si>
-  <si>
-    <t>Downgrade benefits starting from next month</t>
-  </si>
-  <si>
-    <t>SS11111122</t>
-  </si>
-  <si>
-    <t>SS40244230</t>
-  </si>
-  <si>
-    <t>11/01/2022 13:27:04</t>
-  </si>
-  <si>
-    <t>11/01/2022 13:11:27</t>
+    <t>12/01/2022 12:24:27</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>12/01/2022 12:21:42</t>
+  </si>
+  <si>
+    <t>12/01/2022 11:50:08</t>
+  </si>
+  <si>
+    <t>12/01/2022 11:52:06</t>
+  </si>
+  <si>
+    <t>12/01/2022 12:19:58</t>
+  </si>
+  <si>
+    <t>12/01/2022 11:53:26</t>
+  </si>
+  <si>
+    <t>12/01/2022 11:55:15</t>
+  </si>
+  <si>
+    <t>12/01/2022 12:17:37</t>
+  </si>
+  <si>
+    <t>12/01/2022 12:15:42</t>
+  </si>
+  <si>
+    <t>SS03245765</t>
+  </si>
+  <si>
+    <t>12/01/2022 12:42:33</t>
+  </si>
+  <si>
+    <t>SS03245769</t>
+  </si>
+  <si>
+    <t>12/01/2022 14:50:30</t>
+  </si>
+  <si>
+    <t>12/01/2022 14:51:38</t>
+  </si>
+  <si>
+    <t>12/01/2022 14:53:23</t>
+  </si>
+  <si>
+    <t>SS03245969</t>
+  </si>
+  <si>
+    <t>0002088002080</t>
+  </si>
+  <si>
+    <t>2000/02/08</t>
+  </si>
+  <si>
+    <t>12/01/2022 15:19:23</t>
+  </si>
+  <si>
+    <t>SS03245964</t>
   </si>
 </sst>
 </file>
@@ -1765,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1813,7 +1840,7 @@
     </row>
     <row r="2" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>2</v>
@@ -1828,15 +1855,19 @@
         <v>3000</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="31"/>
+      <c r="H2" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="45" t="s">
         <v>79</v>
@@ -1848,35 +1879,43 @@
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="31"/>
+      <c r="H3" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="45" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="45" t="s">
         <v>175</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>176</v>
       </c>
       <c r="E4" s="45">
         <v>3000</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="31"/>
+      <c r="H4" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="45" t="s">
         <v>81</v>
@@ -1885,36 +1924,40 @@
         <v>82</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E5" s="45">
         <v>3000</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="31"/>
+      <c r="H5" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>85</v>
-      </c>
       <c r="D6" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E6" s="45">
         <v>3000</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G6" s="37"/>
       <c r="H6" s="38"/>
@@ -1922,22 +1965,22 @@
     </row>
     <row r="7" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="45" t="s">
-        <v>84</v>
+        <v>239</v>
       </c>
       <c r="B7" s="45" t="s">
         <v>83</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="45">
         <v>3000</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" s="37"/>
       <c r="H7" s="39"/>
@@ -1945,13 +1988,13 @@
     </row>
     <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="45" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="45">
@@ -1960,21 +2003,21 @@
       <c r="F8" s="45"/>
       <c r="G8" s="37"/>
       <c r="H8" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I8" s="54" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="45" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="45">
@@ -1983,87 +2026,99 @@
       <c r="F9" s="45"/>
       <c r="G9" s="37"/>
       <c r="H9" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="45" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E10" s="45">
         <v>3000</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G10" s="37"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="41"/>
+      <c r="H10" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="45" t="s">
-        <v>94</v>
-      </c>
       <c r="C11" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E11" s="45">
         <v>3000</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G11" s="37"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="41"/>
+      <c r="H11" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="I11" s="41" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="49" t="s">
-        <v>96</v>
-      </c>
       <c r="C12" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="49" t="s">
         <v>179</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>180</v>
       </c>
       <c r="E12" s="45">
         <v>3000</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44"/>
+      <c r="H12" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="49" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="49"/>
@@ -2072,15 +2127,19 @@
       </c>
       <c r="F13" s="49"/>
       <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="44"/>
+      <c r="H13" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="I13" s="44" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="49" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="49"/>
@@ -2094,13 +2153,13 @@
     </row>
     <row r="15" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="49" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D15" s="49"/>
       <c r="E15" s="49">
@@ -2109,21 +2168,21 @@
       <c r="F15" s="49"/>
       <c r="G15" s="42"/>
       <c r="H15" s="56" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="49" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="49">
@@ -2132,50 +2191,50 @@
       <c r="F16" s="49"/>
       <c r="G16" s="42"/>
       <c r="H16" s="56" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I16" s="55" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="49" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B17" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C17" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E17" s="49">
         <v>300</v>
       </c>
       <c r="H17" s="55" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I17" s="55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="49" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B18" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C18" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="E18" s="49">
         <v>300</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I18" s="55" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2193,7 +2252,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2214,36 +2273,36 @@
         <v>14</v>
       </c>
       <c r="C1" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="36" t="s">
         <v>101</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -9167,267 +9226,267 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B1" t="s">
         <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -18947,7 +19006,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18960,28 +19019,28 @@
         <v>16</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C1" s="50" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E1" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F1" s="50" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="I1" s="50" t="s">
         <v>190</v>
-      </c>
-      <c r="I1" s="50" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -18989,25 +19048,25 @@
         <v>21</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C2" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="50" t="s">
-        <v>196</v>
-      </c>
       <c r="E2" s="53" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="F2" s="50" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I2" s="51">
         <v>44562</v>
@@ -19026,7 +19085,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19040,13 +19099,13 @@
         <v>16</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C1" s="50" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E1" s="50" t="s">
         <v>17</v>
@@ -19055,13 +19114,13 @@
         <v>18</v>
       </c>
       <c r="G1" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="I1" s="50" t="s">
         <v>190</v>
-      </c>
-      <c r="I1" s="50" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -19069,28 +19128,28 @@
         <v>21</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F2" s="50" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I2" s="53" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -19104,7 +19163,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19117,13 +19176,13 @@
         <v>16</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C1" s="50" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E1" s="50" t="s">
         <v>17</v>
@@ -19132,13 +19191,13 @@
         <v>18</v>
       </c>
       <c r="G1" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="I1" s="50" t="s">
         <v>190</v>
-      </c>
-      <c r="I1" s="50" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -19146,28 +19205,28 @@
         <v>21</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F2" s="50" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I2" s="53" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
+++ b/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E697642\Desktop\autologs\2022\2022_01_12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82BB3763-86D6-4CEB-9FB5-AB566D2D1DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CF2333-5876-4BE8-B242-CC45F6FB82A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy-Servicing" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="249">
   <si>
     <t>Policy No</t>
   </si>
@@ -764,9 +764,6 @@
     <t>12/01/2022 12:42:33</t>
   </si>
   <si>
-    <t>SS03245769</t>
-  </si>
-  <si>
     <t>12/01/2022 14:50:30</t>
   </si>
   <si>
@@ -789,6 +786,12 @@
   </si>
   <si>
     <t>SS03245964</t>
+  </si>
+  <si>
+    <t>SS03245965</t>
+  </si>
+  <si>
+    <t>SS03245766</t>
   </si>
 </sst>
 </file>
@@ -933,7 +936,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -956,60 +959,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1045,12 +1000,6 @@
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1078,28 +1027,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1117,12 +1048,23 @@
     <xf numFmtId="22" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1130,22 +1072,10 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1200,29 +1130,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1252,30 +1159,81 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1291,7 +1249,7 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1304,6 +1262,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1319,7 +1283,7 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1332,6 +1296,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1347,7 +1317,7 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1360,6 +1330,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1375,7 +1351,7 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1388,6 +1364,44 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1423,40 +1437,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1476,18 +1456,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}" name="Table1" displayName="Table1" ref="A1:I14" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}" name="Table1" displayName="Table1" ref="A1:I14" totalsRowShown="0" headerRowDxfId="3" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="A1:I14" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F815EF09-5A8D-41CD-9C8D-1F1F859054C1}" name="Policy No" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{A75649DE-6DED-4E66-9436-0C7BC08EC505}" name="Function" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{D0ACACF5-8682-4E39-88F2-B44E3C8F2500}" name="Scenario" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{29F29C3D-8F0B-4BAF-96B9-4B4A62706445}" name="Scenario Detail" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{423CD947-5C33-4D60-9AFD-1471B5D0F26D}" name="Product" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{63F22A7E-5294-4622-A00B-A430B0E7ACBC}" name="Expected Results" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{FB7773F7-9331-4362-8DC0-661E87BD674A}" name="Actual Results" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{F815EF09-5A8D-41CD-9C8D-1F1F859054C1}" name="Policy No" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{A75649DE-6DED-4E66-9436-0C7BC08EC505}" name="Function" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{D0ACACF5-8682-4E39-88F2-B44E3C8F2500}" name="Scenario" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{29F29C3D-8F0B-4BAF-96B9-4B4A62706445}" name="Scenario Detail" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{423CD947-5C33-4D60-9AFD-1471B5D0F26D}" name="Product" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{63F22A7E-5294-4622-A00B-A430B0E7ACBC}" name="Expected Results" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{FB7773F7-9331-4362-8DC0-661E87BD674A}" name="Actual Results" dataDxfId="0"/>
     <tableColumn id="8" xr3:uid="{335C2C19-0811-48D1-8C22-3EB9FFA62095}" name="Test_Results" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{C744366D-6A50-4030-B5C5-0AE2E94DDABD}" name="Test_Date" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{C744366D-6A50-4030-B5C5-0AE2E94DDABD}" name="Test_Date" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1789,11 +1769,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1809,431 +1789,453 @@
     <col min="9" max="9" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
+    <row spans="1:9" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45" outlineLevel="0" r="1">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="45" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="45" t="s">
+    <row spans="1:9" ht="58" x14ac:dyDescent="0.35" outlineLevel="0" r="2">
+      <c r="A2" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="38">
         <v>3000</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38" t="s">
+      <c r="G2" s="49"/>
+      <c r="H2" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row spans="1:9" x14ac:dyDescent="0.35" outlineLevel="0" r="3">
+      <c r="A3" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38">
+        <v>3000</v>
+      </c>
+      <c r="F3" s="38"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="34" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I3" s="27" t="inlineStr">
+        <is>
+          <t>13/01/2022 09:45:30</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="4">
+      <c r="A4" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="38">
+        <v>3000</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="49"/>
+      <c r="H4" s="34" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I4" s="27" t="inlineStr">
+        <is>
+          <t>13/01/2022 09:42:53</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="5">
+      <c r="A5" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="38">
+        <v>3000</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="49"/>
+      <c r="H5" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="I5" s="27" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45">
+    <row spans="1:9" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="6">
+      <c r="A6" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="38">
         <v>3000</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38" t="s">
+      <c r="F6" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="49"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="7">
+      <c r="A7" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="38">
+        <v>3000</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="49"/>
+      <c r="H7" s="35" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="I7" s="36" t="inlineStr">
+        <is>
+          <t>13/01/2022 09:59:35</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:9" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="8">
+      <c r="A8" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38">
+        <v>3000</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="I3" s="31" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="E4" s="45">
+      <c r="I8" s="44" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row spans="1:9" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="9">
+      <c r="A9" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38">
         <v>3000</v>
       </c>
-      <c r="F4" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="45">
-        <v>3000</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>182</v>
-      </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38" t="s">
+      <c r="F9" s="38"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="I5" s="31" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="45" t="s">
-        <v>239</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="45">
-        <v>3000</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="31"/>
-    </row>
-    <row r="7" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="45" t="s">
-        <v>239</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="45">
-        <v>3000</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40"/>
-    </row>
-    <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45">
-        <v>3000</v>
-      </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="I8" s="54" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45">
-        <v>3000</v>
-      </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="27" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="45" t="s">
-        <v>243</v>
-      </c>
-      <c r="B10" s="45" t="s">
+    <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="10">
+      <c r="A10" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>91</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="38">
         <v>3000</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="39" t="s">
+      <c r="G10" s="49"/>
+      <c r="H10" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="37" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row spans="1:9" ht="87" x14ac:dyDescent="0.35" outlineLevel="0" r="11">
+      <c r="A11" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="38">
+        <v>3000</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="G11" s="49"/>
+      <c r="H11" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row spans="1:9" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="12">
+      <c r="A12" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="38">
+        <v>3000</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="49"/>
+      <c r="H12" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row spans="1:9" x14ac:dyDescent="0.35" outlineLevel="0" r="13">
+      <c r="A13" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38">
+        <v>300</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row spans="1:9" x14ac:dyDescent="0.35" outlineLevel="0" r="14">
+      <c r="A14" s="38" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A11" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="E11" s="45">
-        <v>3000</v>
-      </c>
-      <c r="F11" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="39" t="s">
+      <c r="B14" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38">
+        <v>300</v>
+      </c>
+      <c r="F14" s="38"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="37"/>
+    </row>
+    <row spans="1:9" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="15">
+      <c r="A15" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38">
+        <v>300</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="I11" s="41" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="E12" s="45">
-        <v>3000</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43" t="s">
-        <v>228</v>
-      </c>
-      <c r="I12" s="44" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="49" t="s">
-        <v>237</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49">
+      <c r="I15" s="27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row spans="1:9" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="16">
+      <c r="A16" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50">
         <v>300</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43" t="s">
+      <c r="F16" s="38"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="I13" s="44" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49">
+      <c r="I16" s="27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row spans="1:9" x14ac:dyDescent="0.35" outlineLevel="0" r="17">
+      <c r="A17" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="38">
         <v>300</v>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="44"/>
-    </row>
-    <row r="15" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>214</v>
-      </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49">
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row spans="1:9" x14ac:dyDescent="0.35" outlineLevel="0" r="18">
+      <c r="A18" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="50">
         <v>300</v>
       </c>
-      <c r="F15" s="49"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="56" t="s">
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="I15" s="55" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>215</v>
-      </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49">
-        <v>300</v>
-      </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="56" t="s">
-        <v>226</v>
-      </c>
-      <c r="I16" s="55" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="B17" t="s">
-        <v>216</v>
-      </c>
-      <c r="C17" t="s">
-        <v>217</v>
-      </c>
-      <c r="E17" s="49">
-        <v>300</v>
-      </c>
-      <c r="H17" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="I17" s="55" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="49" t="s">
-        <v>221</v>
-      </c>
-      <c r="B18" t="s">
-        <v>218</v>
-      </c>
-      <c r="C18" t="s">
-        <v>219</v>
-      </c>
-      <c r="E18" s="49">
-        <v>300</v>
-      </c>
-      <c r="H18" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="I18" s="55" t="s">
+      <c r="I18" s="27" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2266,22 +2268,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="32" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2292,7 +2294,7 @@
       <c r="B2" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="28" t="s">
         <v>137</v>
       </c>
       <c r="D2" s="26" t="s">
@@ -19015,60 +19017,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="40" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="F2" s="50" t="s">
+      <c r="E2" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="52" t="s">
-        <v>244</v>
-      </c>
-      <c r="H2" s="50" t="s">
+      <c r="G2" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="H2" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="I2" s="51">
+      <c r="I2" s="41">
         <v>44562</v>
       </c>
     </row>
@@ -19095,60 +19097,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="40" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="43" t="s">
         <v>211</v>
       </c>
     </row>
@@ -19172,60 +19174,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="40" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="43" t="s">
         <v>209</v>
       </c>
     </row>

--- a/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
+++ b/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CF2333-5876-4BE8-B242-CC45F6FB82A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB5AD48-9C06-4CE5-8F69-CC5A742BC2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy-Servicing" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="232">
   <si>
     <t>Policy No</t>
   </si>
@@ -578,9 +578,6 @@
     <t xml:space="preserve">Change a policy from  Cancelled policy status  to In-force  </t>
   </si>
   <si>
-    <t xml:space="preserve">Change a policy collection method   Stop order to  debit-check </t>
-  </si>
-  <si>
     <t>Edit the details of the life assure based on the changes in his/her life</t>
   </si>
   <si>
@@ -629,12 +626,6 @@
     <t>dob</t>
   </si>
   <si>
-    <t>Zulu</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Sales Department</t>
   </si>
   <si>
@@ -659,9 +650,6 @@
     <t>G</t>
   </si>
   <si>
-    <t>Nstako</t>
-  </si>
-  <si>
     <t>AddBeneficiary</t>
   </si>
   <si>
@@ -713,85 +701,46 @@
     <t>SS40244230</t>
   </si>
   <si>
-    <t>SS11100095</t>
-  </si>
-  <si>
-    <t>SS11100096</t>
-  </si>
-  <si>
-    <t>0008089345089</t>
-  </si>
-  <si>
-    <t>0008088665081</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>12/01/2022 12:24:27</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>12/01/2022 12:21:42</t>
-  </si>
-  <si>
-    <t>12/01/2022 11:50:08</t>
-  </si>
-  <si>
-    <t>12/01/2022 11:52:06</t>
-  </si>
-  <si>
-    <t>12/01/2022 12:19:58</t>
-  </si>
-  <si>
-    <t>12/01/2022 11:53:26</t>
-  </si>
-  <si>
-    <t>12/01/2022 11:55:15</t>
-  </si>
-  <si>
-    <t>12/01/2022 12:17:37</t>
-  </si>
-  <si>
-    <t>12/01/2022 12:15:42</t>
-  </si>
-  <si>
     <t>SS03245765</t>
   </si>
   <si>
-    <t>12/01/2022 12:42:33</t>
-  </si>
-  <si>
-    <t>12/01/2022 14:50:30</t>
-  </si>
-  <si>
-    <t>12/01/2022 14:51:38</t>
-  </si>
-  <si>
-    <t>12/01/2022 14:53:23</t>
-  </si>
-  <si>
-    <t>SS03245969</t>
-  </si>
-  <si>
-    <t>0002088002080</t>
-  </si>
-  <si>
-    <t>2000/02/08</t>
-  </si>
-  <si>
-    <t>12/01/2022 15:19:23</t>
-  </si>
-  <si>
-    <t>SS03245964</t>
-  </si>
-  <si>
-    <t>SS03245965</t>
-  </si>
-  <si>
-    <t>SS03245766</t>
+    <t>SS03245767</t>
+  </si>
+  <si>
+    <t>SS03945701</t>
+  </si>
+  <si>
+    <t>0010229256085</t>
+  </si>
+  <si>
+    <t>2000/10/22</t>
+  </si>
+  <si>
+    <t>Zama</t>
+  </si>
+  <si>
+    <t>Xulu</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>SS11100099</t>
+  </si>
+  <si>
+    <t>SS03945702</t>
+  </si>
+  <si>
+    <t>SS03945703</t>
+  </si>
+  <si>
+    <t>0008088416089</t>
+  </si>
+  <si>
+    <t>0008089378080</t>
+  </si>
+  <si>
+    <t>SS11100499</t>
   </si>
 </sst>
 </file>
@@ -1072,10 +1021,61 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill>
           <fgColor indexed="64"/>
-          <bgColor theme="0"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1095,22 +1095,10 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1155,85 +1143,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1437,6 +1346,46 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1456,18 +1405,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}" name="Table1" displayName="Table1" ref="A1:I14" totalsRowShown="0" headerRowDxfId="3" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}" name="Table1" displayName="Table1" ref="A1:I14" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="A1:I14" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F815EF09-5A8D-41CD-9C8D-1F1F859054C1}" name="Policy No" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{A75649DE-6DED-4E66-9436-0C7BC08EC505}" name="Function" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{D0ACACF5-8682-4E39-88F2-B44E3C8F2500}" name="Scenario" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{29F29C3D-8F0B-4BAF-96B9-4B4A62706445}" name="Scenario Detail" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{423CD947-5C33-4D60-9AFD-1471B5D0F26D}" name="Product" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{63F22A7E-5294-4622-A00B-A430B0E7ACBC}" name="Expected Results" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{FB7773F7-9331-4362-8DC0-661E87BD674A}" name="Actual Results" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{F815EF09-5A8D-41CD-9C8D-1F1F859054C1}" name="Policy No" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{A75649DE-6DED-4E66-9436-0C7BC08EC505}" name="Function" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{D0ACACF5-8682-4E39-88F2-B44E3C8F2500}" name="Scenario" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{29F29C3D-8F0B-4BAF-96B9-4B4A62706445}" name="Scenario Detail" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{423CD947-5C33-4D60-9AFD-1471B5D0F26D}" name="Product" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{63F22A7E-5294-4622-A00B-A430B0E7ACBC}" name="Expected Results" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{FB7773F7-9331-4362-8DC0-661E87BD674A}" name="Actual Results" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{335C2C19-0811-48D1-8C22-3EB9FFA62095}" name="Test_Results" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{C744366D-6A50-4030-B5C5-0AE2E94DDABD}" name="Test_Date" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{C744366D-6A50-4030-B5C5-0AE2E94DDABD}" name="Test_Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1772,15 +1721,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.6328125" customWidth="1"/>
     <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="37.36328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="43.36328125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.6328125" style="4" customWidth="1"/>
     <col min="5" max="5" width="16.36328125" customWidth="1"/>
     <col min="6" max="6" width="22.1796875" customWidth="1"/>
@@ -1835,15 +1784,11 @@
         <v>3000</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G2" s="49"/>
-      <c r="H2" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>239</v>
-      </c>
+      <c r="H2" s="34"/>
+      <c r="I2" s="27"/>
     </row>
     <row spans="1:9" x14ac:dyDescent="0.35" outlineLevel="0" r="3">
       <c r="A3" s="38" t="s">
@@ -1859,161 +1804,137 @@
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="49"/>
-      <c r="H3" s="34" t="inlineStr">
+      <c r="H3" s="34"/>
+      <c r="I3" s="27"/>
+    </row>
+    <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="4">
+      <c r="A4" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="38">
+        <v>3000</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="49"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="27"/>
+    </row>
+    <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="5">
+      <c r="A5" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="38">
+        <v>3000</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="49"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row spans="1:9" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="6">
+      <c r="A6" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="38">
+        <v>3000</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="49"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="7">
+      <c r="A7" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="38">
+        <v>3000</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="49"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
+    </row>
+    <row spans="1:9" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="8">
+      <c r="A8" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38">
+        <v>3000</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="34" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
       </c>
-      <c r="I3" s="27" t="inlineStr">
+      <c r="I8" s="44" t="inlineStr">
         <is>
-          <t>13/01/2022 09:45:30</t>
+          <t>13/01/2022 12:09:41</t>
         </is>
-      </c>
-    </row>
-    <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="4">
-      <c r="A4" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="E4" s="38">
-        <v>3000</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="34" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="I4" s="27" t="inlineStr">
-        <is>
-          <t>13/01/2022 09:42:53</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="5">
-      <c r="A5" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="38">
-        <v>3000</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row spans="1:9" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="6">
-      <c r="A6" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="38">
-        <v>3000</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="7">
-      <c r="A7" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="38">
-        <v>3000</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="35" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="I7" s="36" t="inlineStr">
-        <is>
-          <t>13/01/2022 09:59:35</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:9" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="8">
-      <c r="A8" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38">
-        <v>3000</v>
-      </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="I8" s="44" t="s">
-        <v>230</v>
       </c>
     </row>
     <row spans="1:9" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="9">
       <c r="A9" s="38" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38">
@@ -2021,16 +1942,12 @@
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="49"/>
-      <c r="H9" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>231</v>
-      </c>
+      <c r="H9" s="34"/>
+      <c r="I9" s="27"/>
     </row>
     <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="10">
       <c r="A10" s="38" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B10" s="38" t="s">
         <v>91</v>
@@ -2039,21 +1956,17 @@
         <v>109</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="38">
         <v>3000</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G10" s="49"/>
-      <c r="H10" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>245</v>
-      </c>
+      <c r="H10" s="35"/>
+      <c r="I10" s="37"/>
     </row>
     <row spans="1:9" ht="87" x14ac:dyDescent="0.35" outlineLevel="0" r="11">
       <c r="A11" s="39" t="s">
@@ -2066,21 +1979,17 @@
         <v>108</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E11" s="38">
         <v>3000</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G11" s="49"/>
-      <c r="H11" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>232</v>
-      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="37"/>
     </row>
     <row spans="1:9" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="12">
       <c r="A12" s="38" t="s">
@@ -2090,10 +1999,10 @@
         <v>95</v>
       </c>
       <c r="C12" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" s="38" t="s">
         <v>178</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>179</v>
       </c>
       <c r="E12" s="38">
         <v>3000</v>
@@ -2102,19 +2011,15 @@
         <v>107</v>
       </c>
       <c r="G12" s="49"/>
-      <c r="H12" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row spans="1:9" x14ac:dyDescent="0.35" outlineLevel="0" r="13">
+      <c r="H12" s="35"/>
+      <c r="I12" s="37"/>
+    </row>
+    <row spans="1:9" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="13">
       <c r="A13" s="38" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="38"/>
@@ -2123,19 +2028,15 @@
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="49"/>
-      <c r="H13" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>238</v>
-      </c>
+      <c r="H13" s="35"/>
+      <c r="I13" s="37"/>
     </row>
     <row spans="1:9" x14ac:dyDescent="0.35" outlineLevel="0" r="14">
       <c r="A14" s="38" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
@@ -2149,13 +2050,13 @@
     </row>
     <row spans="1:9" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="15">
       <c r="A15" s="38" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D15" s="38"/>
       <c r="E15" s="38">
@@ -2163,22 +2064,18 @@
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="49"/>
-      <c r="H15" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>233</v>
-      </c>
+      <c r="H15" s="34"/>
+      <c r="I15" s="27"/>
     </row>
     <row spans="1:9" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="16">
       <c r="A16" s="50" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D16" s="50"/>
       <c r="E16" s="50">
@@ -2186,22 +2083,18 @@
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="49"/>
-      <c r="H16" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>234</v>
-      </c>
+      <c r="H16" s="34"/>
+      <c r="I16" s="27"/>
     </row>
     <row spans="1:9" x14ac:dyDescent="0.35" outlineLevel="0" r="17">
       <c r="A17" s="38" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D17" s="48"/>
       <c r="E17" s="38">
@@ -2209,22 +2102,18 @@
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
-      <c r="H17" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>235</v>
-      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
     </row>
     <row spans="1:9" x14ac:dyDescent="0.35" outlineLevel="0" r="18">
       <c r="A18" s="50" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="50">
@@ -2232,12 +2121,8 @@
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
-      <c r="H18" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>236</v>
-      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2254,7 +2139,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2289,22 +2174,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -9228,7 +9113,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
         <v>21</v>
@@ -9248,7 +9133,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
         <v>105</v>
@@ -9268,7 +9153,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B3" t="s">
         <v>110</v>
@@ -9288,7 +9173,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B4" t="s">
         <v>111</v>
@@ -9308,7 +9193,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
         <v>112</v>
@@ -9328,7 +9213,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
         <v>113</v>
@@ -19008,7 +18893,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19021,28 +18906,28 @@
         <v>16</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C1" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F1" s="40" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="40" t="s">
         <v>189</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -19050,25 +18935,25 @@
         <v>21</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="F2" s="40" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I2" s="41">
         <v>44562</v>
@@ -19087,7 +18972,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19101,13 +18986,13 @@
         <v>16</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C1" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>17</v>
@@ -19116,13 +19001,13 @@
         <v>18</v>
       </c>
       <c r="G1" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="40" t="s">
         <v>189</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -19130,28 +19015,28 @@
         <v>21</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F2" s="40" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I2" s="43" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -19165,7 +19050,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J8" sqref="J8:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19178,13 +19063,13 @@
         <v>16</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C1" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>17</v>
@@ -19193,13 +19078,13 @@
         <v>18</v>
       </c>
       <c r="G1" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="40" t="s">
         <v>189</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -19207,28 +19092,28 @@
         <v>21</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F2" s="40" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I2" s="43" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
+++ b/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB5AD48-9C06-4CE5-8F69-CC5A742BC2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015198C1-DE4B-4DD7-9209-8D602D1CE56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="248">
   <si>
     <t>Policy No</t>
   </si>
@@ -695,9 +695,6 @@
     <t>Downgrade benefits starting from next month</t>
   </si>
   <si>
-    <t>SS11111122</t>
-  </si>
-  <si>
     <t>SS40244230</t>
   </si>
   <si>
@@ -731,16 +728,67 @@
     <t>SS03945702</t>
   </si>
   <si>
-    <t>SS03945703</t>
-  </si>
-  <si>
-    <t>0008088416089</t>
-  </si>
-  <si>
     <t>0008089378080</t>
   </si>
   <si>
-    <t>SS11100499</t>
+    <t>SS11100699</t>
+  </si>
+  <si>
+    <t>0008087969088</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>13/01/2022 12:40:30</t>
+  </si>
+  <si>
+    <t>13/01/2022 12:43:34</t>
+  </si>
+  <si>
+    <t>13/01/2022 12:56:22</t>
+  </si>
+  <si>
+    <t>13/01/2022 12:58:51</t>
+  </si>
+  <si>
+    <t>SS11100095</t>
+  </si>
+  <si>
+    <t>13/01/2022 14:43:20</t>
+  </si>
+  <si>
+    <t>13/01/2022 14:33:05</t>
+  </si>
+  <si>
+    <t>13/01/2022 14:31:00</t>
+  </si>
+  <si>
+    <t>13/01/2022 14:44:28</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>13/01/2022 14:36:19</t>
+  </si>
+  <si>
+    <t>13/01/2022 14:48:59</t>
+  </si>
+  <si>
+    <t>13/01/2022 14:27:48</t>
+  </si>
+  <si>
+    <t>13/01/2022 14:46:45</t>
+  </si>
+  <si>
+    <t>13/01/2022 14:34:41</t>
+  </si>
+  <si>
+    <t>13/01/2022 14:20:33</t>
+  </si>
+  <si>
+    <t>13/01/2022 14:14:46</t>
   </si>
 </sst>
 </file>
@@ -750,7 +798,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###########################0.00#########"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -821,6 +869,12 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF111111"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -913,7 +967,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1014,6 +1068,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1718,11 +1773,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1738,7 +1793,7 @@
     <col min="9" max="9" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row spans="1:9" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45" outlineLevel="0" r="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -1767,7 +1822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row spans="1:9" ht="58" x14ac:dyDescent="0.35" outlineLevel="0" r="2">
+    <row r="2" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
         <v>88</v>
       </c>
@@ -1787,10 +1842,14 @@
         <v>179</v>
       </c>
       <c r="G2" s="49"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="27"/>
-    </row>
-    <row spans="1:9" x14ac:dyDescent="0.35" outlineLevel="0" r="3">
+      <c r="H2" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="38" t="s">
         <v>90</v>
       </c>
@@ -1804,10 +1863,14 @@
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="49"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="27"/>
-    </row>
-    <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="4">
+      <c r="H3" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="38" t="s">
         <v>90</v>
       </c>
@@ -1827,10 +1890,14 @@
         <v>180</v>
       </c>
       <c r="G4" s="49"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="27"/>
-    </row>
-    <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="5">
+      <c r="H4" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="38" t="s">
         <v>87</v>
       </c>
@@ -1850,12 +1917,16 @@
         <v>181</v>
       </c>
       <c r="G5" s="49"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="27"/>
-    </row>
-    <row spans="1:9" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="6">
+      <c r="H5" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B6" s="38" t="s">
         <v>96</v>
@@ -1876,9 +1947,9 @@
       <c r="H6" s="34"/>
       <c r="I6" s="27"/>
     </row>
-    <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="7">
+    <row r="7" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B7" s="38" t="s">
         <v>83</v>
@@ -1896,12 +1967,16 @@
         <v>86</v>
       </c>
       <c r="G7" s="49"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
-    </row>
-    <row spans="1:9" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="8">
+      <c r="H7" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="38" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>89</v>
@@ -1915,20 +1990,16 @@
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="49"/>
-      <c r="H8" s="34" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="I8" s="44" t="inlineStr">
-        <is>
-          <t>13/01/2022 12:09:41</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:9" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="9">
+      <c r="H8" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="38" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B9" s="38" t="s">
         <v>202</v>
@@ -1942,12 +2013,16 @@
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="49"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="27"/>
-    </row>
-    <row spans="1:9" ht="43.5" x14ac:dyDescent="0.35" outlineLevel="0" r="10">
+      <c r="H9" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B10" s="38" t="s">
         <v>91</v>
@@ -1965,10 +2040,14 @@
         <v>182</v>
       </c>
       <c r="G10" s="49"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="37"/>
-    </row>
-    <row spans="1:9" ht="87" x14ac:dyDescent="0.35" outlineLevel="0" r="11">
+      <c r="H10" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="39" t="s">
         <v>92</v>
       </c>
@@ -1988,10 +2067,14 @@
         <v>183</v>
       </c>
       <c r="G11" s="49"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="37"/>
-    </row>
-    <row spans="1:9" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="12">
+      <c r="H11" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="s">
         <v>94</v>
       </c>
@@ -2011,12 +2094,16 @@
         <v>107</v>
       </c>
       <c r="G12" s="49"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="37"/>
-    </row>
-    <row spans="1:9" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="13">
+      <c r="H12" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B13" s="38" t="s">
         <v>184</v>
@@ -2028,12 +2115,16 @@
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="49"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="37"/>
-    </row>
-    <row spans="1:9" x14ac:dyDescent="0.35" outlineLevel="0" r="14">
+      <c r="H13" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="38" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B14" s="38" t="s">
         <v>201</v>
@@ -2048,9 +2139,9 @@
       <c r="H14" s="35"/>
       <c r="I14" s="37"/>
     </row>
-    <row spans="1:9" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="15">
+    <row r="15" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B15" s="38" t="s">
         <v>203</v>
@@ -2064,12 +2155,16 @@
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="49"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="27"/>
-    </row>
-    <row spans="1:9" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="16">
+      <c r="H15" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B16" s="50" t="s">
         <v>204</v>
@@ -2083,10 +2178,14 @@
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="49"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="27"/>
-    </row>
-    <row spans="1:9" x14ac:dyDescent="0.35" outlineLevel="0" r="17">
+      <c r="H16" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="38" t="s">
         <v>216</v>
       </c>
@@ -2102,12 +2201,16 @@
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-    </row>
-    <row spans="1:9" x14ac:dyDescent="0.35" outlineLevel="0" r="18">
-      <c r="A18" s="50" t="s">
-        <v>217</v>
+      <c r="H17" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="38" t="s">
+        <v>235</v>
       </c>
       <c r="B18" s="51" t="s">
         <v>214</v>
@@ -2121,8 +2224,15 @@
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
+      <c r="H18" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I20" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -18935,22 +19045,22 @@
         <v>21</v>
       </c>
       <c r="B2" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="D2" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>225</v>
-      </c>
       <c r="E2" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F2" s="40" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H2" s="40" t="s">
         <v>191</v>
@@ -18972,7 +19082,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19107,7 +19217,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H2" s="40" t="s">
         <v>191</v>

--- a/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
+++ b/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015198C1-DE4B-4DD7-9209-8D602D1CE56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F620813-0DAD-4A3B-8489-C76C23D7C04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy-Servicing" sheetId="2" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="Serenity_Premium" sheetId="4" r:id="rId3"/>
     <sheet name="Dropdown" sheetId="8" r:id="rId4"/>
     <sheet name="ChangeBeneData" sheetId="3" r:id="rId5"/>
-    <sheet name="Safrican_Just_Funeral" sheetId="5" r:id="rId6"/>
-    <sheet name="AddaLife" sheetId="9" r:id="rId7"/>
-    <sheet name="AddRolePlayer" sheetId="7" r:id="rId8"/>
-    <sheet name="AddRoleNext_month" sheetId="10" r:id="rId9"/>
+    <sheet name="CollectionM" sheetId="11" r:id="rId6"/>
+    <sheet name="Safrican_Just_Funeral" sheetId="5" r:id="rId7"/>
+    <sheet name="AddaLife" sheetId="9" r:id="rId8"/>
+    <sheet name="AddRolePlayer" sheetId="7" r:id="rId9"/>
+    <sheet name="AddRoleNext_month" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ChangeLifeData!$A$1:$F$2</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="249">
   <si>
     <t>Policy No</t>
   </si>
@@ -701,94 +702,97 @@
     <t>SS03245765</t>
   </si>
   <si>
-    <t>SS03245767</t>
-  </si>
-  <si>
     <t>SS03945701</t>
   </si>
   <si>
-    <t>0010229256085</t>
-  </si>
-  <si>
-    <t>2000/10/22</t>
-  </si>
-  <si>
-    <t>Zama</t>
-  </si>
-  <si>
     <t>Xulu</t>
   </si>
   <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>SS11100099</t>
-  </si>
-  <si>
-    <t>SS03945702</t>
-  </si>
-  <si>
-    <t>0008089378080</t>
-  </si>
-  <si>
-    <t>SS11100699</t>
-  </si>
-  <si>
-    <t>0008087969088</t>
+    <t>SS11100095</t>
+  </si>
+  <si>
+    <t>SS03945704</t>
+  </si>
+  <si>
+    <t>SS03945705</t>
+  </si>
+  <si>
+    <t>0009285425089</t>
+  </si>
+  <si>
+    <t>2000/09/28</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>SS11100619</t>
+  </si>
+  <si>
+    <t>SS11100629</t>
+  </si>
+  <si>
+    <t>0008085568080</t>
+  </si>
+  <si>
+    <t>0008087370089</t>
   </si>
   <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>13/01/2022 12:40:30</t>
-  </si>
-  <si>
-    <t>13/01/2022 12:43:34</t>
-  </si>
-  <si>
-    <t>13/01/2022 12:56:22</t>
-  </si>
-  <si>
-    <t>13/01/2022 12:58:51</t>
-  </si>
-  <si>
-    <t>SS11100095</t>
-  </si>
-  <si>
-    <t>13/01/2022 14:43:20</t>
-  </si>
-  <si>
-    <t>13/01/2022 14:33:05</t>
-  </si>
-  <si>
-    <t>13/01/2022 14:31:00</t>
-  </si>
-  <si>
-    <t>13/01/2022 14:44:28</t>
+    <t>13/01/2022 16:04:59</t>
+  </si>
+  <si>
+    <t>13/01/2022 16:07:02</t>
+  </si>
+  <si>
+    <t>13/01/2022 16:11:40</t>
+  </si>
+  <si>
+    <t>13/01/2022 16:13:35</t>
+  </si>
+  <si>
+    <t>13/01/2022 16:44:45</t>
+  </si>
+  <si>
+    <t>13/01/2022 16:42:56</t>
+  </si>
+  <si>
+    <t>13/01/2022 16:41:19</t>
+  </si>
+  <si>
+    <t>13/01/2022 16:46:09</t>
+  </si>
+  <si>
+    <t>13/01/2022 16:39:09</t>
+  </si>
+  <si>
+    <t>13/01/2022 16:55:34</t>
+  </si>
+  <si>
+    <t>13/01/2022 16:56:59</t>
   </si>
   <si>
     <t>Failed</t>
   </si>
   <si>
-    <t>13/01/2022 14:36:19</t>
-  </si>
-  <si>
-    <t>13/01/2022 14:48:59</t>
-  </si>
-  <si>
-    <t>13/01/2022 14:27:48</t>
-  </si>
-  <si>
-    <t>13/01/2022 14:46:45</t>
-  </si>
-  <si>
-    <t>13/01/2022 14:34:41</t>
-  </si>
-  <si>
-    <t>13/01/2022 14:20:33</t>
-  </si>
-  <si>
-    <t>13/01/2022 14:14:46</t>
+    <t>13/01/2022 17:16:30</t>
+  </si>
+  <si>
+    <t>13/01/2022 17:00:20</t>
+  </si>
+  <si>
+    <t>13/01/2022 16:58:17</t>
+  </si>
+  <si>
+    <t>employee_number1</t>
+  </si>
+  <si>
+    <t>employee_number2</t>
   </si>
 </sst>
 </file>
@@ -967,7 +971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1069,6 +1073,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1776,18 +1783,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.6328125" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="2" max="2" width="35.1796875" customWidth="1"/>
     <col min="3" max="3" width="43.36328125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.6328125" style="4" customWidth="1"/>
     <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="22.1796875" customWidth="1"/>
+    <col min="6" max="6" width="25.1796875" customWidth="1"/>
     <col min="7" max="7" width="17.81640625" customWidth="1"/>
     <col min="8" max="8" width="16.1796875" customWidth="1"/>
     <col min="9" max="9" width="24.81640625" customWidth="1"/>
@@ -1843,10 +1850,10 @@
       </c>
       <c r="G2" s="49"/>
       <c r="H2" s="34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1864,10 +1871,10 @@
       <c r="F3" s="38"/>
       <c r="G3" s="49"/>
       <c r="H3" s="34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -1891,10 +1898,10 @@
       </c>
       <c r="G4" s="49"/>
       <c r="H4" s="34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -1918,15 +1925,15 @@
       </c>
       <c r="G5" s="49"/>
       <c r="H5" s="34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B6" s="38" t="s">
         <v>96</v>
@@ -1949,7 +1956,7 @@
     </row>
     <row r="7" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
-        <v>218</v>
+        <v>90</v>
       </c>
       <c r="B7" s="38" t="s">
         <v>83</v>
@@ -1968,15 +1975,15 @@
       </c>
       <c r="G7" s="49"/>
       <c r="H7" s="35" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>89</v>
@@ -1991,15 +1998,15 @@
       <c r="F8" s="38"/>
       <c r="G8" s="49"/>
       <c r="H8" s="34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I8" s="44" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B9" s="38" t="s">
         <v>202</v>
@@ -2014,15 +2021,15 @@
       <c r="F9" s="38"/>
       <c r="G9" s="49"/>
       <c r="H9" s="34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="38" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B10" s="38" t="s">
         <v>91</v>
@@ -2041,10 +2048,10 @@
       </c>
       <c r="G10" s="49"/>
       <c r="H10" s="35" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="87" x14ac:dyDescent="0.35">
@@ -2068,10 +2075,10 @@
       </c>
       <c r="G11" s="49"/>
       <c r="H11" s="35" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -2095,13 +2102,13 @@
       </c>
       <c r="G12" s="49"/>
       <c r="H12" s="35" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="38" t="s">
         <v>217</v>
       </c>
@@ -2116,10 +2123,10 @@
       <c r="F13" s="38"/>
       <c r="G13" s="49"/>
       <c r="H13" s="35" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -2141,7 +2148,7 @@
     </row>
     <row r="15" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="38" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B15" s="38" t="s">
         <v>203</v>
@@ -2156,15 +2163,15 @@
       <c r="F15" s="38"/>
       <c r="G15" s="49"/>
       <c r="H15" s="34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="50" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B16" s="50" t="s">
         <v>204</v>
@@ -2179,10 +2186,10 @@
       <c r="F16" s="38"/>
       <c r="G16" s="49"/>
       <c r="H16" s="34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -2202,15 +2209,15 @@
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
       <c r="H17" s="27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="38" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B18" s="51" t="s">
         <v>214</v>
@@ -2224,12 +2231,8 @@
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
-      <c r="H18" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>247</v>
-      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I20" s="52"/>
@@ -2244,12 +2247,88 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF5162B-B2C4-4F7B-B896-E345E78663FD}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="12.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A4A292-240A-4D5D-90BA-625919CD3573}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2284,22 +2363,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>103</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -9561,10 +9640,46 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3D8CAB-0E14-4279-809A-3C7733342420}">
+  <dimension ref="M1:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="13" max="13" width="17.36328125" customWidth="1"/>
+    <col min="14" max="14" width="16.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="M1" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="13:14" x14ac:dyDescent="0.35">
+      <c r="M2" s="53">
+        <v>87678765</v>
+      </c>
+      <c r="N2" s="53">
+        <v>87688765</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5E7B35-3B13-4283-A904-8C8CA7625FAB}">
   <dimension ref="A1:AY88"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="Y1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -18998,12 +19113,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11D5283-EA1B-4FFD-A8B1-716D2E628F52}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19045,22 +19160,22 @@
         <v>21</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D2" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="43" t="s">
         <v>224</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>221</v>
       </c>
       <c r="F2" s="40" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H2" s="40" t="s">
         <v>191</v>
@@ -19077,12 +19192,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACE6922-48CC-4DAE-B734-2DA1995626B5}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19153,80 +19268,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF5162B-B2C4-4F7B-B896-E345E78663FD}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="7" max="7" width="12.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>205</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
+++ b/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F620813-0DAD-4A3B-8489-C76C23D7C04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5554BD-70E8-49F2-814F-13E5CB5C22BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy-Servicing" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="179">
   <si>
     <t>Policy No</t>
   </si>
@@ -54,16 +54,7 @@
     <t>Function</t>
   </si>
   <si>
-    <t>CancelPolicy</t>
-  </si>
-  <si>
     <t>Scenario</t>
-  </si>
-  <si>
-    <t>Cancel a policy</t>
-  </si>
-  <si>
-    <t>The policy should change status from In-force to Not Taken Up</t>
   </si>
   <si>
     <t>Scenario Detail</t>
@@ -285,61 +276,10 @@
     <t>Extended_50000</t>
   </si>
   <si>
-    <t>DecreaseSumAssured</t>
-  </si>
-  <si>
     <t>IncreaseSumAssured</t>
   </si>
   <si>
-    <t>ReInstate</t>
-  </si>
-  <si>
-    <t>Re-Instate cancelled policy</t>
-  </si>
-  <si>
-    <t>ChangeCollectionM</t>
-  </si>
-  <si>
-    <t>Change type of collection method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change a policy collection  pending debi-check to  Stop order </t>
-  </si>
-  <si>
-    <t>Test should fail because the validation was incorrect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SF17721125	</t>
-  </si>
-  <si>
-    <t>SF17721125</t>
-  </si>
-  <si>
-    <t>AddRolePlayer</t>
-  </si>
-  <si>
     <t>SS00256539</t>
-  </si>
-  <si>
-    <t>AddaLife</t>
-  </si>
-  <si>
-    <t>SS00256542</t>
-  </si>
-  <si>
-    <t>IncreaseSumAssuredAge</t>
-  </si>
-  <si>
-    <t>SS00256543</t>
-  </si>
-  <si>
-    <t>ChangeLifeAssured</t>
-  </si>
-  <si>
-    <t>ChangeCollectionMeth</t>
-  </si>
-  <si>
-    <t>Test should pass because the validation is correct</t>
   </si>
   <si>
     <t>Department</t>
@@ -364,18 +304,6 @@
   </si>
   <si>
     <t>Ms</t>
-  </si>
-  <si>
-    <t>Change type of collection method of a policy</t>
-  </si>
-  <si>
-    <t>Life assured should be able to change details</t>
-  </si>
-  <si>
-    <t>Increase sum assured - based on current age will increase the premium</t>
-  </si>
-  <si>
-    <t>Lives may be added  to the policy at any time.  The premium on the policy will  increase with the addition of lives</t>
   </si>
   <si>
     <t>Mrs</t>
@@ -570,39 +498,6 @@
     <t>Col</t>
   </si>
   <si>
-    <t>Upgrade sum assure of role-player</t>
-  </si>
-  <si>
-    <t xml:space="preserve">upgrade sum assure of role-player and the   premium amount should increase.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change a policy from  Cancelled policy status  to In-force  </t>
-  </si>
-  <si>
-    <t>Edit the details of the life assure based on the changes in his/her life</t>
-  </si>
-  <si>
-    <t>Life assured changes surname and marital status and  title</t>
-  </si>
-  <si>
-    <t>The policy should be scheduled to be cancelled on the first of the next month</t>
-  </si>
-  <si>
-    <t>upgrade sum assure of role-player and monitor the premium increase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Policy moves from In-Force to Cancelled to In-force </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adding of a life assured to policy should increase he premium amount </t>
-  </si>
-  <si>
-    <t>Sum assured age should determine the increase in total sum assured based on rate table ,Premiums should increase.</t>
-  </si>
-  <si>
-    <t>RemovaleOfNonCompulsoryLife</t>
-  </si>
-  <si>
     <t>First_Name</t>
   </si>
   <si>
@@ -651,18 +546,6 @@
     <t>G</t>
   </si>
   <si>
-    <t>AddBeneficiary</t>
-  </si>
-  <si>
-    <t>TerminateRoleP</t>
-  </si>
-  <si>
-    <t>AddRoleNext_month</t>
-  </si>
-  <si>
-    <t>TerminateRoleP_next</t>
-  </si>
-  <si>
     <t>2022/02/01</t>
   </si>
   <si>
@@ -672,49 +555,7 @@
     <t>2022/01/01</t>
   </si>
   <si>
-    <t>Add role Player starting on the 1st of the current month.</t>
-  </si>
-  <si>
-    <t>Terminate role Player starting on the 1st of the current month.</t>
-  </si>
-  <si>
-    <t>Add role Player starting on the 1st of the Nextt month.</t>
-  </si>
-  <si>
-    <t>Terminate role Player starting on the 1st of the Nextt month.</t>
-  </si>
-  <si>
-    <t>PostDatedUpgrade</t>
-  </si>
-  <si>
-    <t>Upgrade benefits starting from next month</t>
-  </si>
-  <si>
-    <t>PostDatedDowngrade</t>
-  </si>
-  <si>
-    <t>Downgrade benefits starting from next month</t>
-  </si>
-  <si>
-    <t>SS40244230</t>
-  </si>
-  <si>
-    <t>SS03245765</t>
-  </si>
-  <si>
-    <t>SS03945701</t>
-  </si>
-  <si>
     <t>Xulu</t>
-  </si>
-  <si>
-    <t>SS11100095</t>
-  </si>
-  <si>
-    <t>SS03945704</t>
-  </si>
-  <si>
-    <t>SS03945705</t>
   </si>
   <si>
     <t>0009285425089</t>
@@ -729,70 +570,19 @@
     <t>L</t>
   </si>
   <si>
-    <t>SS11100619</t>
-  </si>
-  <si>
-    <t>SS11100629</t>
-  </si>
-  <si>
     <t>0008085568080</t>
   </si>
   <si>
     <t>0008087370089</t>
   </si>
   <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>13/01/2022 16:04:59</t>
-  </si>
-  <si>
-    <t>13/01/2022 16:07:02</t>
-  </si>
-  <si>
-    <t>13/01/2022 16:11:40</t>
-  </si>
-  <si>
-    <t>13/01/2022 16:13:35</t>
-  </si>
-  <si>
-    <t>13/01/2022 16:44:45</t>
-  </si>
-  <si>
-    <t>13/01/2022 16:42:56</t>
-  </si>
-  <si>
-    <t>13/01/2022 16:41:19</t>
-  </si>
-  <si>
-    <t>13/01/2022 16:46:09</t>
-  </si>
-  <si>
-    <t>13/01/2022 16:39:09</t>
-  </si>
-  <si>
-    <t>13/01/2022 16:55:34</t>
-  </si>
-  <si>
-    <t>13/01/2022 16:56:59</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>13/01/2022 17:16:30</t>
-  </si>
-  <si>
-    <t>13/01/2022 17:00:20</t>
-  </si>
-  <si>
-    <t>13/01/2022 16:58:17</t>
-  </si>
-  <si>
     <t>employee_number1</t>
   </si>
   <si>
     <t>employee_number2</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
@@ -802,7 +592,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###########################0.00#########"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -881,6 +671,13 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -943,7 +740,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -966,12 +763,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1076,12 +899,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1467,18 +1372,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}" name="Table1" displayName="Table1" ref="A1:I14" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="A1:I14" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F815EF09-5A8D-41CD-9C8D-1F1F859054C1}" name="Policy No" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{A75649DE-6DED-4E66-9436-0C7BC08EC505}" name="Function" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{D0ACACF5-8682-4E39-88F2-B44E3C8F2500}" name="Scenario" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{29F29C3D-8F0B-4BAF-96B9-4B4A62706445}" name="Scenario Detail" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{423CD947-5C33-4D60-9AFD-1471B5D0F26D}" name="Product" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{63F22A7E-5294-4622-A00B-A430B0E7ACBC}" name="Expected Results" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{FB7773F7-9331-4362-8DC0-661E87BD674A}" name="Actual Results" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{335C2C19-0811-48D1-8C22-3EB9FFA62095}" name="Test_Results" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{C744366D-6A50-4030-B5C5-0AE2E94DDABD}" name="Test_Date" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}" name="Table1" displayName="Table1" ref="A1:J14" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="A1:J14" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{F815EF09-5A8D-41CD-9C8D-1F1F859054C1}" name="Policy No" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{A75649DE-6DED-4E66-9436-0C7BC08EC505}" name="Function" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{D0ACACF5-8682-4E39-88F2-B44E3C8F2500}" name="Scenario" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{29F29C3D-8F0B-4BAF-96B9-4B4A62706445}" name="Scenario Detail" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{423CD947-5C33-4D60-9AFD-1471B5D0F26D}" name="Product" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{63F22A7E-5294-4622-A00B-A430B0E7ACBC}" name="Expected Results" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{FB7773F7-9331-4362-8DC0-661E87BD674A}" name="Actual Results" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{335C2C19-0811-48D1-8C22-3EB9FFA62095}" name="Test_Results" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{80466B51-2305-4DF9-9EAC-2923B49E340E}" name="Comments" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{C744366D-6A50-4030-B5C5-0AE2E94DDABD}" name="Test_Date" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1781,10 +1687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1797,10 +1703,11 @@
     <col min="6" max="6" width="25.1796875" customWidth="1"/>
     <col min="7" max="7" width="17.81640625" customWidth="1"/>
     <col min="8" max="8" width="16.1796875" customWidth="1"/>
-    <col min="9" max="9" width="24.81640625" customWidth="1"/>
+    <col min="9" max="9" width="34.81640625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -1808,434 +1715,242 @@
         <v>1</v>
       </c>
       <c r="C1" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="E1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="45" t="s">
-        <v>9</v>
-      </c>
       <c r="F1" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="I1" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" ht="123" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>5</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="38">
         <v>3000</v>
       </c>
-      <c r="F2" s="38" t="s">
-        <v>179</v>
-      </c>
+      <c r="F2" s="38"/>
       <c r="G2" s="49"/>
-      <c r="H2" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>79</v>
-      </c>
+      <c r="H2" s="34"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="27"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="54"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
-      <c r="E3" s="38">
-        <v>3000</v>
-      </c>
+      <c r="E3" s="38"/>
       <c r="F3" s="38"/>
       <c r="G3" s="49"/>
-      <c r="H3" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="E4" s="38">
-        <v>3000</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>180</v>
-      </c>
+      <c r="H3" s="34"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="55"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="54"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
       <c r="G4" s="49"/>
-      <c r="H4" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="38">
-        <v>3000</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>181</v>
-      </c>
+      <c r="H4" s="35"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="56"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
       <c r="G5" s="49"/>
-      <c r="H5" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="38">
-        <v>3000</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>97</v>
-      </c>
+      <c r="H5" s="34"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="27"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="49"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="38">
-        <v>3000</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>86</v>
-      </c>
+      <c r="I6" s="62"/>
+      <c r="J6" s="27"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="49"/>
-      <c r="H7" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>208</v>
-      </c>
+      <c r="H7" s="35"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="36"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="38"/>
-      <c r="E8" s="38">
-        <v>3000</v>
-      </c>
+      <c r="E8" s="38"/>
       <c r="F8" s="38"/>
       <c r="G8" s="49"/>
-      <c r="H8" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="I8" s="44" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>209</v>
-      </c>
+      <c r="H8" s="34"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="44"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="38"/>
-      <c r="E9" s="38">
-        <v>3000</v>
-      </c>
+      <c r="E9" s="38"/>
       <c r="F9" s="38"/>
       <c r="G9" s="49"/>
-      <c r="H9" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="38">
-        <v>3000</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>182</v>
-      </c>
+      <c r="H9" s="34"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="27"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="49"/>
-      <c r="H10" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="87" x14ac:dyDescent="0.35">
-      <c r="A11" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="E11" s="38">
-        <v>3000</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>183</v>
-      </c>
+      <c r="H10" s="35"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="37"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="39"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="49"/>
-      <c r="H11" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="E12" s="38">
-        <v>3000</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>107</v>
-      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="37"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="49"/>
-      <c r="H12" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>184</v>
-      </c>
+      <c r="H12" s="35"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="37"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="38"/>
       <c r="D13" s="38"/>
-      <c r="E13" s="38">
-        <v>300</v>
-      </c>
+      <c r="E13" s="38"/>
       <c r="F13" s="38"/>
       <c r="G13" s="49"/>
-      <c r="H13" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>201</v>
-      </c>
+      <c r="H13" s="35"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="37"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
-      <c r="E14" s="38">
-        <v>300</v>
-      </c>
+      <c r="E14" s="38"/>
       <c r="F14" s="38"/>
-      <c r="G14" s="49"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="35"/>
-      <c r="I14" s="37"/>
-    </row>
-    <row r="15" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>210</v>
-      </c>
+      <c r="I14" s="65"/>
+      <c r="J14" s="37"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="38"/>
-      <c r="E15" s="38">
-        <v>300</v>
-      </c>
+      <c r="E15" s="38"/>
       <c r="F15" s="38"/>
       <c r="G15" s="49"/>
-      <c r="H15" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="50" t="s">
-        <v>228</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>211</v>
-      </c>
+      <c r="H15" s="34"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="27"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="50"/>
-      <c r="E16" s="50">
-        <v>300</v>
-      </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>213</v>
-      </c>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="60"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="38"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="48"/>
-      <c r="E17" s="38">
-        <v>300</v>
-      </c>
+      <c r="E17" s="38"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
-      <c r="H17" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="B18" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>215</v>
-      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="50"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="33"/>
-      <c r="E18" s="50">
-        <v>300</v>
-      </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
       <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I20" s="52"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J20" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2262,60 +1977,60 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="C1" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>17</v>
-      </c>
       <c r="F1" s="40" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="I2" s="43" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2343,42 +2058,42 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2442,258 +2157,258 @@
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="M1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="AA1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AD1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AG1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AH1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AI1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AK1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AL1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AM1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AN1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AO1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AM1" s="13" t="s">
+      <c r="AP1" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="AN1" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO1" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP1" s="12" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA2" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AG2" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AH2" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AM2" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AO2" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AP2" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.35">
@@ -9302,267 +9017,267 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="E1" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="F1" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="F4" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="F5" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F6" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="F8" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="F9" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="F10" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F11" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="F12" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="F13" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="F14" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -9593,42 +9308,42 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -9643,7 +9358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3D8CAB-0E14-4279-809A-3C7733342420}">
   <dimension ref="M1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -9655,10 +9370,10 @@
   <sheetData>
     <row r="1" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M1" s="32" t="s">
-        <v>247</v>
+        <v>176</v>
       </c>
       <c r="N1" s="32" t="s">
-        <v>248</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="13:14" x14ac:dyDescent="0.35">
@@ -9692,312 +9407,312 @@
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="G1" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="K1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="N1" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="21" t="s">
+      <c r="R1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="Y1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="Z1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="U1" s="21" t="s">
+      <c r="AA1" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="AC1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="AD1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y1" s="21" t="s">
+      <c r="AE1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH1" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK1" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO1" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="AQ1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AR1" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS1" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT1" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU1" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV1" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW1" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX1" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="AB1" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC1" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE1" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF1" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG1" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH1" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI1" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ1" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK1" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL1" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="AM1" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN1" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO1" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP1" s="21" t="s">
+      <c r="AY1" s="21" t="s">
         <v>75</v>
-      </c>
-      <c r="AQ1" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR1" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS1" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT1" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU1" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV1" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW1" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="AX1" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY1" s="21" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S2" s="22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="V2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="X2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Y2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AB2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AC2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AD2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AE2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AF2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AG2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AH2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AI2" s="23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AJ2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AK2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AL2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AM2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AN2" s="22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AO2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AP2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AQ2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AR2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AS2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AT2" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AU2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AV2" s="22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AW2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AX2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AY2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.35">
@@ -19128,57 +18843,57 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="I2" s="41">
         <v>44562</v>
@@ -19208,60 +18923,60 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="C1" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>17</v>
-      </c>
       <c r="F1" s="40" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="I2" s="43" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
+++ b/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E697642\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5554BD-70E8-49F2-814F-13E5CB5C22BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF56E4DC-8504-4B62-BC81-FE22D7D3B86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy-Servicing" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="185">
   <si>
     <t>Policy No</t>
   </si>
@@ -584,6 +584,26 @@
   <si>
     <t>Comments</t>
   </si>
+  <si>
+    <t>Safrican Just Funeral (3000)</t>
+  </si>
+  <si>
+    <t>OpenQA.Selenium.NoSuchElementException: Cannot locate option with value: 110000_x000D_
+   at OpenQA.Selenium.Support.UI.SelectElement.SelectByValue(String value)_x000D_
+   at PolicyServicing.PolicyServicing.IncreaseSumAssured(String contractRef) in C:\Users\E697642\D</t>
+  </si>
+  <si>
+    <t>DecreaseSumAssured</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>19/01/2022 16:22:52</t>
+  </si>
+  <si>
+    <t>19/01/2022 16:24:36</t>
+  </si>
 </sst>
 </file>
 
@@ -794,7 +814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -939,12 +959,54 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -985,45 +1047,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1383,8 +1406,8 @@
     <tableColumn id="6" xr3:uid="{63F22A7E-5294-4622-A00B-A430B0E7ACBC}" name="Expected Results" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{FB7773F7-9331-4362-8DC0-661E87BD674A}" name="Actual Results" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{335C2C19-0811-48D1-8C22-3EB9FFA62095}" name="Test_Results" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{80466B51-2305-4DF9-9EAC-2923B49E340E}" name="Comments" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{C744366D-6A50-4030-B5C5-0AE2E94DDABD}" name="Test_Date" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{80466B51-2305-4DF9-9EAC-2923B49E340E}" name="Comments" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{C744366D-6A50-4030-B5C5-0AE2E94DDABD}" name="Test_Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1689,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1748,26 +1771,42 @@
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
-      <c r="E2" s="38">
-        <v>3000</v>
+      <c r="E2" s="68" t="s">
+        <v>179</v>
       </c>
       <c r="F2" s="38"/>
       <c r="G2" s="49"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="27"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="54"/>
-      <c r="B3" s="38"/>
+      <c r="H2" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="I2" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>181</v>
+      </c>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="E3" s="68" t="s">
+        <v>179</v>
+      </c>
       <c r="F3" s="38"/>
       <c r="G3" s="49"/>
-      <c r="H3" s="34"/>
+      <c r="H3" s="34" t="s">
+        <v>182</v>
+      </c>
       <c r="I3" s="63"/>
-      <c r="J3" s="55"/>
+      <c r="J3" s="55" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="54"/>

--- a/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
+++ b/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E697642\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF56E4DC-8504-4B62-BC81-FE22D7D3B86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A787E33-E315-4BA1-BCBC-A8BAE454D4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy-Servicing" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="198">
   <si>
     <t>Policy No</t>
   </si>
@@ -279,9 +279,6 @@
     <t>IncreaseSumAssured</t>
   </si>
   <si>
-    <t>SS00256539</t>
-  </si>
-  <si>
     <t>Department</t>
   </si>
   <si>
@@ -585,24 +582,64 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Safrican Just Funeral (3000)</t>
-  </si>
-  <si>
-    <t>OpenQA.Selenium.NoSuchElementException: Cannot locate option with value: 110000_x000D_
-   at OpenQA.Selenium.Support.UI.SelectElement.SelectByValue(String value)_x000D_
-   at PolicyServicing.PolicyServicing.IncreaseSumAssured(String contractRef) in C:\Users\E697642\D</t>
-  </si>
-  <si>
     <t>DecreaseSumAssured</t>
   </si>
   <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>19/01/2022 16:22:52</t>
-  </si>
-  <si>
-    <t>19/01/2022 16:24:36</t>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>AddRolePlayer</t>
+  </si>
+  <si>
+    <t>TerminateRolePlayer</t>
+  </si>
+  <si>
+    <t>AddRole_NextMonth</t>
+  </si>
+  <si>
+    <t>PostDatedDowngrade</t>
+  </si>
+  <si>
+    <t>PostDatedUpgrade</t>
+  </si>
+  <si>
+    <t>IncreaseSumAssuredAge</t>
+  </si>
+  <si>
+    <t>RemovalOfNonCompulsoryLife</t>
+  </si>
+  <si>
+    <t>ChangeCollectionMeth</t>
+  </si>
+  <si>
+    <t>ReInstate</t>
+  </si>
+  <si>
+    <t>ChangeLifeAssured</t>
+  </si>
+  <si>
+    <t>AddaLife</t>
+  </si>
+  <si>
+    <t>addBeneficiary</t>
+  </si>
+  <si>
+    <t>ChangeCollectionM</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>SS72244130</t>
+  </si>
+  <si>
+    <t>SS03946734</t>
+  </si>
+  <si>
+    <t>CancelPolicy</t>
+  </si>
+  <si>
+    <t>SS11100095</t>
   </si>
 </sst>
 </file>
@@ -612,7 +649,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###########################0.00#########"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,6 +731,13 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -814,7 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -862,9 +906,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -905,16 +946,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -931,13 +968,7 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -947,19 +978,22 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1395,8 +1429,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}" name="Table1" displayName="Table1" ref="A1:J14" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="A1:J14" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}" name="Table1" displayName="Table1" ref="A1:J18" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="A1:J18" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{F815EF09-5A8D-41CD-9C8D-1F1F859054C1}" name="Policy No" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{A75649DE-6DED-4E66-9436-0C7BC08EC505}" name="Function" dataDxfId="8"/>
@@ -1709,11 +1743,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1722,7 +1756,7 @@
     <col min="2" max="2" width="35.1796875" customWidth="1"/>
     <col min="3" max="3" width="43.36328125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="5" max="5" width="24.90625" customWidth="1"/>
     <col min="6" max="6" width="25.1796875" customWidth="1"/>
     <col min="7" max="7" width="17.81640625" customWidth="1"/>
     <col min="8" max="8" width="16.1796875" customWidth="1"/>
@@ -1730,266 +1764,313 @@
     <col min="10" max="10" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
+    <row spans="1:10" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45" outlineLevel="0" r="1">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="2">
+      <c r="A2" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="33" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="I2" s="58" t="inlineStr">
+        <is>
+          <t>Object reference not set to an instance of an object</t>
+        </is>
+      </c>
+      <c r="J2" s="52" t="inlineStr">
+        <is>
+          <t>26/01/2022 11:22:54</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="3">
+      <c r="A3" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37" t="inlineStr">
+        <is>
+          <t>Safrican Just Funeral (3000)</t>
+        </is>
+      </c>
+      <c r="F3" s="37"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="34" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="I3" s="59" t="inlineStr">
+        <is>
+          <t>no such element: Unable to locate element: method:css selectorselector:*[name=fcCollectionMethod]
+  (Session info: chrome=9604664110)</t>
+        </is>
+      </c>
+      <c r="J3" s="53" t="inlineStr">
+        <is>
+          <t>26/01/2022 11:26:52</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="4">
+      <c r="A4" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37" t="inlineStr">
+        <is>
+          <t>Safrican Just Funeral (3000)</t>
+        </is>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="33" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I4" s="57"/>
+      <c r="J4" s="52" t="inlineStr">
+        <is>
+          <t>26/01/2022 11:30:38</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="5">
+      <c r="A5" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="J1" s="45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="123" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="68" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="I2" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="68" t="s">
-        <v>179</v>
-      </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="55" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="54"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="56"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="27"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="49"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37" t="inlineStr">
+        <is>
+          <t>Safrican Just Funeral (3000)</t>
+        </is>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="33" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I5" s="57"/>
+      <c r="J5" s="52" t="inlineStr">
+        <is>
+          <t>26/01/2022 11:34:36</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="6">
+      <c r="A6" s="51"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="47"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="27"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="36"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="44"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="62"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="53"/>
+    </row>
+    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="7">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="35"/>
+    </row>
+    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="8">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="43"/>
+    </row>
+    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="9">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="57"/>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="37"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="39"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="37"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="37"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="37"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="37"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="27"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="60"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="38"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="27"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="27"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J20" s="52"/>
+    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="10">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="36"/>
+    </row>
+    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="11">
+      <c r="A11" s="38"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="36"/>
+    </row>
+    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="12">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="36"/>
+    </row>
+    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="13">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="36"/>
+    </row>
+    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="14">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="36"/>
+    </row>
+    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="15">
+      <c r="A15" s="51"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="52"/>
+    </row>
+    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="16">
+      <c r="A16" s="62"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="52"/>
+    </row>
+    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="17">
+      <c r="A17" s="51"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="52"/>
+    </row>
+    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="18">
+      <c r="A18" s="62"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="52"/>
+    </row>
+    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="20">
+      <c r="J20" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1998,6 +2079,18 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6B7A0E4F-DDE3-4826-92F4-603E836DB70E}">
+          <x14:formula1>
+            <xm:f>Dropdown!$G$2:$G$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>B7:B18 B2:B5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2015,61 +2108,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="40" t="s">
+      <c r="E1" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="40" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="E2" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="H2" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="I2" s="42" t="s">
         <v>165</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2103,16 +2196,16 @@
         <v>11</v>
       </c>
       <c r="C1" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="32" t="s">
         <v>80</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2120,19 +2213,19 @@
         <v>18</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2143,37 +2236,37 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D789A2EE-1FAB-4DF2-80EC-2E2D01AB4288}">
           <x14:formula1>
-            <xm:f>Dropdown!$A$1:$A$12</xm:f>
+            <xm:f>Dropdown!$A$2:$A$13</xm:f>
           </x14:formula1>
           <xm:sqref>E2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BD36C127-308E-4832-B090-AE5EB6F016EB}">
           <x14:formula1>
-            <xm:f>Dropdown!$B$1:$B$19</xm:f>
+            <xm:f>Dropdown!$B$2:$B$20</xm:f>
           </x14:formula1>
           <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0A704850-6031-4011-B17B-96DE3135B4BD}">
           <x14:formula1>
-            <xm:f>Dropdown!$C$1:$C$10</xm:f>
+            <xm:f>Dropdown!$C$2:$C$11</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D07E571C-59CE-47F3-B108-2A4C3E71F699}">
           <x14:formula1>
-            <xm:f>Dropdown!$D$1:$D$8</xm:f>
+            <xm:f>Dropdown!$D$2:$D$9</xm:f>
           </x14:formula1>
           <xm:sqref>C2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4D86FE76-8C47-4433-B99D-5E721117AB72}">
           <x14:formula1>
-            <xm:f>Dropdown!$E$1:$E$6</xm:f>
+            <xm:f>Dropdown!$E$2:$E$7</xm:f>
           </x14:formula1>
           <xm:sqref>D2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{86F0C28B-0B2D-4E3F-82F7-144F83220CE5}">
           <x14:formula1>
-            <xm:f>Dropdown!$F$1:$F$19</xm:f>
+            <xm:f>Dropdown!$F$2:$F$20</xm:f>
           </x14:formula1>
           <xm:sqref>F2</xm:sqref>
         </x14:dataValidation>
@@ -9041,9 +9134,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0280A1E1-10C8-479A-A428-3162F59DEFE5}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -9052,271 +9147,332 @@
     <col min="3" max="3" width="27.1796875" customWidth="1"/>
     <col min="4" max="4" width="34.54296875" customWidth="1"/>
     <col min="5" max="5" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.90625" style="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>163</v>
-      </c>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
         <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>160</v>
       </c>
       <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" t="s">
         <v>87</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>106</v>
       </c>
-      <c r="D4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" t="s">
         <v>121</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F6" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="G6" s="50" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>158</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>88</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
         <v>107</v>
       </c>
-      <c r="D5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>116</v>
       </c>
-      <c r="E6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="F8" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="G8" s="50" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>142</v>
       </c>
-      <c r="B7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>145</v>
       </c>
-      <c r="B9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>92</v>
       </c>
-      <c r="C10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="F12" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="G12" s="50" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>146</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>93</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F13" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="G13" s="50" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
         <v>94</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
+      <c r="G15" s="50" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
         <v>96</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F16" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
+      <c r="G16" s="50" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
         <v>97</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F17" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
+      <c r="G17" s="50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
         <v>98</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F18" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
         <v>99</v>
-      </c>
-      <c r="F17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>101</v>
       </c>
       <c r="F19" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>149</v>
+        <v>100</v>
+      </c>
+      <c r="F20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -9409,17 +9565,17 @@
   <sheetData>
     <row r="1" spans="13:14" x14ac:dyDescent="0.35">
       <c r="M1" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="N1" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="32" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="2" spans="13:14" x14ac:dyDescent="0.35">
-      <c r="M2" s="53">
+      <c r="M2" s="50">
         <v>87678765</v>
       </c>
-      <c r="N2" s="53">
+      <c r="N2" s="50">
         <v>87688765</v>
       </c>
     </row>
@@ -18881,60 +19037,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="40" t="s">
+      <c r="E1" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="40" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="E2" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="I2" s="41">
+      <c r="H2" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" s="40">
         <v>44562</v>
       </c>
     </row>
@@ -18961,61 +19117,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="40" t="s">
+      <c r="E1" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="40" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="E2" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" s="43" t="s">
+      <c r="I2" s="42" t="s">
         <v>167</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
+++ b/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A787E33-E315-4BA1-BCBC-A8BAE454D4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E615A7-5240-4C6B-BAC1-42CC95C540B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="1720" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy-Servicing" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="207">
   <si>
     <t>Policy No</t>
   </si>
@@ -630,16 +630,44 @@
     <t>Method</t>
   </si>
   <si>
-    <t>SS72244130</t>
-  </si>
-  <si>
-    <t>SS03946734</t>
-  </si>
-  <si>
     <t>CancelPolicy</t>
   </si>
   <si>
-    <t>SS11100095</t>
+    <t>SS03946733</t>
+  </si>
+  <si>
+    <t>SK88115509</t>
+  </si>
+  <si>
+    <t>SS00946925</t>
+  </si>
+  <si>
+    <t>Safrican Serenity Funeral Premium (1000)</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>26/01/2022 14:52:51</t>
+  </si>
+  <si>
+    <t>Safrican Just Funeral (3000)</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>26/01/2022 14:54:23</t>
+  </si>
+  <si>
+    <t>element not interactable
+  (Session info: chrome=9604664110)</t>
+  </si>
+  <si>
+    <t>26/01/2022 14:55:16</t>
+  </si>
+  <si>
+    <t>26/01/2022 14:56:40</t>
   </si>
 </sst>
 </file>
@@ -649,7 +677,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###########################0.00#########"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,6 +769,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="11">
@@ -912,9 +947,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -935,9 +967,6 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -996,6 +1025,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1429,8 +1460,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}" name="Table1" displayName="Table1" ref="A1:J18" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="A1:J18" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}" name="Table1" displayName="Table1" ref="A1:J14" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="A1:J14" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{F815EF09-5A8D-41CD-9C8D-1F1F859054C1}" name="Policy No" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{A75649DE-6DED-4E66-9436-0C7BC08EC505}" name="Function" dataDxfId="8"/>
@@ -1743,11 +1774,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
-  <dimension ref="A1:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1764,313 +1795,238 @@
     <col min="10" max="10" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row spans="1:10" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45" outlineLevel="0" r="1">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="2">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="63" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="36"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2" s="56"/>
+      <c r="J2" s="50" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="33" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="I2" s="58" t="inlineStr">
-        <is>
-          <t>Object reference not set to an instance of an object</t>
-        </is>
-      </c>
-      <c r="J2" s="52" t="inlineStr">
-        <is>
-          <t>26/01/2022 11:22:54</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="3">
-      <c r="A3" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37" t="inlineStr">
-        <is>
-          <t>Safrican Just Funeral (3000)</t>
-        </is>
-      </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="34" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="I3" s="59" t="inlineStr">
-        <is>
-          <t>no such element: Unable to locate element: method:css selectorselector:*[name=fcCollectionMethod]
-  (Session info: chrome=9604664110)</t>
-        </is>
-      </c>
-      <c r="J3" s="53" t="inlineStr">
-        <is>
-          <t>26/01/2022 11:26:52</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="4">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="I3" s="57"/>
+      <c r="J3" s="51" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="36"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="J4" s="51" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37" t="inlineStr">
-        <is>
-          <t>Safrican Just Funeral (3000)</t>
-        </is>
-      </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="33" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="52" t="inlineStr">
-        <is>
-          <t>26/01/2022 11:30:38</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="5">
-      <c r="A5" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37" t="inlineStr">
-        <is>
-          <t>Safrican Just Funeral (3000)</t>
-        </is>
-      </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="33" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="52" t="inlineStr">
-        <is>
-          <t>26/01/2022 11:34:36</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="6">
-      <c r="A6" s="51"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="47"/>
+      <c r="B5" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="36"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="I5" s="55"/>
+      <c r="J5" s="27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="45"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="53"/>
-    </row>
-    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="7">
+      <c r="I6" s="57"/>
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="47"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="45"/>
       <c r="H7" s="34"/>
-      <c r="I7" s="59"/>
+      <c r="I7" s="57"/>
       <c r="J7" s="35"/>
     </row>
-    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="8">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="33"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="34"/>
       <c r="I8" s="57"/>
-      <c r="J8" s="43"/>
-    </row>
-    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="9">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="33"/>
+      <c r="J8" s="35"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="34"/>
       <c r="I9" s="57"/>
-      <c r="J9" s="27"/>
-    </row>
-    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="10">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="47"/>
+      <c r="J9" s="35"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="45"/>
       <c r="H10" s="34"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="36"/>
-    </row>
-    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="11">
-      <c r="A11" s="38"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="36"/>
-    </row>
-    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="12">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="36"/>
-    </row>
-    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="13">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="14">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="36"/>
-    </row>
-    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="15">
-      <c r="A15" s="51"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="52"/>
-    </row>
-    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="16">
-      <c r="A16" s="62"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="52"/>
-    </row>
-    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="17">
-      <c r="A17" s="51"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="52"/>
-    </row>
-    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="18">
-      <c r="A18" s="62"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="52"/>
-    </row>
-    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="20">
-      <c r="J20" s="49"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="35"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="49"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="50"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="60"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="50"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="49"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="50"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="60"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="50"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J16" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2086,7 +2042,7 @@
           <x14:formula1>
             <xm:f>Dropdown!$G$2:$G$17</xm:f>
           </x14:formula1>
-          <xm:sqref>B7:B18 B2:B5</xm:sqref>
+          <xm:sqref>B2:B14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2108,60 +2064,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="38" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="41" t="s">
         <v>165</v>
       </c>
     </row>
@@ -9148,7 +9104,7 @@
     <col min="4" max="4" width="34.54296875" customWidth="1"/>
     <col min="5" max="5" width="29.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.90625" style="61" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.90625" style="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -9158,7 +9114,7 @@
       <c r="C1" t="s">
         <v>179</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="61" t="s">
         <v>193</v>
       </c>
     </row>
@@ -9181,7 +9137,7 @@
       <c r="F2" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="48" t="s">
         <v>180</v>
       </c>
     </row>
@@ -9204,7 +9160,7 @@
       <c r="F3" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="48" t="s">
         <v>181</v>
       </c>
     </row>
@@ -9227,7 +9183,7 @@
       <c r="F4" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="48" t="s">
         <v>76</v>
       </c>
     </row>
@@ -9250,7 +9206,7 @@
       <c r="F5" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="48" t="s">
         <v>178</v>
       </c>
     </row>
@@ -9273,7 +9229,7 @@
       <c r="F6" t="s">
         <v>127</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="48" t="s">
         <v>182</v>
       </c>
     </row>
@@ -9296,7 +9252,7 @@
       <c r="F7" t="s">
         <v>128</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="48" t="s">
         <v>183</v>
       </c>
     </row>
@@ -9316,7 +9272,7 @@
       <c r="F8" t="s">
         <v>129</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="48" t="s">
         <v>184</v>
       </c>
     </row>
@@ -9336,7 +9292,7 @@
       <c r="F9" t="s">
         <v>130</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="48" t="s">
         <v>185</v>
       </c>
     </row>
@@ -9353,7 +9309,7 @@
       <c r="F10" t="s">
         <v>131</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="48" t="s">
         <v>186</v>
       </c>
     </row>
@@ -9370,7 +9326,7 @@
       <c r="F11" t="s">
         <v>132</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="48" t="s">
         <v>187</v>
       </c>
     </row>
@@ -9384,7 +9340,7 @@
       <c r="F12" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="48" t="s">
         <v>188</v>
       </c>
     </row>
@@ -9398,8 +9354,8 @@
       <c r="F13" t="s">
         <v>134</v>
       </c>
-      <c r="G13" s="50" t="s">
-        <v>196</v>
+      <c r="G13" s="48" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -9409,7 +9365,7 @@
       <c r="F14" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="48" t="s">
         <v>189</v>
       </c>
     </row>
@@ -9420,7 +9376,7 @@
       <c r="F15" t="s">
         <v>135</v>
       </c>
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="48" t="s">
         <v>190</v>
       </c>
     </row>
@@ -9431,7 +9387,7 @@
       <c r="F16" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="48" t="s">
         <v>191</v>
       </c>
     </row>
@@ -9442,7 +9398,7 @@
       <c r="F17" t="s">
         <v>137</v>
       </c>
-      <c r="G17" s="50" t="s">
+      <c r="G17" s="48" t="s">
         <v>192</v>
       </c>
     </row>
@@ -9554,7 +9510,7 @@
   <dimension ref="M1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9572,11 +9528,11 @@
       </c>
     </row>
     <row r="2" spans="13:14" x14ac:dyDescent="0.35">
-      <c r="M2" s="50">
-        <v>87678765</v>
-      </c>
-      <c r="N2" s="50">
-        <v>87688765</v>
+      <c r="M2" s="48">
+        <v>87678265</v>
+      </c>
+      <c r="N2" s="48">
+        <v>98778678</v>
       </c>
     </row>
   </sheetData>
@@ -19037,60 +18993,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="38" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="I2" s="40">
+      <c r="I2" s="39">
         <v>44562</v>
       </c>
     </row>
@@ -19117,60 +19073,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="38" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="41" t="s">
         <v>167</v>
       </c>
     </row>

--- a/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
+++ b/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E615A7-5240-4C6B-BAC1-42CC95C540B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC649947-8D51-4887-A43B-7F5B2037BFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1720" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy-Servicing" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Safrican_Just_Funeral" sheetId="5" r:id="rId7"/>
     <sheet name="AddaLife" sheetId="9" r:id="rId8"/>
     <sheet name="AddRolePlayer" sheetId="7" r:id="rId9"/>
-    <sheet name="AddRoleNext_month" sheetId="10" r:id="rId10"/>
+    <sheet name="AddRole_NextMonth" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ChangeLifeData!$A$1:$F$2</definedName>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="207">
   <si>
     <t>Policy No</t>
   </si>
@@ -609,9 +609,6 @@
     <t>RemovalOfNonCompulsoryLife</t>
   </si>
   <si>
-    <t>ChangeCollectionMeth</t>
-  </si>
-  <si>
     <t>ReInstate</t>
   </si>
   <si>
@@ -624,22 +621,38 @@
     <t>addBeneficiary</t>
   </si>
   <si>
-    <t>ChangeCollectionM</t>
-  </si>
-  <si>
     <t>Method</t>
   </si>
   <si>
     <t>CancelPolicy</t>
   </si>
   <si>
-    <t>SS03946733</t>
+    <t>SK88115512</t>
+  </si>
+  <si>
+    <t>ChangeCollectionMethod</t>
+  </si>
+  <si>
+    <t>ChangeCollectionNegative</t>
+  </si>
+  <si>
+    <t>SF00122182</t>
   </si>
   <si>
     <t>SK88115509</t>
   </si>
   <si>
-    <t>SS00946925</t>
+    <t>Safrican Serenity Funeral (2000)</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>element not interactable
+  (Session info: chrome=970469271)</t>
+  </si>
+  <si>
+    <t>27/01/2022 14:27:05</t>
   </si>
   <si>
     <t>Safrican Serenity Funeral Premium (1000)</t>
@@ -648,26 +661,14 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>26/01/2022 14:52:51</t>
-  </si>
-  <si>
-    <t>Safrican Just Funeral (3000)</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>26/01/2022 14:54:23</t>
-  </si>
-  <si>
-    <t>element not interactable
-  (Session info: chrome=9604664110)</t>
-  </si>
-  <si>
-    <t>26/01/2022 14:55:16</t>
-  </si>
-  <si>
-    <t>26/01/2022 14:56:40</t>
+    <t>27/01/2022 14:28:46</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: method:xpathselector://*[id=AppArea]/table[2]/tbody/tr[2]/td[1]/a
+  (Session info: chrome=970469271)</t>
+  </si>
+  <si>
+    <t>27/01/2022 14:29:07</t>
   </si>
 </sst>
 </file>
@@ -677,7 +678,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###########################0.00#########"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,20 +763,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF111111"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF111111"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="11">
@@ -863,10 +850,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </right>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -876,10 +863,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -893,7 +880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -947,13 +934,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -967,6 +954,9 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -985,13 +975,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1004,29 +991,18 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1460,8 +1436,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}" name="Table1" displayName="Table1" ref="A1:J14" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="A1:J14" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}" name="Table1" displayName="Table1" ref="A1:J18" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="A1:J18" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{F815EF09-5A8D-41CD-9C8D-1F1F859054C1}" name="Policy No" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{A75649DE-6DED-4E66-9436-0C7BC08EC505}" name="Function" dataDxfId="8"/>
@@ -1775,10 +1751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1787,246 +1763,284 @@
     <col min="2" max="2" width="35.1796875" customWidth="1"/>
     <col min="3" max="3" width="43.36328125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.90625" customWidth="1"/>
+    <col min="5" max="5" width="35.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.1796875" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.81640625" style="8" customWidth="1"/>
     <col min="10" max="10" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="43" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="43" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="58" t="s">
+      <c r="B2" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="45"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="46"/>
       <c r="H2" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="I2" s="56"/>
+      <c r="I2" s="55" t="s">
+        <v>200</v>
+      </c>
       <c r="J2" s="50" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="34" t="s">
+      <c r="B3" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="51" t="s">
+      <c r="F3" s="37"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="33" t="s">
         <v>203</v>
       </c>
+      <c r="I3" s="55"/>
+      <c r="J3" s="50" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="64" t="s">
-        <v>197</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="45"/>
+      <c r="A4" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="I4" s="57" t="s">
-        <v>204</v>
+        <v>199</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>205</v>
       </c>
       <c r="J4" s="51" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="27" t="s">
-        <v>206</v>
-      </c>
+      <c r="A5" s="59"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="45"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="46"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="35"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="51"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="37"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="45"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="34"/>
-      <c r="I7" s="57"/>
+      <c r="I7" s="56"/>
       <c r="J7" s="35"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="35"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="42"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="35"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="45"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="46"/>
       <c r="H10" s="34"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="35"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="36"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="49"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="50"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="36"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="60"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="50"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="36"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="49"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="50"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="36"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="60"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="50"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="36"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J16" s="47"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="50"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="50"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="50"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J20" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2042,7 +2056,7 @@
           <x14:formula1>
             <xm:f>Dropdown!$G$2:$G$17</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B14</xm:sqref>
+          <xm:sqref>B7:B18 B2:B4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2055,7 +2069,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9093,7 +9107,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9104,7 +9118,7 @@
     <col min="4" max="4" width="34.54296875" customWidth="1"/>
     <col min="5" max="5" width="29.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.90625" style="59" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.90625" style="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -9114,8 +9128,8 @@
       <c r="C1" t="s">
         <v>179</v>
       </c>
-      <c r="G1" s="61" t="s">
-        <v>193</v>
+      <c r="G1" s="58" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -9137,7 +9151,7 @@
       <c r="F2" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="49" t="s">
         <v>180</v>
       </c>
     </row>
@@ -9160,7 +9174,7 @@
       <c r="F3" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="49" t="s">
         <v>181</v>
       </c>
     </row>
@@ -9183,7 +9197,7 @@
       <c r="F4" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="49" t="s">
         <v>76</v>
       </c>
     </row>
@@ -9206,7 +9220,7 @@
       <c r="F5" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="49" t="s">
         <v>178</v>
       </c>
     </row>
@@ -9229,7 +9243,7 @@
       <c r="F6" t="s">
         <v>127</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="49" t="s">
         <v>182</v>
       </c>
     </row>
@@ -9252,7 +9266,7 @@
       <c r="F7" t="s">
         <v>128</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="49" t="s">
         <v>183</v>
       </c>
     </row>
@@ -9272,7 +9286,7 @@
       <c r="F8" t="s">
         <v>129</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="49" t="s">
         <v>184</v>
       </c>
     </row>
@@ -9292,7 +9306,7 @@
       <c r="F9" t="s">
         <v>130</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="49" t="s">
         <v>185</v>
       </c>
     </row>
@@ -9309,7 +9323,7 @@
       <c r="F10" t="s">
         <v>131</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="49" t="s">
         <v>186</v>
       </c>
     </row>
@@ -9326,8 +9340,8 @@
       <c r="F11" t="s">
         <v>132</v>
       </c>
-      <c r="G11" s="48" t="s">
-        <v>187</v>
+      <c r="G11" s="49" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -9340,8 +9354,8 @@
       <c r="F12" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="48" t="s">
-        <v>188</v>
+      <c r="G12" s="49" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -9354,8 +9368,8 @@
       <c r="F13" t="s">
         <v>134</v>
       </c>
-      <c r="G13" s="48" t="s">
-        <v>194</v>
+      <c r="G13" s="49" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -9365,8 +9379,8 @@
       <c r="F14" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="48" t="s">
-        <v>189</v>
+      <c r="G14" s="49" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -9376,8 +9390,8 @@
       <c r="F15" t="s">
         <v>135</v>
       </c>
-      <c r="G15" s="48" t="s">
-        <v>190</v>
+      <c r="G15" s="49" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -9387,8 +9401,8 @@
       <c r="F16" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="48" t="s">
-        <v>191</v>
+      <c r="G16" s="49" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
@@ -9398,8 +9412,8 @@
       <c r="F17" t="s">
         <v>137</v>
       </c>
-      <c r="G17" s="48" t="s">
-        <v>192</v>
+      <c r="G17" s="49" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
@@ -9528,11 +9542,11 @@
       </c>
     </row>
     <row r="2" spans="13:14" x14ac:dyDescent="0.35">
-      <c r="M2" s="48">
-        <v>87678265</v>
-      </c>
-      <c r="N2" s="48">
-        <v>98778678</v>
+      <c r="M2" s="49">
+        <v>83431765</v>
+      </c>
+      <c r="N2" s="49">
+        <v>23451798</v>
       </c>
     </row>
   </sheetData>

--- a/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
+++ b/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC649947-8D51-4887-A43B-7F5B2037BFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CFD12E-EB4A-47B9-8DA4-A6A7DB277458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="234">
   <si>
     <t>Policy No</t>
   </si>
@@ -510,9 +510,6 @@
     <t>Comm_date</t>
   </si>
   <si>
-    <t>Jacob</t>
-  </si>
-  <si>
     <t>Child</t>
   </si>
   <si>
@@ -552,27 +549,6 @@
     <t>2022/01/01</t>
   </si>
   <si>
-    <t>Xulu</t>
-  </si>
-  <si>
-    <t>0009285425089</t>
-  </si>
-  <si>
-    <t>2000/09/28</t>
-  </si>
-  <si>
-    <t>Linda</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>0008085568080</t>
-  </si>
-  <si>
-    <t>0008087370089</t>
-  </si>
-  <si>
     <t>employee_number1</t>
   </si>
   <si>
@@ -627,48 +603,156 @@
     <t>CancelPolicy</t>
   </si>
   <si>
-    <t>SK88115512</t>
-  </si>
-  <si>
     <t>ChangeCollectionMethod</t>
   </si>
   <si>
     <t>ChangeCollectionNegative</t>
   </si>
   <si>
-    <t>SF00122182</t>
-  </si>
-  <si>
     <t>SK88115509</t>
   </si>
   <si>
-    <t>Safrican Serenity Funeral (2000)</t>
+    <t>TerminateRoleNext_month</t>
+  </si>
+  <si>
+    <t>Kamo</t>
+  </si>
+  <si>
+    <t>Mphela</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Jacobs</t>
+  </si>
+  <si>
+    <t>Mahlomu</t>
+  </si>
+  <si>
+    <t>Zulu</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>0008298287080</t>
+  </si>
+  <si>
+    <t>2000/08/29</t>
+  </si>
+  <si>
+    <t>SS11300192</t>
+  </si>
+  <si>
+    <t>SS11100619</t>
+  </si>
+  <si>
+    <t>SS18505072</t>
+  </si>
+  <si>
+    <t>SS23101799</t>
+  </si>
+  <si>
+    <t>SS24101799</t>
+  </si>
+  <si>
+    <t>0008088244085</t>
+  </si>
+  <si>
+    <t>0008089025087</t>
+  </si>
+  <si>
+    <t>SS11100084</t>
+  </si>
+  <si>
+    <t>SS03945705</t>
+  </si>
+  <si>
+    <t>SS11100959</t>
+  </si>
+  <si>
+    <t>SS11100969</t>
+  </si>
+  <si>
+    <t>SK71360085</t>
+  </si>
+  <si>
+    <t>Safrican Serenity Funeral Premium (1000)</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>27/01/2022 19:30:34</t>
+  </si>
+  <si>
+    <t>27/01/2022 19:32:13</t>
+  </si>
+  <si>
+    <t>Safrican Just Funeral (3000)</t>
+  </si>
+  <si>
+    <t>27/01/2022 19:33:48</t>
+  </si>
+  <si>
+    <t>27/01/2022 19:35:33</t>
   </si>
   <si>
     <t>Failed</t>
   </si>
   <si>
-    <t>element not interactable
-  (Session info: chrome=970469271)</t>
-  </si>
-  <si>
-    <t>27/01/2022 14:27:05</t>
-  </si>
-  <si>
-    <t>Safrican Serenity Funeral Premium (1000)</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>27/01/2022 14:28:46</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: method:xpathselector://*[id=AppArea]/table[2]/tbody/tr[2]/td[1]/a
-  (Session info: chrome=970469271)</t>
-  </si>
-  <si>
-    <t>27/01/2022 14:29:07</t>
+    <t>27/01/2022 19:37:36</t>
+  </si>
+  <si>
+    <t>Safrican Provide and Protect Plan (4000)</t>
+  </si>
+  <si>
+    <t>27/01/2022 19:38:52</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: method:xpathselector: //*[id=frmSubCbmre]/tbody/tr[4]/td[4]
+  (Session info: chrome=9604664110)</t>
+  </si>
+  <si>
+    <t>27/01/2022 19:40:37</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: method:xpathselector://*[id=CntContentsDiv11]/table/tbody/tr[8]/td[1]/span
+  (Session info: chrome=9604664110)</t>
+  </si>
+  <si>
+    <t>27/01/2022 19:41:13</t>
+  </si>
+  <si>
+    <t>27/01/2022 19:42:26</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: method:css selectorselector:*[name=btnTerminate]
+  (Session info: chrome=9604664110)</t>
+  </si>
+  <si>
+    <t>27/01/2022 19:43:08</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: method:xpathselector://*[id=CntContentsDiv9]/table/tbody/tr[2]/td[4]
+  (Session info: chrome=9604664110)</t>
+  </si>
+  <si>
+    <t>27/01/2022 19:44:32</t>
+  </si>
+  <si>
+    <t>27/01/2022 19:45:57</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: method:xpathselector://*[id=frmCbmre]/tbody/tr[8]/td[4]
+  (Session info: chrome=9604664110)</t>
+  </si>
+  <si>
+    <t>27/01/2022 19:47:29</t>
+  </si>
+  <si>
+    <t>27/01/2022 19:48:57</t>
   </si>
 </sst>
 </file>
@@ -1436,8 +1520,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}" name="Table1" displayName="Table1" ref="A1:J18" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="A1:J18" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}" name="Table1" displayName="Table1" ref="A1:J17" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="A1:J17" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{F815EF09-5A8D-41CD-9C8D-1F1F859054C1}" name="Policy No" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{A75649DE-6DED-4E66-9436-0C7BC08EC505}" name="Function" dataDxfId="8"/>
@@ -1751,10 +1835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1797,7 +1881,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="54" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>8</v>
@@ -1805,183 +1889,287 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
       <c r="E2" s="37" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="F2" s="37"/>
       <c r="G2" s="46"/>
       <c r="H2" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="I2" s="55" t="s">
-        <v>200</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="I2" s="55"/>
       <c r="J2" s="50" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
       <c r="E3" s="37" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="46"/>
       <c r="H3" s="33" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="I3" s="55"/>
       <c r="J3" s="50" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="E4" s="37" t="s">
+        <v>214</v>
+      </c>
       <c r="F4" s="37"/>
       <c r="G4" s="46"/>
       <c r="H4" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="I4" s="56" t="s">
-        <v>205</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="I4" s="56"/>
       <c r="J4" s="51" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="59"/>
-      <c r="B5" s="37"/>
+      <c r="A5" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>170</v>
+      </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
+      <c r="E5" s="37" t="s">
+        <v>214</v>
+      </c>
       <c r="F5" s="37"/>
       <c r="G5" s="46"/>
-      <c r="H5" s="34"/>
+      <c r="H5" s="34" t="s">
+        <v>211</v>
+      </c>
       <c r="I5" s="56"/>
-      <c r="J5" s="51"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
+      <c r="J5" s="51" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>177</v>
+      </c>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="E6" s="37" t="s">
+        <v>214</v>
+      </c>
       <c r="F6" s="37"/>
       <c r="G6" s="46"/>
-      <c r="H6" s="34"/>
+      <c r="H6" s="34" t="s">
+        <v>217</v>
+      </c>
       <c r="I6" s="56"/>
-      <c r="J6" s="51"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
+      <c r="J6" s="51" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>180</v>
+      </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
+      <c r="E7" s="37" t="s">
+        <v>219</v>
+      </c>
       <c r="F7" s="37"/>
       <c r="G7" s="46"/>
-      <c r="H7" s="34"/>
+      <c r="H7" s="34" t="s">
+        <v>217</v>
+      </c>
       <c r="I7" s="56"/>
-      <c r="J7" s="35"/>
+      <c r="J7" s="35" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
+      <c r="A8" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>172</v>
+      </c>
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
+      <c r="E8" s="37" t="s">
+        <v>214</v>
+      </c>
       <c r="F8" s="37"/>
       <c r="G8" s="46"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="42"/>
+      <c r="H8" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>173</v>
+      </c>
       <c r="C9" s="37"/>
       <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
+      <c r="E9" s="37" t="s">
+        <v>214</v>
+      </c>
       <c r="F9" s="37"/>
       <c r="G9" s="46"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="27"/>
+      <c r="H9" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
+      <c r="A10" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>174</v>
+      </c>
       <c r="C10" s="45"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
+      <c r="E10" s="37" t="s">
+        <v>214</v>
+      </c>
       <c r="F10" s="37"/>
       <c r="G10" s="46"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="36"/>
+      <c r="H10" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="I10" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>188</v>
+      </c>
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
+      <c r="E11" s="37" t="s">
+        <v>214</v>
+      </c>
       <c r="F11" s="37"/>
       <c r="G11" s="46"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="36"/>
+      <c r="H11" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="I11" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>175</v>
+      </c>
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
+      <c r="E12" s="37" t="s">
+        <v>214</v>
+      </c>
       <c r="F12" s="37"/>
       <c r="G12" s="46"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="36"/>
+      <c r="H12" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>176</v>
+      </c>
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
+      <c r="E13" s="37" t="s">
+        <v>214</v>
+      </c>
       <c r="F13" s="37"/>
       <c r="G13" s="46"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="36"/>
+      <c r="H13" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="I13" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
+      <c r="A14" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>178</v>
+      </c>
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
@@ -1992,55 +2180,67 @@
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="50"/>
+      <c r="A15" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="I15" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="J15" s="50" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="50"/>
+      <c r="A16" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="37"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="I16" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="J16" s="50" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
       <c r="G17" s="46"/>
       <c r="H17" s="33"/>
       <c r="I17" s="55"/>
       <c r="J17" s="50"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="50"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J20" s="48"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J19" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2051,12 +2251,18 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6B7A0E4F-DDE3-4826-92F4-603E836DB70E}">
           <x14:formula1>
             <xm:f>Dropdown!$G$2:$G$17</xm:f>
           </x14:formula1>
-          <xm:sqref>B7:B18 B2:B4</xm:sqref>
+          <xm:sqref>B2:B10 B12:B16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{78710DAA-84E0-44F5-A0ED-02C104AD9222}">
+          <x14:formula1>
+            <xm:f>Dropdown!$G$2:$G$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>B17 B11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2069,7 +2275,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2111,28 +2317,28 @@
         <v>18</v>
       </c>
       <c r="B2" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>164</v>
-      </c>
       <c r="E2" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F2" s="38" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2145,7 +2351,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2180,22 +2386,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>111</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -9107,7 +9313,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9126,15 +9332,15 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G1" s="58" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -9152,12 +9358,12 @@
         <v>123</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -9175,12 +9381,12 @@
         <v>124</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -9203,7 +9409,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -9221,12 +9427,12 @@
         <v>126</v>
       </c>
       <c r="G5" s="49" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
         <v>87</v>
@@ -9244,12 +9450,12 @@
         <v>127</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
         <v>88</v>
@@ -9267,7 +9473,7 @@
         <v>128</v>
       </c>
       <c r="G7" s="49" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -9287,7 +9493,7 @@
         <v>129</v>
       </c>
       <c r="G8" s="49" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -9307,7 +9513,7 @@
         <v>130</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -9324,7 +9530,7 @@
         <v>131</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -9341,7 +9547,7 @@
         <v>132</v>
       </c>
       <c r="G11" s="49" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -9355,7 +9561,7 @@
         <v>133</v>
       </c>
       <c r="G12" s="49" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -9369,7 +9575,7 @@
         <v>134</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -9380,7 +9586,7 @@
         <v>81</v>
       </c>
       <c r="G14" s="49" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -9391,7 +9597,7 @@
         <v>135</v>
       </c>
       <c r="G15" s="49" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -9402,7 +9608,7 @@
         <v>136</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
@@ -9413,7 +9619,7 @@
         <v>137</v>
       </c>
       <c r="G17" s="49" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
@@ -9422,6 +9628,9 @@
       </c>
       <c r="F18" t="s">
         <v>138</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
@@ -9455,8 +9664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58BF590-A1C4-40D9-A7C3-D99681DD5C9A}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9521,32 +9730,34 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3D8CAB-0E14-4279-809A-3C7733342420}">
-  <dimension ref="M1:N2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.36328125" customWidth="1"/>
     <col min="14" max="14" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="13:14" x14ac:dyDescent="0.35">
-      <c r="M1" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="N1" s="32" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="13:14" x14ac:dyDescent="0.35">
-      <c r="M2" s="49">
-        <v>83431765</v>
-      </c>
-      <c r="N2" s="49">
-        <v>23451798</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="49">
+        <v>83781765</v>
+      </c>
+      <c r="B2" s="49">
+        <v>23443798</v>
       </c>
     </row>
   </sheetData>
@@ -18998,7 +19209,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19020,7 +19231,7 @@
         <v>150</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F1" s="38" t="s">
         <v>15</v>
@@ -19040,25 +19251,25 @@
         <v>18</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="F2" s="38" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I2" s="39">
         <v>44562</v>
@@ -19077,7 +19288,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19120,28 +19331,28 @@
         <v>18</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F2" s="38" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
+++ b/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CFD12E-EB4A-47B9-8DA4-A6A7DB277458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F2B321-737C-4330-9B2F-2B03E078A163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="237">
   <si>
     <t>Policy No</t>
   </si>
@@ -642,9 +642,6 @@
     <t>2000/08/29</t>
   </si>
   <si>
-    <t>SS11300192</t>
-  </si>
-  <si>
     <t>SS11100619</t>
   </si>
   <si>
@@ -678,81 +675,97 @@
     <t>SK71360085</t>
   </si>
   <si>
+    <t>SS03946731</t>
+  </si>
+  <si>
     <t>Safrican Serenity Funeral Premium (1000)</t>
   </si>
   <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>27/01/2022 19:30:34</t>
-  </si>
-  <si>
-    <t>27/01/2022 19:32:13</t>
+    <t>28/01/2022 08:20:20</t>
+  </si>
+  <si>
+    <t>28/01/2022 08:22:00</t>
   </si>
   <si>
     <t>Safrican Just Funeral (3000)</t>
   </si>
   <si>
-    <t>27/01/2022 19:33:48</t>
-  </si>
-  <si>
-    <t>27/01/2022 19:35:33</t>
+    <t>28/01/2022 08:23:45</t>
   </si>
   <si>
     <t>Failed</t>
   </si>
   <si>
-    <t>27/01/2022 19:37:36</t>
+    <t>28/01/2022 08:25:45</t>
+  </si>
+  <si>
+    <t>28/01/2022 08:27:57</t>
   </si>
   <si>
     <t>Safrican Provide and Protect Plan (4000)</t>
   </si>
   <si>
-    <t>27/01/2022 19:38:52</t>
+    <t>28/01/2022 08:29:24</t>
   </si>
   <si>
     <t>no such element: Unable to locate element: method:xpathselector: //*[id=frmSubCbmre]/tbody/tr[4]/td[4]
-  (Session info: chrome=9604664110)</t>
-  </si>
-  <si>
-    <t>27/01/2022 19:40:37</t>
+  (Session info: chrome=970469271)</t>
+  </si>
+  <si>
+    <t>28/01/2022 08:31:15</t>
   </si>
   <si>
     <t>no such element: Unable to locate element: method:xpathselector://*[id=CntContentsDiv11]/table/tbody/tr[8]/td[1]/span
-  (Session info: chrome=9604664110)</t>
-  </si>
-  <si>
-    <t>27/01/2022 19:41:13</t>
-  </si>
-  <si>
-    <t>27/01/2022 19:42:26</t>
+  (Session info: chrome=970469271)</t>
+  </si>
+  <si>
+    <t>28/01/2022 08:31:51</t>
+  </si>
+  <si>
+    <t>28/01/2022 08:33:07</t>
   </si>
   <si>
     <t>no such element: Unable to locate element: method:css selectorselector:*[name=btnTerminate]
-  (Session info: chrome=9604664110)</t>
-  </si>
-  <si>
-    <t>27/01/2022 19:43:08</t>
+  (Session info: chrome=970469271)</t>
+  </si>
+  <si>
+    <t>28/01/2022 08:33:53</t>
   </si>
   <si>
     <t>no such element: Unable to locate element: method:xpathselector://*[id=CntContentsDiv9]/table/tbody/tr[2]/td[4]
-  (Session info: chrome=9604664110)</t>
-  </si>
-  <si>
-    <t>27/01/2022 19:44:32</t>
-  </si>
-  <si>
-    <t>27/01/2022 19:45:57</t>
+  (Session info: chrome=970469271)</t>
+  </si>
+  <si>
+    <t>28/01/2022 08:35:17</t>
+  </si>
+  <si>
+    <t>28/01/2022 08:36:48</t>
   </si>
   <si>
     <t>no such element: Unable to locate element: method:xpathselector://*[id=frmCbmre]/tbody/tr[8]/td[4]
-  (Session info: chrome=9604664110)</t>
-  </si>
-  <si>
-    <t>27/01/2022 19:47:29</t>
-  </si>
-  <si>
-    <t>27/01/2022 19:48:57</t>
+  (Session info: chrome=970469271)</t>
+  </si>
+  <si>
+    <t>28/01/2022 08:38:19</t>
+  </si>
+  <si>
+    <t>28/01/2022 08:39:49</t>
+  </si>
+  <si>
+    <t>unexpected alert open: Alert text : There has been an error submitting your page
+Ensure that you have:
+  - Specified all mandatory fields
+  - Specified all fields using the correct format
+Hover over the highlighted controls for a description of the e</t>
+  </si>
+  <si>
+    <t>28/01/2022 08:41:29</t>
+  </si>
+  <si>
+    <t>28/01/2022 08:42:53</t>
   </si>
 </sst>
 </file>
@@ -836,14 +849,15 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="6"/>
-      <color rgb="FF111111"/>
-      <name val="Trebuchet MS"/>
+      <sz val="11"/>
+      <color theme="9" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9" tint="0.79998168889431442"/>
+      <color rgb="FF242424"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -910,7 +924,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -959,12 +973,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1055,7 +1104,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1065,10 +1113,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1087,6 +1135,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1520,8 +1587,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}" name="Table1" displayName="Table1" ref="A1:J17" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="A1:J17" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}" name="Table1" displayName="Table1" ref="A1:J18" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="A1:J18" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{F815EF09-5A8D-41CD-9C8D-1F1F859054C1}" name="Policy No" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{A75649DE-6DED-4E66-9436-0C7BC08EC505}" name="Function" dataDxfId="8"/>
@@ -1835,10 +1902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1880,7 +1947,7 @@
       <c r="H1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="53" t="s">
         <v>169</v>
       </c>
       <c r="J1" s="43" t="s">
@@ -1904,8 +1971,8 @@
       <c r="H2" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="50" t="s">
+      <c r="I2" s="54"/>
+      <c r="J2" s="49" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1926,14 +1993,14 @@
       <c r="H3" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="50" t="s">
+      <c r="I3" s="54"/>
+      <c r="J3" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>76</v>
@@ -1948,14 +2015,14 @@
       <c r="H4" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="I4" s="56"/>
-      <c r="J4" s="51" t="s">
+      <c r="I4" s="55"/>
+      <c r="J4" s="50" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="59" t="s">
-        <v>198</v>
+      <c r="A5" s="58" t="s">
+        <v>209</v>
       </c>
       <c r="B5" s="37" t="s">
         <v>170</v>
@@ -1968,16 +2035,16 @@
       <c r="F5" s="37"/>
       <c r="G5" s="46"/>
       <c r="H5" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="51" t="s">
         <v>216</v>
+      </c>
+      <c r="I5" s="55"/>
+      <c r="J5" s="50" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>177</v>
@@ -1990,16 +2057,16 @@
       <c r="F6" s="37"/>
       <c r="G6" s="46"/>
       <c r="H6" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="I6" s="56"/>
-      <c r="J6" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="I6" s="55"/>
+      <c r="J6" s="50" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B7" s="37" t="s">
         <v>180</v>
@@ -2012,16 +2079,16 @@
       <c r="F7" s="37"/>
       <c r="G7" s="46"/>
       <c r="H7" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="I7" s="56"/>
+        <v>216</v>
+      </c>
+      <c r="I7" s="55"/>
       <c r="J7" s="35" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>172</v>
@@ -2034,9 +2101,9 @@
       <c r="F8" s="37"/>
       <c r="G8" s="46"/>
       <c r="H8" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="I8" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="I8" s="54" t="s">
         <v>221</v>
       </c>
       <c r="J8" s="42" t="s">
@@ -2045,7 +2112,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>173</v>
@@ -2058,9 +2125,9 @@
       <c r="F9" s="37"/>
       <c r="G9" s="46"/>
       <c r="H9" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="I9" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="I9" s="54" t="s">
         <v>223</v>
       </c>
       <c r="J9" s="27" t="s">
@@ -2069,7 +2136,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>174</v>
@@ -2082,9 +2149,9 @@
       <c r="F10" s="37"/>
       <c r="G10" s="46"/>
       <c r="H10" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="I10" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="I10" s="55" t="s">
         <v>221</v>
       </c>
       <c r="J10" s="36" t="s">
@@ -2093,7 +2160,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>188</v>
@@ -2106,9 +2173,9 @@
       <c r="F11" s="37"/>
       <c r="G11" s="46"/>
       <c r="H11" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="I11" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="I11" s="55" t="s">
         <v>226</v>
       </c>
       <c r="J11" s="36" t="s">
@@ -2117,7 +2184,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B12" s="37" t="s">
         <v>175</v>
@@ -2130,9 +2197,9 @@
       <c r="F12" s="37"/>
       <c r="G12" s="46"/>
       <c r="H12" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="I12" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="I12" s="55" t="s">
         <v>228</v>
       </c>
       <c r="J12" s="36" t="s">
@@ -2141,7 +2208,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B13" s="37" t="s">
         <v>176</v>
@@ -2154,9 +2221,9 @@
       <c r="F13" s="37"/>
       <c r="G13" s="46"/>
       <c r="H13" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="I13" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="I13" s="55" t="s">
         <v>228</v>
       </c>
       <c r="J13" s="36" t="s">
@@ -2165,82 +2232,115 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="36"/>
+        <v>185</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="J14" s="49" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="I15" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="I15" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="J15" s="50" t="s">
-        <v>232</v>
+      <c r="J15" s="49" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="37" t="s">
-        <v>207</v>
+      <c r="A16" s="65" t="s">
+        <v>200</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="F16" s="37"/>
+      <c r="F16" s="47"/>
       <c r="G16" s="46"/>
       <c r="H16" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="I16" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="J16" s="50" t="s">
-        <v>233</v>
+        <v>216</v>
+      </c>
+      <c r="I16" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="J16" s="49" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="50"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J19" s="48"/>
+      <c r="A17" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="I17" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="J17" s="64" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="64"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2256,13 +2356,13 @@
           <x14:formula1>
             <xm:f>Dropdown!$G$2:$G$17</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B10 B12:B16</xm:sqref>
+          <xm:sqref>B2:B10 B12:B15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{78710DAA-84E0-44F5-A0ED-02C104AD9222}">
           <x14:formula1>
             <xm:f>Dropdown!$G$2:$G$18</xm:f>
           </x14:formula1>
-          <xm:sqref>B17 B11</xm:sqref>
+          <xm:sqref>B16:B18 B11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2332,7 +2432,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>154</v>
@@ -9313,7 +9413,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9324,7 +9424,7 @@
     <col min="4" max="4" width="34.54296875" customWidth="1"/>
     <col min="5" max="5" width="29.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.90625" style="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.90625" style="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -9334,7 +9434,7 @@
       <c r="C1" t="s">
         <v>171</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="57" t="s">
         <v>183</v>
       </c>
     </row>
@@ -9357,7 +9457,7 @@
       <c r="F2" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="48" t="s">
         <v>172</v>
       </c>
     </row>
@@ -9380,7 +9480,7 @@
       <c r="F3" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="48" t="s">
         <v>173</v>
       </c>
     </row>
@@ -9403,7 +9503,7 @@
       <c r="F4" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="48" t="s">
         <v>76</v>
       </c>
     </row>
@@ -9426,7 +9526,7 @@
       <c r="F5" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="48" t="s">
         <v>170</v>
       </c>
     </row>
@@ -9449,7 +9549,7 @@
       <c r="F6" t="s">
         <v>127</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="48" t="s">
         <v>174</v>
       </c>
     </row>
@@ -9472,7 +9572,7 @@
       <c r="F7" t="s">
         <v>128</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="48" t="s">
         <v>175</v>
       </c>
     </row>
@@ -9492,7 +9592,7 @@
       <c r="F8" t="s">
         <v>129</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="48" t="s">
         <v>176</v>
       </c>
     </row>
@@ -9512,7 +9612,7 @@
       <c r="F9" t="s">
         <v>130</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="48" t="s">
         <v>177</v>
       </c>
     </row>
@@ -9529,7 +9629,7 @@
       <c r="F10" t="s">
         <v>131</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="48" t="s">
         <v>178</v>
       </c>
     </row>
@@ -9546,7 +9646,7 @@
       <c r="F11" t="s">
         <v>132</v>
       </c>
-      <c r="G11" s="49" t="s">
+      <c r="G11" s="48" t="s">
         <v>185</v>
       </c>
     </row>
@@ -9560,7 +9660,7 @@
       <c r="F12" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="48" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9574,7 +9674,7 @@
       <c r="F13" t="s">
         <v>134</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="48" t="s">
         <v>184</v>
       </c>
     </row>
@@ -9585,7 +9685,7 @@
       <c r="F14" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="48" t="s">
         <v>180</v>
       </c>
     </row>
@@ -9596,7 +9696,7 @@
       <c r="F15" t="s">
         <v>135</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="G15" s="48" t="s">
         <v>181</v>
       </c>
     </row>
@@ -9607,7 +9707,7 @@
       <c r="F16" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="49" t="s">
+      <c r="G16" s="48" t="s">
         <v>182</v>
       </c>
     </row>
@@ -9618,7 +9718,7 @@
       <c r="F17" t="s">
         <v>137</v>
       </c>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="48" t="s">
         <v>186</v>
       </c>
     </row>
@@ -9629,7 +9729,7 @@
       <c r="F18" t="s">
         <v>138</v>
       </c>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="48" t="s">
         <v>188</v>
       </c>
     </row>
@@ -9753,10 +9853,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="49">
+      <c r="A2" s="48">
         <v>83781765</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="48">
         <v>23443798</v>
       </c>
     </row>
@@ -19346,7 +19446,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>154</v>

--- a/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
+++ b/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E697642\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F2B321-737C-4330-9B2F-2B03E078A163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5529539-840E-4D03-8143-CE46C54EAB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy-Servicing" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="258">
   <si>
     <t>Policy No</t>
   </si>
@@ -627,55 +627,118 @@
     <t>Jacobs</t>
   </si>
   <si>
-    <t>Mahlomu</t>
-  </si>
-  <si>
     <t>Zulu</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>0008298287080</t>
-  </si>
-  <si>
-    <t>2000/08/29</t>
-  </si>
-  <si>
-    <t>SS11100619</t>
-  </si>
-  <si>
     <t>SS18505072</t>
   </si>
   <si>
-    <t>SS23101799</t>
-  </si>
-  <si>
-    <t>SS24101799</t>
-  </si>
-  <si>
-    <t>0008088244085</t>
-  </si>
-  <si>
-    <t>0008089025087</t>
-  </si>
-  <si>
     <t>SS11100084</t>
   </si>
   <si>
-    <t>SS03945705</t>
-  </si>
-  <si>
-    <t>SS11100959</t>
-  </si>
-  <si>
-    <t>SS11100969</t>
-  </si>
-  <si>
-    <t>SK71360085</t>
-  </si>
-  <si>
-    <t>SS03946731</t>
+    <t>SS00006903</t>
+  </si>
+  <si>
+    <t>SS00006902</t>
+  </si>
+  <si>
+    <t>SK00008578</t>
+  </si>
+  <si>
+    <t>SF00032996</t>
+  </si>
+  <si>
+    <t>Mama</t>
+  </si>
+  <si>
+    <t>Cancellation of policy with the given policy number.</t>
+  </si>
+  <si>
+    <t>Re-Instate cancelled/lapsed policy.</t>
+  </si>
+  <si>
+    <t>Increase sum assured of a product must be allowed.</t>
+  </si>
+  <si>
+    <t>Decrease sum asssured will be allowed and will decrease the premium accordingly.The premium to be charged will be that appplicable for that level of cover at the currect age of the PLA.</t>
+  </si>
+  <si>
+    <t>Increase sum assured of a product will increase based on age.</t>
+  </si>
+  <si>
+    <t>Change the person's details on any life assured policy.</t>
+  </si>
+  <si>
+    <t>Add role player and benefits starting on the 1st of the current month.</t>
+  </si>
+  <si>
+    <t>Add role player and benefits starting on the 1st of the Next month.</t>
+  </si>
+  <si>
+    <t>Terminate role player and benefits starting effective from the 1st of the current month.</t>
+  </si>
+  <si>
+    <t>Terminate role player and benefits starting effective from the 1st of the Next month.</t>
+  </si>
+  <si>
+    <t>Upgrade benefits starting from the next month.</t>
+  </si>
+  <si>
+    <t>Downgrade benefits starting from the next month.</t>
+  </si>
+  <si>
+    <t>Change collection method.</t>
+  </si>
+  <si>
+    <t>change collection method, negative test.</t>
+  </si>
+  <si>
+    <t>Add beneficiary to the policy .</t>
+  </si>
+  <si>
+    <t>none compulsory life may be removed to the policy.</t>
+  </si>
+  <si>
+    <t>Lives may be addded to the policy this will increase the premium.</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>SS28101719</t>
+  </si>
+  <si>
+    <t>SS28101729</t>
+  </si>
+  <si>
+    <t>SS00000911</t>
+  </si>
+  <si>
+    <t>SS00000912</t>
+  </si>
+  <si>
+    <t>SS00000913</t>
+  </si>
+  <si>
+    <t>SF00032997</t>
+  </si>
+  <si>
+    <t>0005296176083</t>
+  </si>
+  <si>
+    <t>2000/05/29</t>
+  </si>
+  <si>
+    <t>0008085068081</t>
+  </si>
+  <si>
+    <t>0008087148089</t>
   </si>
   <si>
     <t>Safrican Serenity Funeral Premium (1000)</t>
@@ -684,88 +747,81 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>28/01/2022 08:20:20</t>
-  </si>
-  <si>
-    <t>28/01/2022 08:22:00</t>
+    <t>28/01/2022 14:25:50</t>
+  </si>
+  <si>
+    <t>28/01/2022 14:27:13</t>
   </si>
   <si>
     <t>Safrican Just Funeral (3000)</t>
   </si>
   <si>
-    <t>28/01/2022 08:23:45</t>
+    <t>28/01/2022 14:28:44</t>
+  </si>
+  <si>
+    <t>28/01/2022 14:30:22</t>
+  </si>
+  <si>
+    <t>28/01/2022 14:32:22</t>
+  </si>
+  <si>
+    <t>Safrican Provide and Protect Plan (4000)</t>
+  </si>
+  <si>
+    <t>28/01/2022 14:33:32</t>
+  </si>
+  <si>
+    <t>28/01/2022 14:35:14</t>
+  </si>
+  <si>
+    <t>28/01/2022 14:37:00</t>
+  </si>
+  <si>
+    <t>28/01/2022 14:38:12</t>
+  </si>
+  <si>
+    <t>28/01/2022 14:39:58</t>
   </si>
   <si>
     <t>Failed</t>
-  </si>
-  <si>
-    <t>28/01/2022 08:25:45</t>
-  </si>
-  <si>
-    <t>28/01/2022 08:27:57</t>
-  </si>
-  <si>
-    <t>Safrican Provide and Protect Plan (4000)</t>
-  </si>
-  <si>
-    <t>28/01/2022 08:29:24</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: method:xpathselector: //*[id=frmSubCbmre]/tbody/tr[4]/td[4]
-  (Session info: chrome=970469271)</t>
-  </si>
-  <si>
-    <t>28/01/2022 08:31:15</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: method:xpathselector://*[id=CntContentsDiv11]/table/tbody/tr[8]/td[1]/span
-  (Session info: chrome=970469271)</t>
-  </si>
-  <si>
-    <t>28/01/2022 08:31:51</t>
-  </si>
-  <si>
-    <t>28/01/2022 08:33:07</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: method:css selectorselector:*[name=btnTerminate]
-  (Session info: chrome=970469271)</t>
-  </si>
-  <si>
-    <t>28/01/2022 08:33:53</t>
   </si>
   <si>
     <t>no such element: Unable to locate element: method:xpathselector://*[id=CntContentsDiv9]/table/tbody/tr[2]/td[4]
   (Session info: chrome=970469271)</t>
   </si>
   <si>
-    <t>28/01/2022 08:35:17</t>
-  </si>
-  <si>
-    <t>28/01/2022 08:36:48</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: method:xpathselector://*[id=frmCbmre]/tbody/tr[8]/td[4]
+    <t>28/01/2022 14:41:15</t>
+  </si>
+  <si>
+    <t>Safrican Serenity Funeral (2000)</t>
+  </si>
+  <si>
+    <t>Input string was not in a correct format</t>
+  </si>
+  <si>
+    <t>28/01/2022 14:42:15</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: method:css selectorselector:*[name=fcCollectionMethod]
   (Session info: chrome=970469271)</t>
   </si>
   <si>
-    <t>28/01/2022 08:38:19</t>
-  </si>
-  <si>
-    <t>28/01/2022 08:39:49</t>
-  </si>
-  <si>
-    <t>unexpected alert open: Alert text : There has been an error submitting your page
-Ensure that you have:
-  - Specified all mandatory fields
-  - Specified all fields using the correct format
-Hover over the highlighted controls for a description of the e</t>
-  </si>
-  <si>
-    <t>28/01/2022 08:41:29</t>
-  </si>
-  <si>
-    <t>28/01/2022 08:42:53</t>
+    <t>28/01/2022 14:42:58</t>
+  </si>
+  <si>
+    <t>element click intercepted: Element &lt;a name=alf-ICF8_00000222 class=clMnuTVlink TDlink href=javascript:fnHREF(?run=cbctsmainWindow\x3Dyes697662_selfyes) target=_self title= onclick=eventpreventDefault() TREES[0]select(754)fnHREF(?run=cbctsmainWindow\x</t>
+  </si>
+  <si>
+    <t>28/01/2022 14:43:03</t>
+  </si>
+  <si>
+    <t>28/01/2022 14:43:08</t>
+  </si>
+  <si>
+    <t>28/01/2022 14:43:13</t>
+  </si>
+  <si>
+    <t>28/01/2022 14:43:18</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1069,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1112,9 +1168,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1904,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1913,10 +1966,10 @@
     <col min="1" max="1" width="25.6328125" customWidth="1"/>
     <col min="2" max="2" width="35.1796875" customWidth="1"/>
     <col min="3" max="3" width="43.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.6328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="39.6328125" style="4" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="35.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.1796875" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.81640625" style="8" customWidth="1"/>
     <col min="10" max="10" width="24.81640625" customWidth="1"/>
@@ -1947,33 +2000,37 @@
       <c r="H1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="52" t="s">
         <v>169</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
         <v>187</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="37" t="s">
+        <v>202</v>
+      </c>
       <c r="D2" s="37"/>
       <c r="E2" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="F2" s="37"/>
+        <v>231</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>219</v>
+      </c>
       <c r="G2" s="46"/>
       <c r="H2" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="I2" s="54"/>
+        <v>232</v>
+      </c>
+      <c r="I2" s="53"/>
       <c r="J2" s="49" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -1983,63 +2040,75 @@
       <c r="B3" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="37" t="s">
+        <v>203</v>
+      </c>
       <c r="D3" s="37"/>
       <c r="E3" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="F3" s="37"/>
+        <v>231</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>219</v>
+      </c>
       <c r="G3" s="46"/>
       <c r="H3" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="I3" s="54"/>
+        <v>232</v>
+      </c>
+      <c r="I3" s="53"/>
       <c r="J3" s="49" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="37" t="s">
+        <v>204</v>
+      </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="F4" s="37"/>
+        <v>235</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>219</v>
+      </c>
       <c r="G4" s="46"/>
       <c r="H4" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="I4" s="55"/>
+        <v>232</v>
+      </c>
+      <c r="I4" s="54"/>
       <c r="J4" s="50" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="58" t="s">
-        <v>209</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="57" t="s">
+        <v>197</v>
       </c>
       <c r="B5" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="37" t="s">
+        <v>205</v>
+      </c>
       <c r="D5" s="37"/>
       <c r="E5" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="F5" s="37"/>
+        <v>235</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>219</v>
+      </c>
       <c r="G5" s="46"/>
       <c r="H5" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="I5" s="55"/>
+        <v>232</v>
+      </c>
+      <c r="I5" s="54"/>
       <c r="J5" s="50" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2049,298 +2118,342 @@
       <c r="B6" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37" t="s">
+        <v>206</v>
+      </c>
       <c r="D6" s="37"/>
       <c r="E6" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="F6" s="37"/>
+        <v>235</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>219</v>
+      </c>
       <c r="G6" s="46"/>
       <c r="H6" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="I6" s="55"/>
+        <v>232</v>
+      </c>
+      <c r="I6" s="54"/>
       <c r="J6" s="50" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B7" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37" t="s">
+        <v>207</v>
+      </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="F7" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="F7" s="37"/>
       <c r="G7" s="46"/>
       <c r="H7" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="I7" s="55"/>
+        <v>232</v>
+      </c>
+      <c r="I7" s="54"/>
       <c r="J7" s="35" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37" t="s">
+        <v>208</v>
+      </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="F8" s="37"/>
+        <v>235</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>219</v>
+      </c>
       <c r="G8" s="46"/>
       <c r="H8" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="I8" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="I8" s="53"/>
+      <c r="J8" s="42" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="37" t="s">
         <v>221</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
-        <v>200</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37" t="s">
+        <v>210</v>
+      </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="F9" s="37"/>
+        <v>235</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>219</v>
+      </c>
       <c r="G9" s="46"/>
       <c r="H9" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="I9" s="54" t="s">
-        <v>223</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="I9" s="53"/>
       <c r="J9" s="27" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="45"/>
+      <c r="C10" s="45" t="s">
+        <v>209</v>
+      </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="F10" s="37"/>
+        <v>235</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>219</v>
+      </c>
       <c r="G10" s="46"/>
       <c r="H10" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="I10" s="55" t="s">
-        <v>221</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="I10" s="54"/>
       <c r="J10" s="36" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="37" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="37" t="s">
+        <v>211</v>
+      </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="F11" s="37"/>
+        <v>235</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>219</v>
+      </c>
       <c r="G11" s="46"/>
       <c r="H11" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>226</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="I11" s="54"/>
       <c r="J11" s="36" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B12" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="37" t="s">
+        <v>213</v>
+      </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="F12" s="37"/>
+        <v>235</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>219</v>
+      </c>
       <c r="G12" s="46"/>
       <c r="H12" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="I12" s="55" t="s">
-        <v>228</v>
+        <v>245</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>246</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="37" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="B13" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="37" t="s">
+        <v>212</v>
+      </c>
       <c r="D13" s="37"/>
       <c r="E13" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="F13" s="37"/>
+        <v>248</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>219</v>
+      </c>
       <c r="G13" s="46"/>
       <c r="H13" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="I13" s="55" t="s">
-        <v>228</v>
+        <v>245</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>249</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="B14" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="47"/>
+      <c r="C14" s="47" t="s">
+        <v>214</v>
+      </c>
       <c r="D14" s="47"/>
-      <c r="E14" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="52"/>
+      <c r="E14" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14" s="51"/>
       <c r="H14" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="I14" s="54" t="s">
-        <v>231</v>
+        <v>245</v>
+      </c>
+      <c r="I14" s="53" t="s">
+        <v>251</v>
       </c>
       <c r="J14" s="49" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A15" s="37" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="B15" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="37"/>
+      <c r="C15" s="37" t="s">
+        <v>215</v>
+      </c>
       <c r="D15" s="37"/>
-      <c r="E15" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="F15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37" t="s">
+        <v>220</v>
+      </c>
       <c r="G15" s="46"/>
       <c r="H15" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="I15" s="54" t="s">
-        <v>231</v>
+        <v>245</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>253</v>
       </c>
       <c r="J15" s="49" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="65" t="s">
-        <v>200</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="64" t="s">
+        <v>225</v>
       </c>
       <c r="B16" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="C16" s="47"/>
+      <c r="C16" s="47" t="s">
+        <v>218</v>
+      </c>
       <c r="D16" s="47"/>
-      <c r="E16" s="47" t="s">
-        <v>214</v>
-      </c>
-      <c r="F16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47" t="s">
+        <v>220</v>
+      </c>
       <c r="G16" s="46"/>
       <c r="H16" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="I16" s="54" t="s">
-        <v>234</v>
+        <v>245</v>
+      </c>
+      <c r="I16" s="53" t="s">
+        <v>253</v>
       </c>
       <c r="J16" s="49" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="59" t="s">
-        <v>201</v>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="58" t="s">
+        <v>199</v>
       </c>
       <c r="B17" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="62" t="s">
+      <c r="C17" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="I17" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="J17" s="64" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="59" t="s">
-        <v>208</v>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="G17" s="60"/>
+      <c r="H17" s="61" t="s">
+        <v>245</v>
+      </c>
+      <c r="I17" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="J17" s="63" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="58" t="s">
+        <v>200</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="64"/>
+      <c r="C18" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="G18" s="60"/>
+      <c r="H18" s="61" t="s">
+        <v>245</v>
+      </c>
+      <c r="I18" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="J18" s="63" t="s">
+        <v>257</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2375,7 +2488,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2432,7 +2545,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>154</v>
@@ -2451,7 +2564,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2486,22 +2599,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -9424,7 +9537,7 @@
     <col min="4" max="4" width="34.54296875" customWidth="1"/>
     <col min="5" max="5" width="29.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.90625" style="56" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.90625" style="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -9434,7 +9547,7 @@
       <c r="C1" t="s">
         <v>171</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="56" t="s">
         <v>183</v>
       </c>
     </row>
@@ -9833,7 +9946,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9854,10 +9967,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="48">
-        <v>83781765</v>
+        <v>83781998</v>
       </c>
       <c r="B2" s="48">
-        <v>23443798</v>
+        <v>23443889</v>
       </c>
     </row>
   </sheetData>
@@ -19309,7 +19422,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19351,22 +19464,22 @@
         <v>18</v>
       </c>
       <c r="B2" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="D2" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="38" t="s">
-        <v>195</v>
-      </c>
       <c r="E2" s="41" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="F2" s="38" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>154</v>
@@ -19388,7 +19501,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19446,7 +19559,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>154</v>

--- a/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
+++ b/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E697642\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5529539-840E-4D03-8143-CE46C54EAB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACFB3CD-76C3-4CDB-92A3-4785A99F26E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy-Servicing" sheetId="2" r:id="rId1"/>
@@ -1957,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2563,8 +2563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A4A292-240A-4D5D-90BA-625919CD3573}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2608,10 +2608,10 @@
         <v>113</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>132</v>

--- a/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
+++ b/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E697642\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A783E38E-254D-4E4F-B9DD-B392FF71C849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D2B117-49A5-4628-9BC3-0F7922120212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy-Servicing" sheetId="2" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="AddaLife" sheetId="9" r:id="rId10"/>
     <sheet name="AddRolePlayer" sheetId="7" r:id="rId11"/>
     <sheet name="AddRole_NextMonth" sheetId="10" r:id="rId12"/>
+    <sheet name="Downgrade" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ChangeLifeData!$A$1:$F$2</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="303">
   <si>
     <t>Policy No</t>
   </si>
@@ -536,9 +537,6 @@
     <t>General Management. This department develops and executes overall business strategies</t>
   </si>
   <si>
-    <t>Gugu</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
@@ -546,9 +544,6 @@
   </si>
   <si>
     <t>2000/08/08</t>
-  </si>
-  <si>
-    <t>2022/01/01</t>
   </si>
   <si>
     <t>employee_number1</t>
@@ -611,22 +606,10 @@
     <t>ChangeCollectionNegative</t>
   </si>
   <si>
-    <t>SK88115509</t>
-  </si>
-  <si>
     <t>TerminateRoleNext_month</t>
   </si>
   <si>
-    <t>Kamo</t>
-  </si>
-  <si>
-    <t>Mphela</t>
-  </si>
-  <si>
     <t>K</t>
-  </si>
-  <si>
-    <t>Jacobs</t>
   </si>
   <si>
     <t>Zulu</t>
@@ -635,22 +618,7 @@
     <t>M</t>
   </si>
   <si>
-    <t>SS18505072</t>
-  </si>
-  <si>
-    <t>SS11100084</t>
-  </si>
-  <si>
-    <t>SS00006903</t>
-  </si>
-  <si>
-    <t>SS00006902</t>
-  </si>
-  <si>
     <t>SK00008578</t>
-  </si>
-  <si>
-    <t>SF00032996</t>
   </si>
   <si>
     <t>Mama</t>
@@ -713,117 +681,7 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>SS28101719</t>
-  </si>
-  <si>
-    <t>SS28101729</t>
-  </si>
-  <si>
-    <t>SS00000911</t>
-  </si>
-  <si>
-    <t>SS00000912</t>
-  </si>
-  <si>
-    <t>SS00000913</t>
-  </si>
-  <si>
-    <t>SF00032997</t>
-  </si>
-  <si>
-    <t>0005296176083</t>
-  </si>
-  <si>
     <t>2000/05/29</t>
-  </si>
-  <si>
-    <t>0008085068081</t>
-  </si>
-  <si>
-    <t>0008087148089</t>
-  </si>
-  <si>
-    <t>Safrican Serenity Funeral Premium (1000)</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>28/01/2022 14:25:50</t>
-  </si>
-  <si>
-    <t>28/01/2022 14:27:13</t>
-  </si>
-  <si>
-    <t>Safrican Just Funeral (3000)</t>
-  </si>
-  <si>
-    <t>28/01/2022 14:28:44</t>
-  </si>
-  <si>
-    <t>28/01/2022 14:30:22</t>
-  </si>
-  <si>
-    <t>28/01/2022 14:32:22</t>
-  </si>
-  <si>
-    <t>Safrican Provide and Protect Plan (4000)</t>
-  </si>
-  <si>
-    <t>28/01/2022 14:33:32</t>
-  </si>
-  <si>
-    <t>28/01/2022 14:35:14</t>
-  </si>
-  <si>
-    <t>28/01/2022 14:37:00</t>
-  </si>
-  <si>
-    <t>28/01/2022 14:38:12</t>
-  </si>
-  <si>
-    <t>28/01/2022 14:39:58</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: method:xpathselector://*[id=CntContentsDiv9]/table/tbody/tr[2]/td[4]
-  (Session info: chrome=970469271)</t>
-  </si>
-  <si>
-    <t>28/01/2022 14:41:15</t>
-  </si>
-  <si>
-    <t>Safrican Serenity Funeral (2000)</t>
-  </si>
-  <si>
-    <t>Input string was not in a correct format</t>
-  </si>
-  <si>
-    <t>28/01/2022 14:42:15</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: method:css selectorselector:*[name=fcCollectionMethod]
-  (Session info: chrome=970469271)</t>
-  </si>
-  <si>
-    <t>28/01/2022 14:42:58</t>
-  </si>
-  <si>
-    <t>element click intercepted: Element &lt;a name=alf-ICF8_00000222 class=clMnuTVlink TDlink href=javascript:fnHREF(?run=cbctsmainWindow\x3Dyes697662_selfyes) target=_self title= onclick=eventpreventDefault() TREES[0]select(754)fnHREF(?run=cbctsmainWindow\x</t>
-  </si>
-  <si>
-    <t>28/01/2022 14:43:03</t>
-  </si>
-  <si>
-    <t>28/01/2022 14:43:08</t>
-  </si>
-  <si>
-    <t>28/01/2022 14:43:13</t>
-  </si>
-  <si>
-    <t>28/01/2022 14:43:18</t>
   </si>
   <si>
     <t>Term</t>
@@ -1045,6 +903,82 @@
   </si>
   <si>
     <t>DreadDiseasePLA RateGroup4 Female</t>
+  </si>
+  <si>
+    <t>0008088649085</t>
+  </si>
+  <si>
+    <t>Kagiso</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>2022/03/01</t>
+  </si>
+  <si>
+    <t>0008085070087</t>
+  </si>
+  <si>
+    <t>SS01008983</t>
+  </si>
+  <si>
+    <t>SS00476231</t>
+  </si>
+  <si>
+    <t>SS01008981</t>
+  </si>
+  <si>
+    <t>SS34000041</t>
+  </si>
+  <si>
+    <t>SS01008982</t>
+  </si>
+  <si>
+    <t>SS00000407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS00000406
+</t>
+  </si>
+  <si>
+    <t>SF24413212</t>
+  </si>
+  <si>
+    <t>SS91300091</t>
+  </si>
+  <si>
+    <t>SF10032181</t>
+  </si>
+  <si>
+    <t>SS02111231</t>
+  </si>
+  <si>
+    <t>SS00144231</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Cover_Amount</t>
+  </si>
+  <si>
+    <t>Pre-dated</t>
+  </si>
+  <si>
+    <t>Funeral Cover - Principle Life Assured</t>
+  </si>
+  <si>
+    <t>Gomolemo</t>
+  </si>
+  <si>
+    <t>Sera</t>
+  </si>
+  <si>
+    <t>0005295682081</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1371,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -2185,11 +2121,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2206,7 +2142,7 @@
     <col min="10" max="10" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row spans="1:10" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45" outlineLevel="0" r="1">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -2232,458 +2168,619 @@
         <v>7</v>
       </c>
       <c r="I1" s="52" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="2">
       <c r="A2" s="37" t="s">
-        <v>187</v>
+        <v>283</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D2" s="37"/>
-      <c r="E2" s="37" t="s">
-        <v>231</v>
+      <c r="E2" s="37" t="inlineStr">
+        <is>
+          <t>Safrican Just Funeral (3000)</t>
+        </is>
       </c>
       <c r="F2" s="37" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G2" s="46"/>
-      <c r="H2" s="33" t="s">
-        <v>232</v>
+      <c r="H2" s="33" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
       </c>
       <c r="I2" s="53"/>
-      <c r="J2" s="49" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J2" s="49" t="inlineStr">
+        <is>
+          <t>18/02/2022 14:09:10</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="3">
       <c r="A3" s="37" t="s">
-        <v>187</v>
+        <v>283</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D3" s="37"/>
-      <c r="E3" s="37" t="s">
-        <v>231</v>
+      <c r="E3" s="37" t="inlineStr">
+        <is>
+          <t>Safrican Just Funeral (3000)</t>
+        </is>
       </c>
       <c r="F3" s="37" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G3" s="46"/>
-      <c r="H3" s="33" t="s">
-        <v>232</v>
+      <c r="H3" s="33" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
       </c>
       <c r="I3" s="53"/>
-      <c r="J3" s="49" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="J3" s="49" t="inlineStr">
+        <is>
+          <t>18/02/2022 14:10:29</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="4">
       <c r="A4" s="37" t="s">
-        <v>197</v>
+        <v>284</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C4" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37" t="inlineStr">
+        <is>
+          <t>Safrican Just Funeral (3000)</t>
+        </is>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" s="46"/>
+      <c r="H4" s="34" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="I4" s="54" t="inlineStr">
+        <is>
+          <t>no such element: Unable to locate element: method:xpathselector://*[id=CntContentsDiv8]/table/tbody/tr/td[2]
+  (Session info: chrome=970469271)</t>
+        </is>
+      </c>
+      <c r="J4" s="50" t="inlineStr">
+        <is>
+          <t>18/02/2022 14:12:11</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:10" ht="58" x14ac:dyDescent="0.35" outlineLevel="0" r="5">
+      <c r="A5" s="57" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37" t="inlineStr">
+        <is>
+          <t>Safrican Just Funeral (3000)</t>
+        </is>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="G5" s="46"/>
+      <c r="H5" s="34" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="I5" s="54" t="inlineStr">
+        <is>
+          <t>Safrican Just Funeral [3000] is not a valid name Make sure that it does not include invalid characters or punctuation and that it is not too long</t>
+        </is>
+      </c>
+      <c r="J5" s="50" t="inlineStr">
+        <is>
+          <t>18/02/2022 14:13:44</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="6">
+      <c r="A6" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37" t="inlineStr">
+        <is>
+          <t>Safrican Just Funeral (3000)</t>
+        </is>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="G6" s="46"/>
+      <c r="H6" s="34" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="I6" s="54" t="inlineStr">
+        <is>
+          <t>element not interactable
+  (Session info: chrome=970469271)</t>
+        </is>
+      </c>
+      <c r="J6" s="50" t="inlineStr">
+        <is>
+          <t>18/02/2022 14:14:43</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="7">
+      <c r="A7" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37" t="inlineStr">
+        <is>
+          <t>Safrican Provide and Protect Plan (4000)</t>
+        </is>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="34" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="I7" s="54"/>
+      <c r="J7" s="35" t="inlineStr">
+        <is>
+          <t>18/02/2022 14:16:07</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="8">
+      <c r="A8" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37" t="inlineStr">
+        <is>
+          <t>Safrican Just Funeral (3000)</t>
+        </is>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8" s="46"/>
+      <c r="H8" s="33" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="I8" s="53" t="inlineStr">
+        <is>
+          <t>  String lengths are both 72 Strings differ at index 11_x000d_
+  Expected: tstsafricancoza/web/wspd_cgish/WService=wsb_ilrtst/runw?_x000d_
+  But was:  intsafricancoza/web/wspd_cgish/WService=wsb_ilrint/runw?_x000d_
+  --------------^_x000d_
+</t>
+        </is>
+      </c>
+      <c r="J8" s="42" t="inlineStr">
+        <is>
+          <t>18/02/2022 14:17:09</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="9">
+      <c r="A9" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37" t="inlineStr">
+        <is>
+          <t>Safrican Just Funeral (3000)</t>
+        </is>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="G9" s="46"/>
+      <c r="H9" s="33" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="I9" s="53" t="inlineStr">
+        <is>
+          <t>no such element: Unable to locate element: method:xpathselector://*[id=CntContentsDiv11]/table/tbody/tr[7]/td[1]/span
+  (Session info: chrome=970469271)</t>
+        </is>
+      </c>
+      <c r="J9" s="27" t="inlineStr">
+        <is>
+          <t>18/02/2022 14:17:46</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="10">
+      <c r="A10" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37" t="inlineStr">
+        <is>
+          <t>Safrican Just Funeral (3000)</t>
+        </is>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" s="46"/>
+      <c r="H10" s="34" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="I10" s="54" t="inlineStr">
+        <is>
+          <t>Multiple failures or warnings in test:_x000d_
+  1)   String lengths are both 72 Strings differ at index 11_x000d_
+  Expected: tstsafricancoza/web/wspd_cgish/WService=wsb_ilrtst/runw?_x000d_
+  But was:  intsafricancoza/web/wspd_cgish/WService=wsb_ilrint/runw?_x000d_
+  ------</t>
+        </is>
+      </c>
+      <c r="J10" s="36" t="inlineStr">
+        <is>
+          <t>18/02/2022 14:18:48</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="11">
+      <c r="A11" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37" t="inlineStr">
+        <is>
+          <t>Safrican Just Funeral (3000)</t>
+        </is>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" s="46"/>
+      <c r="H11" s="34" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="I11" s="54" t="inlineStr">
+        <is>
+          <t>no such element: Unable to locate element: method:xpathselector://*[id=CntContentsDiv11]/table/tbody/tr[7]/td[1]/span
+  (Session info: chrome=970469271)</t>
+        </is>
+      </c>
+      <c r="J11" s="36" t="inlineStr">
+        <is>
+          <t>18/02/2022 14:19:24</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="12">
+      <c r="A12" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37" t="inlineStr">
+        <is>
+          <t>Safrican Legacy Saver (6000)</t>
+        </is>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12" s="46"/>
+      <c r="H12" s="34" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="I12" s="54" t="inlineStr">
+        <is>
+          <t>no such element: Unable to locate element: method:xpathselector://*[id=frmCbmcc]/tbody/tr[8]/td[4]
+  (Session info: chrome=970469271)</t>
+        </is>
+      </c>
+      <c r="J12" s="36" t="inlineStr">
+        <is>
+          <t>18/02/2022 14:20:11</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="13">
+      <c r="A13" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13" s="46"/>
+      <c r="H13" s="34" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="I13" s="54" t="inlineStr">
+        <is>
+          <t>no such element: Unable to locate element: method:xpathselector://*[id=AppArea]/table[2]/tbody/tr[2]/td[1]/a
+  (Session info: chrome=970469271)</t>
+        </is>
+      </c>
+      <c r="J13" s="36" t="inlineStr">
+        <is>
+          <t>18/02/2022 14:20:43</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="14">
+      <c r="A14" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47" t="inlineStr">
+        <is>
+          <t>Safrican Just Funeral (3000)</t>
+        </is>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="51"/>
+      <c r="H14" s="33" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="I14" s="53" t="inlineStr">
+        <is>
+          <t>element not interactable
+  (Session info: chrome=970469271)</t>
+        </is>
+      </c>
+      <c r="J14" s="49" t="inlineStr">
+        <is>
+          <t>18/02/2022 14:21:29</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="15">
+      <c r="A15" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="50" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="57" t="s">
-        <v>197</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="37" t="s">
+      <c r="D15" s="37"/>
+      <c r="E15" s="37" t="inlineStr">
+        <is>
+          <t>Safrican Serenity Funeral Premium (1000)</t>
+        </is>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="G15" s="46"/>
+      <c r="H15" s="33" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="I15" s="53" t="inlineStr">
+        <is>
+          <t>unexpected alert open: Alert text : The same policy payer was found with another employee number Would you like to update the employee number?
+  (Session info: chrome=970469271)</t>
+        </is>
+      </c>
+      <c r="J15" s="49" t="inlineStr">
+        <is>
+          <t>18/02/2022 14:22:50</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="16">
+      <c r="A16" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47" t="inlineStr">
+        <is>
+          <t>Safrican Serenity Funeral Premium (1000)</t>
+        </is>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="46"/>
+      <c r="H16" s="33" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="I16" s="53" t="inlineStr">
+        <is>
+          <t>Multiple failures or warnings in test:_x000d_
+  1)   String lengths are both 72 Strings differ at index 11_x000d_
+  Expected: tstsafricancoza/web/wspd_cgish/WService=wsb_ilrtst/runw?_x000d_
+  But was:  intsafricancoza/web/wspd_cgish/WService=wsb_ilrint/runw?_x000d_
+  ------</t>
+        </is>
+      </c>
+      <c r="J16" s="49" t="inlineStr">
+        <is>
+          <t>18/02/2022 14:23:46</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="17">
+      <c r="A17" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="59" t="s">
         <v>205</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="50" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="50" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="35" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="42" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="27" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="I10" s="54"/>
-      <c r="J10" s="36" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="I11" s="54"/>
-      <c r="J11" s="36" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="G12" s="46"/>
-      <c r="H12" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="I12" s="54" t="s">
-        <v>246</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="I13" s="54" t="s">
-        <v>249</v>
-      </c>
-      <c r="J13" s="36" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>214</v>
-      </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="F14" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="I14" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="J14" s="49" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="I15" s="53" t="s">
-        <v>253</v>
-      </c>
-      <c r="J15" s="49" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="64" t="s">
-        <v>225</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>218</v>
-      </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="I16" s="53" t="s">
-        <v>253</v>
-      </c>
-      <c r="J16" s="49" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="C17" s="59" t="s">
-        <v>216</v>
       </c>
       <c r="D17" s="59"/>
       <c r="E17" s="59"/>
       <c r="F17" s="59" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="G17" s="60"/>
-      <c r="H17" s="61" t="s">
-        <v>245</v>
-      </c>
-      <c r="I17" s="62" t="s">
-        <v>253</v>
-      </c>
-      <c r="J17" s="63" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="H17" s="61" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="I17" s="62" t="inlineStr">
+        <is>
+          <t>no such element: Unable to locate element: method:xpathselector://*[id=AppArea]/table[2]/tbody/tr[2]/td[1]/a
+  (Session info: chrome=970469271)</t>
+        </is>
+      </c>
+      <c r="J17" s="63" t="inlineStr">
+        <is>
+          <t>18/02/2022 14:24:07</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="18">
       <c r="A18" s="58" t="s">
-        <v>200</v>
+        <v>292</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
+      <c r="E18" s="59" t="inlineStr">
+        <is>
+          <t>Safrican Serenity Funeral (2000)</t>
+        </is>
+      </c>
       <c r="F18" s="59" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G18" s="60"/>
-      <c r="H18" s="61" t="s">
-        <v>245</v>
-      </c>
-      <c r="I18" s="62" t="s">
-        <v>253</v>
-      </c>
-      <c r="J18" s="63" t="s">
-        <v>257</v>
+      <c r="H18" s="61" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I18" s="62"/>
+      <c r="J18" s="63" t="inlineStr">
+        <is>
+          <t>18/02/2022 14:25:38</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2719,7 +2816,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2761,22 +2858,22 @@
         <v>18</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="F2" s="38" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>227</v>
+        <v>302</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>154</v>
@@ -2798,7 +2895,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2841,28 +2938,28 @@
         <v>18</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>189</v>
+        <v>279</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F2" s="38" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>154</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2876,7 +2973,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2918,28 +3015,70 @@
         <v>18</v>
       </c>
       <c r="B2" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>163</v>
-      </c>
       <c r="E2" s="41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F2" s="38" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>154</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>164</v>
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C23C8AE-241F-4D0A-8A88-E6066EAA0184}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -2952,7 +3091,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2987,19 +3126,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>107</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>132</v>
@@ -3077,10 +3216,10 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -3103,7 +3242,7 @@
         <v>123</v>
       </c>
       <c r="G2" s="48" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -3126,7 +3265,7 @@
         <v>124</v>
       </c>
       <c r="G3" s="48" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -3172,7 +3311,7 @@
         <v>126</v>
       </c>
       <c r="G5" s="48" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -3195,7 +3334,7 @@
         <v>127</v>
       </c>
       <c r="G6" s="48" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -3218,7 +3357,7 @@
         <v>128</v>
       </c>
       <c r="G7" s="48" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -3238,7 +3377,7 @@
         <v>129</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -3258,7 +3397,7 @@
         <v>130</v>
       </c>
       <c r="G9" s="48" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -3275,7 +3414,7 @@
         <v>131</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -3292,7 +3431,7 @@
         <v>132</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -3306,7 +3445,7 @@
         <v>133</v>
       </c>
       <c r="G12" s="48" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -3320,7 +3459,7 @@
         <v>134</v>
       </c>
       <c r="G13" s="48" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -3331,7 +3470,7 @@
         <v>81</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -3342,7 +3481,7 @@
         <v>135</v>
       </c>
       <c r="G15" s="48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -3353,7 +3492,7 @@
         <v>136</v>
       </c>
       <c r="G16" s="48" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
@@ -3364,7 +3503,7 @@
         <v>137</v>
       </c>
       <c r="G17" s="48" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
@@ -3375,7 +3514,7 @@
         <v>138</v>
       </c>
       <c r="G18" s="48" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
@@ -3410,7 +3549,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3478,12 +3617,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" width="18.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.36328125" customWidth="1"/>
     <col min="14" max="14" width="16.54296875" customWidth="1"/>
@@ -3491,18 +3630,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="48">
-        <v>83781998</v>
+        <v>83781990</v>
       </c>
       <c r="B2" s="48">
-        <v>23443889</v>
+        <v>23443880</v>
       </c>
     </row>
   </sheetData>
@@ -19817,127 +19956,127 @@
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="C1" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="D1" t="s">
         <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="F1" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="G1" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="H1" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="I1" t="s">
-        <v>265</v>
+        <v>218</v>
       </c>
       <c r="J1" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="K1" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="L1" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
       <c r="M1" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="N1" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="O1" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="P1" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="Q1" t="s">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="R1" t="s">
-        <v>295</v>
+        <v>248</v>
       </c>
       <c r="S1" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="T1" t="s">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="U1" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="V1" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="W1" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="X1" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="Y1" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="Z1" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="AA1" t="s">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="AB1" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="AC1" t="s">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="AD1" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="AE1" t="s">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="AF1" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="AG1" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="AH1" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="AI1" t="s">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="AJ1" t="s">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="AK1" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="AL1" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="AM1" t="s">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="AN1" t="s">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="AO1" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.35">
@@ -26415,7 +26554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C593DED-D223-4D4D-A9D1-5524BDC278EE}">
   <dimension ref="A1:AB87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
@@ -26431,85 +26570,85 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C1" t="s">
-        <v>299</v>
+        <v>252</v>
       </c>
       <c r="D1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="E1" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="F1" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="G1" t="s">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="H1" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="I1" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="J1" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="K1" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="L1" t="s">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c r="M1" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="N1" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="O1" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="P1" t="s">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="Q1" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="R1" t="s">
-        <v>314</v>
+        <v>267</v>
       </c>
       <c r="S1" t="s">
-        <v>315</v>
+        <v>268</v>
       </c>
       <c r="T1" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="U1" t="s">
-        <v>317</v>
+        <v>270</v>
       </c>
       <c r="V1" t="s">
-        <v>318</v>
+        <v>271</v>
       </c>
       <c r="W1" t="s">
-        <v>319</v>
+        <v>272</v>
       </c>
       <c r="X1" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="Y1" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="Z1" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="AA1" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="AB1" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.35">

--- a/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
+++ b/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E697642\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D2B117-49A5-4628-9BC3-0F7922120212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C806651-E3D7-429E-84E4-D5CF72E50B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy-Servicing" sheetId="2" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="AddRolePlayer" sheetId="7" r:id="rId11"/>
     <sheet name="AddRole_NextMonth" sheetId="10" r:id="rId12"/>
     <sheet name="Downgrade" sheetId="14" r:id="rId13"/>
+    <sheet name="UpGrade" sheetId="15" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ChangeLifeData!$A$1:$F$2</definedName>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="302">
   <si>
     <t>Policy No</t>
   </si>
@@ -618,9 +619,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>SK00008578</t>
-  </si>
-  <si>
     <t>Mama</t>
   </si>
   <si>
@@ -905,9 +903,6 @@
     <t>DreadDiseasePLA RateGroup4 Female</t>
   </si>
   <si>
-    <t>0008088649085</t>
-  </si>
-  <si>
     <t>Kagiso</t>
   </si>
   <si>
@@ -917,13 +912,7 @@
     <t>2022/03/01</t>
   </si>
   <si>
-    <t>0008085070087</t>
-  </si>
-  <si>
     <t>SS01008983</t>
-  </si>
-  <si>
-    <t>SS00476231</t>
   </si>
   <si>
     <t>SS01008981</t>
@@ -938,23 +927,10 @@
     <t>SS00000407</t>
   </si>
   <si>
-    <t xml:space="preserve">SS00000406
-</t>
-  </si>
-  <si>
-    <t>SF24413212</t>
-  </si>
-  <si>
     <t>SS91300091</t>
   </si>
   <si>
     <t>SF10032181</t>
-  </si>
-  <si>
-    <t>SS02111231</t>
-  </si>
-  <si>
-    <t>SS00144231</t>
   </si>
   <si>
     <t>Date</t>
@@ -978,7 +954,29 @@
     <t>Sera</t>
   </si>
   <si>
-    <t>0005295682081</t>
+    <t>SS02111000</t>
+  </si>
+  <si>
+    <t>SS02111001</t>
+  </si>
+  <si>
+    <t>SF00123423</t>
+  </si>
+  <si>
+    <t>SS00000056</t>
+  </si>
+  <si>
+    <t>0008085965088</t>
+  </si>
+  <si>
+    <t>0008085442088</t>
+  </si>
+  <si>
+    <t>0005299554088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS01008981
+</t>
   </si>
 </sst>
 </file>
@@ -2124,8 +2122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2176,13 +2174,13 @@
     </row>
     <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="2">
       <c r="A2" s="37" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>182</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="37"/>
       <c r="E2" s="37" t="inlineStr">
@@ -2191,7 +2189,7 @@
         </is>
       </c>
       <c r="F2" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G2" s="46"/>
       <c r="H2" s="33" t="inlineStr">
@@ -2202,19 +2200,19 @@
       <c r="I2" s="53"/>
       <c r="J2" s="49" t="inlineStr">
         <is>
-          <t>18/02/2022 14:09:10</t>
+          <t>21/02/2022 10:35:27</t>
         </is>
       </c>
     </row>
     <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="3">
       <c r="A3" s="37" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>177</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D3" s="37"/>
       <c r="E3" s="37" t="inlineStr">
@@ -2223,7 +2221,7 @@
         </is>
       </c>
       <c r="F3" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G3" s="46"/>
       <c r="H3" s="33" t="inlineStr">
@@ -2234,19 +2232,19 @@
       <c r="I3" s="53"/>
       <c r="J3" s="49" t="inlineStr">
         <is>
-          <t>18/02/2022 14:10:29</t>
+          <t>21/02/2022 10:36:47</t>
         </is>
       </c>
     </row>
     <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="4">
       <c r="A4" s="37" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>76</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37" t="inlineStr">
@@ -2255,35 +2253,30 @@
         </is>
       </c>
       <c r="F4" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G4" s="46"/>
       <c r="H4" s="34" t="inlineStr">
         <is>
-          <t>Failed</t>
+          <t>Passed</t>
         </is>
       </c>
-      <c r="I4" s="54" t="inlineStr">
-        <is>
-          <t>no such element: Unable to locate element: method:xpathselector://*[id=CntContentsDiv8]/table/tbody/tr/td[2]
-  (Session info: chrome=970469271)</t>
-        </is>
-      </c>
+      <c r="I4" s="54"/>
       <c r="J4" s="50" t="inlineStr">
         <is>
-          <t>18/02/2022 14:12:11</t>
+          <t>21/02/2022 10:38:28</t>
         </is>
       </c>
     </row>
     <row spans="1:10" ht="58" x14ac:dyDescent="0.35" outlineLevel="0" r="5">
       <c r="A5" s="57" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B5" s="37" t="s">
         <v>168</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="37" t="inlineStr">
@@ -2292,7 +2285,7 @@
         </is>
       </c>
       <c r="F5" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G5" s="46"/>
       <c r="H5" s="34" t="inlineStr">
@@ -2307,19 +2300,19 @@
       </c>
       <c r="J5" s="50" t="inlineStr">
         <is>
-          <t>18/02/2022 14:13:44</t>
+          <t>21/02/2022 10:40:05</t>
         </is>
       </c>
     </row>
     <row spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="6">
       <c r="A6" s="37" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>175</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="37" t="inlineStr">
@@ -2328,7 +2321,7 @@
         </is>
       </c>
       <c r="F6" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G6" s="46"/>
       <c r="H6" s="34" t="inlineStr">
@@ -2338,25 +2331,24 @@
       </c>
       <c r="I6" s="54" t="inlineStr">
         <is>
-          <t>element not interactable
-  (Session info: chrome=970469271)</t>
+          <t>Safrican Just Funeral [3000] is not a valid name Make sure that it does not include invalid characters or punctuation and that it is not too long</t>
         </is>
       </c>
       <c r="J6" s="50" t="inlineStr">
         <is>
-          <t>18/02/2022 14:14:43</t>
+          <t>21/02/2022 10:41:37</t>
         </is>
       </c>
     </row>
     <row spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="7">
       <c r="A7" s="37" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B7" s="37" t="s">
         <v>178</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37" t="inlineStr">
@@ -2365,7 +2357,7 @@
         </is>
       </c>
       <c r="F7" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G7" s="46"/>
       <c r="H7" s="34" t="inlineStr">
@@ -2373,22 +2365,30 @@
           <t>Failed</t>
         </is>
       </c>
-      <c r="I7" s="54"/>
+      <c r="I7" s="54" t="inlineStr">
+        <is>
+          <t>unexpected alert open: Alert text : There has been an error submitting your page
+Ensure that you have:
+  - Specified all mandatory fields
+  - Specified all fields using the correct format
+Hover over the highlighted controls for a description of the e</t>
+        </is>
+      </c>
       <c r="J7" s="35" t="inlineStr">
         <is>
-          <t>18/02/2022 14:16:07</t>
+          <t>21/02/2022 10:42:56</t>
         </is>
       </c>
     </row>
     <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="8">
       <c r="A8" s="37" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>170</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37" t="inlineStr">
@@ -2397,15 +2397,294 @@
         </is>
       </c>
       <c r="F8" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G8" s="46"/>
       <c r="H8" s="33" t="inlineStr">
         <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I8" s="53"/>
+      <c r="J8" s="42" t="inlineStr">
+        <is>
+          <t>21/02/2022 10:44:25</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="9">
+      <c r="A9" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37" t="inlineStr">
+        <is>
+          <t>Safrican Just Funeral (3000)</t>
+        </is>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="G9" s="46"/>
+      <c r="H9" s="33" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I9" s="53"/>
+      <c r="J9" s="27" t="inlineStr">
+        <is>
+          <t>21/02/2022 10:46:29</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="10">
+      <c r="A10" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37" t="inlineStr">
+        <is>
+          <t>Safrican Just Funeral (3000)</t>
+        </is>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="46"/>
+      <c r="H10" s="34" t="inlineStr">
+        <is>
           <t>Failed</t>
         </is>
       </c>
-      <c r="I8" s="53" t="inlineStr">
+      <c r="I10" s="54" t="inlineStr">
+        <is>
+          <t>unexpected alert open: Alert text : There has been an error submitting your page
+Ensure that you have:
+  - Specified all mandatory fields
+  - Specified all fields using the correct format
+Hover over the highlighted controls for a description of the e</t>
+        </is>
+      </c>
+      <c r="J10" s="36" t="inlineStr">
+        <is>
+          <t>21/02/2022 10:48:41</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="11">
+      <c r="A11" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37" t="inlineStr">
+        <is>
+          <t>Safrican Just Funeral (3000)</t>
+        </is>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" s="46"/>
+      <c r="H11" s="34" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I11" s="54"/>
+      <c r="J11" s="36" t="inlineStr">
+        <is>
+          <t>21/02/2022 10:49:40</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="12">
+      <c r="A12" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37" t="inlineStr">
+        <is>
+          <t>Safrican Just Funeral (3000)</t>
+        </is>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="G12" s="46"/>
+      <c r="H12" s="34" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="I12" s="54" t="inlineStr">
+        <is>
+          <t>no such element: Unable to locate element: method:xpathselector://*[id=CntContentsDiv9]/table/tbody/tr[2]/td[4]
+  (Session info: chrome=970469271)</t>
+        </is>
+      </c>
+      <c r="J12" s="36" t="inlineStr">
+        <is>
+          <t>21/02/2022 10:51:14</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="13">
+      <c r="A13" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37" t="inlineStr">
+        <is>
+          <t>Safrican Just Funeral (3000)</t>
+        </is>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13" s="46"/>
+      <c r="H13" s="34" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="I13" s="54" t="inlineStr">
+        <is>
+          <t>no such element: Unable to locate element: method:xpathselector://*[id=CntContentsDiv9]/table/tbody/tr[2]/td[4]
+  (Session info: chrome=970469271)</t>
+        </is>
+      </c>
+      <c r="J13" s="36" t="inlineStr">
+        <is>
+          <t>21/02/2022 10:52:47</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="14">
+      <c r="A14" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47" t="inlineStr">
+        <is>
+          <t>Safrican Just Funeral (3000)</t>
+        </is>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="51"/>
+      <c r="H14" s="33" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="I14" s="53"/>
+      <c r="J14" s="49" t="inlineStr">
+        <is>
+          <t>21/02/2022 10:54:22</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="15">
+      <c r="A15" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37" t="inlineStr">
+        <is>
+          <t>Safrican Serenity Funeral Premium (1000)</t>
+        </is>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="G15" s="46"/>
+      <c r="H15" s="33" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="I15" s="53" t="inlineStr">
+        <is>
+          <t>unexpected alert open: Alert text : The same policy payer was found with another employee number Would you like to update the employee number?
+  (Session info: chrome=970469271)</t>
+        </is>
+      </c>
+      <c r="J15" s="49" t="inlineStr">
+        <is>
+          <t>21/02/2022 10:55:43</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="16">
+      <c r="A16" s="64" t="s">
+        <v>301</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47" t="inlineStr">
+        <is>
+          <t>Safrican Just Funeral (3000)</t>
+        </is>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" s="46"/>
+      <c r="H16" s="33" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="I16" s="53" t="inlineStr">
         <is>
           <t>  String lengths are both 72 Strings differ at index 11_x000d_
   Expected: tstsafricancoza/web/wspd_cgish/WService=wsb_ilrtst/runw?_x000d_
@@ -2414,324 +2693,30 @@
 </t>
         </is>
       </c>
-      <c r="J8" s="42" t="inlineStr">
-        <is>
-          <t>18/02/2022 14:17:09</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="9">
-      <c r="A9" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37" t="inlineStr">
-        <is>
-          <t>Safrican Just Funeral (3000)</t>
-        </is>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="33" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="I9" s="53" t="inlineStr">
-        <is>
-          <t>no such element: Unable to locate element: method:xpathselector://*[id=CntContentsDiv11]/table/tbody/tr[7]/td[1]/span
-  (Session info: chrome=970469271)</t>
-        </is>
-      </c>
-      <c r="J9" s="27" t="inlineStr">
-        <is>
-          <t>18/02/2022 14:17:46</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="10">
-      <c r="A10" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37" t="inlineStr">
-        <is>
-          <t>Safrican Just Funeral (3000)</t>
-        </is>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="34" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="I10" s="54" t="inlineStr">
-        <is>
-          <t>Multiple failures or warnings in test:_x000d_
-  1)   String lengths are both 72 Strings differ at index 11_x000d_
-  Expected: tstsafricancoza/web/wspd_cgish/WService=wsb_ilrtst/runw?_x000d_
-  But was:  intsafricancoza/web/wspd_cgish/WService=wsb_ilrint/runw?_x000d_
-  ------</t>
-        </is>
-      </c>
-      <c r="J10" s="36" t="inlineStr">
-        <is>
-          <t>18/02/2022 14:18:48</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="11">
-      <c r="A11" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37" t="inlineStr">
-        <is>
-          <t>Safrican Just Funeral (3000)</t>
-        </is>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="34" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="I11" s="54" t="inlineStr">
-        <is>
-          <t>no such element: Unable to locate element: method:xpathselector://*[id=CntContentsDiv11]/table/tbody/tr[7]/td[1]/span
-  (Session info: chrome=970469271)</t>
-        </is>
-      </c>
-      <c r="J11" s="36" t="inlineStr">
-        <is>
-          <t>18/02/2022 14:19:24</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="12">
-      <c r="A12" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37" t="inlineStr">
-        <is>
-          <t>Safrican Legacy Saver (6000)</t>
-        </is>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G12" s="46"/>
-      <c r="H12" s="34" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="I12" s="54" t="inlineStr">
-        <is>
-          <t>no such element: Unable to locate element: method:xpathselector://*[id=frmCbmcc]/tbody/tr[8]/td[4]
-  (Session info: chrome=970469271)</t>
-        </is>
-      </c>
-      <c r="J12" s="36" t="inlineStr">
-        <is>
-          <t>18/02/2022 14:20:11</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="13">
-      <c r="A13" s="37" t="s">
-        <v>291</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="34" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="I13" s="54" t="inlineStr">
-        <is>
-          <t>no such element: Unable to locate element: method:xpathselector://*[id=AppArea]/table[2]/tbody/tr[2]/td[1]/a
-  (Session info: chrome=970469271)</t>
-        </is>
-      </c>
-      <c r="J13" s="36" t="inlineStr">
-        <is>
-          <t>18/02/2022 14:20:43</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="14">
-      <c r="A14" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47" t="inlineStr">
-        <is>
-          <t>Safrican Just Funeral (3000)</t>
-        </is>
-      </c>
-      <c r="F14" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="33" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="I14" s="53" t="inlineStr">
-        <is>
-          <t>element not interactable
-  (Session info: chrome=970469271)</t>
-        </is>
-      </c>
-      <c r="J14" s="49" t="inlineStr">
-        <is>
-          <t>18/02/2022 14:21:29</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="15">
-      <c r="A15" s="37" t="s">
-        <v>288</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37" t="inlineStr">
-        <is>
-          <t>Safrican Serenity Funeral Premium (1000)</t>
-        </is>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="33" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="I15" s="53" t="inlineStr">
-        <is>
-          <t>unexpected alert open: Alert text : The same policy payer was found with another employee number Would you like to update the employee number?
-  (Session info: chrome=970469271)</t>
-        </is>
-      </c>
-      <c r="J15" s="49" t="inlineStr">
-        <is>
-          <t>18/02/2022 14:22:50</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="16">
-      <c r="A16" s="64" t="s">
-        <v>289</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>207</v>
-      </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47" t="inlineStr">
-        <is>
-          <t>Safrican Serenity Funeral Premium (1000)</t>
-        </is>
-      </c>
-      <c r="F16" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="33" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="I16" s="53" t="inlineStr">
-        <is>
-          <t>Multiple failures or warnings in test:_x000d_
-  1)   String lengths are both 72 Strings differ at index 11_x000d_
-  Expected: tstsafricancoza/web/wspd_cgish/WService=wsb_ilrtst/runw?_x000d_
-  But was:  intsafricancoza/web/wspd_cgish/WService=wsb_ilrint/runw?_x000d_
-  ------</t>
-        </is>
-      </c>
       <c r="J16" s="49" t="inlineStr">
         <is>
-          <t>18/02/2022 14:23:46</t>
+          <t>21/02/2022 10:56:41</t>
         </is>
       </c>
     </row>
     <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="17">
       <c r="A17" s="58" t="s">
-        <v>189</v>
+        <v>296</v>
       </c>
       <c r="B17" s="37" t="s">
         <v>180</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
+      <c r="E17" s="59" t="inlineStr">
+        <is>
+          <t>Safrican Serenity Funeral (2000)</t>
+        </is>
+      </c>
       <c r="F17" s="59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G17" s="60"/>
       <c r="H17" s="61" t="inlineStr">
@@ -2741,25 +2726,25 @@
       </c>
       <c r="I17" s="62" t="inlineStr">
         <is>
-          <t>no such element: Unable to locate element: method:xpathselector://*[id=AppArea]/table[2]/tbody/tr[2]/td[1]/a
+          <t>no such element: Unable to locate element: method:css selectorselector:#t0_749
   (Session info: chrome=970469271)</t>
         </is>
       </c>
       <c r="J17" s="63" t="inlineStr">
         <is>
-          <t>18/02/2022 14:24:07</t>
+          <t>21/02/2022 10:58:04</t>
         </is>
       </c>
     </row>
     <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="18">
       <c r="A18" s="58" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B18" s="37" t="s">
         <v>176</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D18" s="59"/>
       <c r="E18" s="59" t="inlineStr">
@@ -2768,7 +2753,7 @@
         </is>
       </c>
       <c r="F18" s="59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G18" s="60"/>
       <c r="H18" s="61" t="inlineStr">
@@ -2779,7 +2764,7 @@
       <c r="I18" s="62"/>
       <c r="J18" s="63" t="inlineStr">
         <is>
-          <t>18/02/2022 14:25:38</t>
+          <t>21/02/2022 10:59:36</t>
         </is>
       </c>
     </row>
@@ -2858,7 +2843,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C2" s="38" t="s">
         <v>187</v>
@@ -2867,13 +2852,13 @@
         <v>188</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F2" s="38" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>154</v>
@@ -2895,7 +2880,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2938,10 +2923,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>186</v>
@@ -2953,7 +2938,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>154</v>
@@ -2973,7 +2958,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3015,10 +3000,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>162</v>
@@ -3030,13 +3015,13 @@
         <v>17</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>154</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -3049,7 +3034,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3061,24 +3046,66 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C1" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C2">
         <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12AD877-0D36-4EA9-9659-038739FDFBD2}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2">
+        <v>70000</v>
       </c>
     </row>
   </sheetData>
@@ -3091,7 +3118,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3126,22 +3153,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3617,7 +3644,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3638,10 +3665,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="48">
-        <v>83781990</v>
+        <v>83781977</v>
       </c>
       <c r="B2" s="48">
-        <v>23443880</v>
+        <v>23443877</v>
       </c>
     </row>
   </sheetData>
@@ -19956,127 +19983,127 @@
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" t="s">
         <v>211</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>212</v>
-      </c>
-      <c r="C1" t="s">
-        <v>213</v>
       </c>
       <c r="D1" t="s">
         <v>24</v>
       </c>
       <c r="E1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" t="s">
         <v>214</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>215</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>216</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>217</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>218</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M1" t="s">
+        <v>242</v>
+      </c>
+      <c r="N1" t="s">
+        <v>243</v>
+      </c>
+      <c r="O1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P1" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>246</v>
+      </c>
+      <c r="R1" t="s">
+        <v>247</v>
+      </c>
+      <c r="S1" t="s">
+        <v>248</v>
+      </c>
+      <c r="T1" t="s">
+        <v>249</v>
+      </c>
+      <c r="U1" t="s">
+        <v>239</v>
+      </c>
+      <c r="V1" t="s">
+        <v>238</v>
+      </c>
+      <c r="W1" t="s">
+        <v>237</v>
+      </c>
+      <c r="X1" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AO1" t="s">
         <v>219</v>
-      </c>
-      <c r="K1" t="s">
-        <v>241</v>
-      </c>
-      <c r="L1" t="s">
-        <v>242</v>
-      </c>
-      <c r="M1" t="s">
-        <v>243</v>
-      </c>
-      <c r="N1" t="s">
-        <v>244</v>
-      </c>
-      <c r="O1" t="s">
-        <v>245</v>
-      </c>
-      <c r="P1" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>247</v>
-      </c>
-      <c r="R1" t="s">
-        <v>248</v>
-      </c>
-      <c r="S1" t="s">
-        <v>249</v>
-      </c>
-      <c r="T1" t="s">
-        <v>250</v>
-      </c>
-      <c r="U1" t="s">
-        <v>240</v>
-      </c>
-      <c r="V1" t="s">
-        <v>239</v>
-      </c>
-      <c r="W1" t="s">
-        <v>238</v>
-      </c>
-      <c r="X1" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>221</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.35">
@@ -26570,85 +26597,85 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" t="s">
         <v>251</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>252</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>253</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>254</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>255</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>256</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>257</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>258</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>259</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>260</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>261</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>262</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>263</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>264</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>265</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>266</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>267</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>268</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>269</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>270</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>271</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>272</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>273</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>274</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>275</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>276</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.35">

--- a/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
+++ b/ILR_TestSuite/MIP UAT Test Scenarios/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E697642\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992107\Documents\GitHub\ILR_TestSuite\ILR_TestSuite\MIP UAT Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C806651-E3D7-429E-84E4-D5CF72E50B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0B5B62-8DE3-445B-9ECD-C3B71176C76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy-Servicing" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="331">
   <si>
     <t>Policy No</t>
   </si>
@@ -977,6 +977,103 @@
   <si>
     <t xml:space="preserve">SS01008981
 </t>
+  </si>
+  <si>
+    <t>Safrican Just Funeral (3000)</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>21/02/2022 10:35:27</t>
+  </si>
+  <si>
+    <t>21/02/2022 10:36:47</t>
+  </si>
+  <si>
+    <t>21/02/2022 10:38:28</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Safrican Just Funeral [3000] is not a valid name Make sure that it does not include invalid characters or punctuation and that it is not too long</t>
+  </si>
+  <si>
+    <t>21/02/2022 10:40:05</t>
+  </si>
+  <si>
+    <t>21/02/2022 10:41:37</t>
+  </si>
+  <si>
+    <t>Safrican Provide and Protect Plan (4000)</t>
+  </si>
+  <si>
+    <t>unexpected alert open: Alert text : There has been an error submitting your page
+Ensure that you have:
+  - Specified all mandatory fields
+  - Specified all fields using the correct format
+Hover over the highlighted controls for a description of the e</t>
+  </si>
+  <si>
+    <t>21/02/2022 10:42:56</t>
+  </si>
+  <si>
+    <t>21/02/2022 10:44:25</t>
+  </si>
+  <si>
+    <t>21/02/2022 10:46:29</t>
+  </si>
+  <si>
+    <t>21/02/2022 10:48:41</t>
+  </si>
+  <si>
+    <t>21/02/2022 10:49:40</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: method:xpathselector://*[id=CntContentsDiv9]/table/tbody/tr[2]/td[4]
+  (Session info: chrome=970469271)</t>
+  </si>
+  <si>
+    <t>21/02/2022 10:51:14</t>
+  </si>
+  <si>
+    <t>21/02/2022 10:52:47</t>
+  </si>
+  <si>
+    <t>21/02/2022 10:54:22</t>
+  </si>
+  <si>
+    <t>Safrican Serenity Funeral Premium (1000)</t>
+  </si>
+  <si>
+    <t>unexpected alert open: Alert text : The same policy payer was found with another employee number Would you like to update the employee number?
+  (Session info: chrome=970469271)</t>
+  </si>
+  <si>
+    <t>21/02/2022 10:55:43</t>
+  </si>
+  <si>
+    <t>String lengths are both 72 Strings differ at index 11_x000D_
+  Expected: tstsafricancoza/web/wspd_cgish/WService=wsb_ilrtst/runw?_x000D_
+  But was:  intsafricancoza/web/wspd_cgish/WService=wsb_ilrint/runw?_x000D_
+  --------------^_x000D_</t>
+  </si>
+  <si>
+    <t>21/02/2022 10:56:41</t>
+  </si>
+  <si>
+    <t>Safrican Serenity Funeral (2000)</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: method:css selectorselector:#t0_749
+  (Session info: chrome=970469271)</t>
+  </si>
+  <si>
+    <t>21/02/2022 10:58:04</t>
+  </si>
+  <si>
+    <t>21/02/2022 10:59:36</t>
   </si>
 </sst>
 </file>
@@ -1017,6 +1114,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2119,10 +2217,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0" rightToLeft="false">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2140,7 +2238,7 @@
     <col min="10" max="10" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row spans="1:10" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45" outlineLevel="0" r="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -2172,7 +2270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="2">
+    <row r="2" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
         <v>280</v>
       </c>
@@ -2183,28 +2281,22 @@
         <v>190</v>
       </c>
       <c r="D2" s="37"/>
-      <c r="E2" s="37" t="inlineStr">
-        <is>
-          <t>Safrican Just Funeral (3000)</t>
-        </is>
+      <c r="E2" s="37" t="s">
+        <v>302</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>207</v>
       </c>
       <c r="G2" s="46"/>
-      <c r="H2" s="33" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
+      <c r="H2" s="33" t="s">
+        <v>303</v>
       </c>
       <c r="I2" s="53"/>
-      <c r="J2" s="49" t="inlineStr">
-        <is>
-          <t>21/02/2022 10:35:27</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="3">
+      <c r="J2" s="49" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
         <v>280</v>
       </c>
@@ -2215,28 +2307,22 @@
         <v>191</v>
       </c>
       <c r="D3" s="37"/>
-      <c r="E3" s="37" t="inlineStr">
-        <is>
-          <t>Safrican Just Funeral (3000)</t>
-        </is>
+      <c r="E3" s="37" t="s">
+        <v>302</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>207</v>
       </c>
       <c r="G3" s="46"/>
-      <c r="H3" s="33" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
+      <c r="H3" s="33" t="s">
+        <v>303</v>
       </c>
       <c r="I3" s="53"/>
-      <c r="J3" s="49" t="inlineStr">
-        <is>
-          <t>21/02/2022 10:36:47</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="4">
+      <c r="J3" s="49" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="37" t="s">
         <v>285</v>
       </c>
@@ -2247,28 +2333,22 @@
         <v>192</v>
       </c>
       <c r="D4" s="37"/>
-      <c r="E4" s="37" t="inlineStr">
-        <is>
-          <t>Safrican Just Funeral (3000)</t>
-        </is>
+      <c r="E4" s="37" t="s">
+        <v>302</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>207</v>
       </c>
       <c r="G4" s="46"/>
-      <c r="H4" s="34" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
+      <c r="H4" s="34" t="s">
+        <v>303</v>
       </c>
       <c r="I4" s="54"/>
-      <c r="J4" s="50" t="inlineStr">
-        <is>
-          <t>21/02/2022 10:38:28</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:10" ht="58" x14ac:dyDescent="0.35" outlineLevel="0" r="5">
+      <c r="J4" s="50" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="57" t="s">
         <v>280</v>
       </c>
@@ -2279,32 +2359,24 @@
         <v>193</v>
       </c>
       <c r="D5" s="37"/>
-      <c r="E5" s="37" t="inlineStr">
-        <is>
-          <t>Safrican Just Funeral (3000)</t>
-        </is>
+      <c r="E5" s="37" t="s">
+        <v>302</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>207</v>
       </c>
       <c r="G5" s="46"/>
-      <c r="H5" s="34" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="I5" s="54" t="inlineStr">
-        <is>
-          <t>Safrican Just Funeral [3000] is not a valid name Make sure that it does not include invalid characters or punctuation and that it is not too long</t>
-        </is>
-      </c>
-      <c r="J5" s="50" t="inlineStr">
-        <is>
-          <t>21/02/2022 10:40:05</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="6">
+      <c r="H5" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
         <v>281</v>
       </c>
@@ -2315,32 +2387,24 @@
         <v>194</v>
       </c>
       <c r="D6" s="37"/>
-      <c r="E6" s="37" t="inlineStr">
-        <is>
-          <t>Safrican Just Funeral (3000)</t>
-        </is>
+      <c r="E6" s="37" t="s">
+        <v>302</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>207</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="H6" s="34" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="I6" s="54" t="inlineStr">
-        <is>
-          <t>Safrican Just Funeral [3000] is not a valid name Make sure that it does not include invalid characters or punctuation and that it is not too long</t>
-        </is>
-      </c>
-      <c r="J6" s="50" t="inlineStr">
-        <is>
-          <t>21/02/2022 10:41:37</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.35" outlineLevel="0" r="7">
+      <c r="H6" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="43" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
         <v>282</v>
       </c>
@@ -2351,36 +2415,24 @@
         <v>195</v>
       </c>
       <c r="D7" s="37"/>
-      <c r="E7" s="37" t="inlineStr">
-        <is>
-          <t>Safrican Provide and Protect Plan (4000)</t>
-        </is>
+      <c r="E7" s="37" t="s">
+        <v>311</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>207</v>
       </c>
       <c r="G7" s="46"/>
-      <c r="H7" s="34" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="I7" s="54" t="inlineStr">
-        <is>
-          <t>unexpected alert open: Alert text : There has been an error submitting your page
-Ensure that you have:
-  - Specified all mandatory fields
-  - Specified all fields using the correct format
-Hover over the highlighted controls for a description of the e</t>
-        </is>
-      </c>
-      <c r="J7" s="35" t="inlineStr">
-        <is>
-          <t>21/02/2022 10:42:56</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="8">
+      <c r="H7" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>312</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
         <v>294</v>
       </c>
@@ -2391,28 +2443,22 @@
         <v>196</v>
       </c>
       <c r="D8" s="37"/>
-      <c r="E8" s="37" t="inlineStr">
-        <is>
-          <t>Safrican Just Funeral (3000)</t>
-        </is>
+      <c r="E8" s="37" t="s">
+        <v>302</v>
       </c>
       <c r="F8" s="37" t="s">
         <v>207</v>
       </c>
       <c r="G8" s="46"/>
-      <c r="H8" s="33" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
+      <c r="H8" s="33" t="s">
+        <v>303</v>
       </c>
       <c r="I8" s="53"/>
-      <c r="J8" s="42" t="inlineStr">
-        <is>
-          <t>21/02/2022 10:44:25</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="9">
+      <c r="J8" s="42" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
         <v>294</v>
       </c>
@@ -2423,28 +2469,22 @@
         <v>198</v>
       </c>
       <c r="D9" s="37"/>
-      <c r="E9" s="37" t="inlineStr">
-        <is>
-          <t>Safrican Just Funeral (3000)</t>
-        </is>
+      <c r="E9" s="37" t="s">
+        <v>302</v>
       </c>
       <c r="F9" s="37" t="s">
         <v>207</v>
       </c>
       <c r="G9" s="46"/>
-      <c r="H9" s="33" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
+      <c r="H9" s="33" t="s">
+        <v>303</v>
       </c>
       <c r="I9" s="53"/>
-      <c r="J9" s="27" t="inlineStr">
-        <is>
-          <t>21/02/2022 10:46:29</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="10">
+      <c r="J9" s="27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
         <v>295</v>
       </c>
@@ -2455,36 +2495,24 @@
         <v>197</v>
       </c>
       <c r="D10" s="37"/>
-      <c r="E10" s="37" t="inlineStr">
-        <is>
-          <t>Safrican Just Funeral (3000)</t>
-        </is>
+      <c r="E10" s="37" t="s">
+        <v>302</v>
       </c>
       <c r="F10" s="37" t="s">
         <v>207</v>
       </c>
       <c r="G10" s="46"/>
-      <c r="H10" s="34" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="I10" s="54" t="inlineStr">
-        <is>
-          <t>unexpected alert open: Alert text : There has been an error submitting your page
-Ensure that you have:
-  - Specified all mandatory fields
-  - Specified all fields using the correct format
-Hover over the highlighted controls for a description of the e</t>
-        </is>
-      </c>
-      <c r="J10" s="36" t="inlineStr">
-        <is>
-          <t>21/02/2022 10:48:41</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="11">
+      <c r="H10" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>312</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="37" t="s">
         <v>295</v>
       </c>
@@ -2495,28 +2523,22 @@
         <v>199</v>
       </c>
       <c r="D11" s="37"/>
-      <c r="E11" s="37" t="inlineStr">
-        <is>
-          <t>Safrican Just Funeral (3000)</t>
-        </is>
+      <c r="E11" s="37" t="s">
+        <v>302</v>
       </c>
       <c r="F11" s="37" t="s">
         <v>207</v>
       </c>
       <c r="G11" s="46"/>
-      <c r="H11" s="34" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
+      <c r="H11" s="34" t="s">
+        <v>303</v>
       </c>
       <c r="I11" s="54"/>
-      <c r="J11" s="36" t="inlineStr">
-        <is>
-          <t>21/02/2022 10:49:40</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="12">
+      <c r="J11" s="36" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
         <v>297</v>
       </c>
@@ -2527,33 +2549,24 @@
         <v>201</v>
       </c>
       <c r="D12" s="37"/>
-      <c r="E12" s="37" t="inlineStr">
-        <is>
-          <t>Safrican Just Funeral (3000)</t>
-        </is>
+      <c r="E12" s="37" t="s">
+        <v>302</v>
       </c>
       <c r="F12" s="37" t="s">
         <v>207</v>
       </c>
       <c r="G12" s="46"/>
-      <c r="H12" s="34" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="I12" s="54" t="inlineStr">
-        <is>
-          <t>no such element: Unable to locate element: method:xpathselector://*[id=CntContentsDiv9]/table/tbody/tr[2]/td[4]
-  (Session info: chrome=970469271)</t>
-        </is>
-      </c>
-      <c r="J12" s="36" t="inlineStr">
-        <is>
-          <t>21/02/2022 10:51:14</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="13">
+      <c r="H12" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" s="37" t="s">
         <v>283</v>
       </c>
@@ -2564,33 +2577,24 @@
         <v>200</v>
       </c>
       <c r="D13" s="37"/>
-      <c r="E13" s="37" t="inlineStr">
-        <is>
-          <t>Safrican Just Funeral (3000)</t>
-        </is>
+      <c r="E13" s="37" t="s">
+        <v>302</v>
       </c>
       <c r="F13" s="37" t="s">
         <v>207</v>
       </c>
       <c r="G13" s="46"/>
-      <c r="H13" s="34" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="I13" s="54" t="inlineStr">
-        <is>
-          <t>no such element: Unable to locate element: method:xpathselector://*[id=CntContentsDiv9]/table/tbody/tr[2]/td[4]
-  (Session info: chrome=970469271)</t>
-        </is>
-      </c>
-      <c r="J13" s="36" t="inlineStr">
-        <is>
-          <t>21/02/2022 10:52:47</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="14">
+      <c r="H13" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
         <v>283</v>
       </c>
@@ -2601,28 +2605,22 @@
         <v>202</v>
       </c>
       <c r="D14" s="47"/>
-      <c r="E14" s="47" t="inlineStr">
-        <is>
-          <t>Safrican Just Funeral (3000)</t>
-        </is>
+      <c r="E14" s="47" t="s">
+        <v>302</v>
       </c>
       <c r="F14" s="47" t="s">
         <v>207</v>
       </c>
       <c r="G14" s="51"/>
-      <c r="H14" s="33" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
+      <c r="H14" s="33" t="s">
+        <v>303</v>
       </c>
       <c r="I14" s="53"/>
-      <c r="J14" s="49" t="inlineStr">
-        <is>
-          <t>21/02/2022 10:54:22</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="15">
+      <c r="J14" s="49" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="37" t="s">
         <v>284</v>
       </c>
@@ -2633,33 +2631,24 @@
         <v>203</v>
       </c>
       <c r="D15" s="37"/>
-      <c r="E15" s="37" t="inlineStr">
-        <is>
-          <t>Safrican Serenity Funeral Premium (1000)</t>
-        </is>
+      <c r="E15" s="37" t="s">
+        <v>322</v>
       </c>
       <c r="F15" s="37" t="s">
         <v>208</v>
       </c>
       <c r="G15" s="46"/>
-      <c r="H15" s="33" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="I15" s="53" t="inlineStr">
-        <is>
-          <t>unexpected alert open: Alert text : The same policy payer was found with another employee number Would you like to update the employee number?
-  (Session info: chrome=970469271)</t>
-        </is>
-      </c>
-      <c r="J15" s="49" t="inlineStr">
-        <is>
-          <t>21/02/2022 10:55:43</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="16">
+      <c r="H15" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>323</v>
+      </c>
+      <c r="J15" s="49" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A16" s="64" t="s">
         <v>301</v>
       </c>
@@ -2670,36 +2659,24 @@
         <v>206</v>
       </c>
       <c r="D16" s="47"/>
-      <c r="E16" s="47" t="inlineStr">
-        <is>
-          <t>Safrican Just Funeral (3000)</t>
-        </is>
+      <c r="E16" s="47" t="s">
+        <v>302</v>
       </c>
       <c r="F16" s="47" t="s">
         <v>208</v>
       </c>
       <c r="G16" s="46"/>
-      <c r="H16" s="33" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="I16" s="53" t="inlineStr">
-        <is>
-          <t>  String lengths are both 72 Strings differ at index 11_x000d_
-  Expected: tstsafricancoza/web/wspd_cgish/WService=wsb_ilrtst/runw?_x000d_
-  But was:  intsafricancoza/web/wspd_cgish/WService=wsb_ilrint/runw?_x000d_
-  --------------^_x000d_
-</t>
-        </is>
-      </c>
-      <c r="J16" s="49" t="inlineStr">
-        <is>
-          <t>21/02/2022 10:56:41</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:10" x14ac:dyDescent="0.35" outlineLevel="0" r="17">
+      <c r="H16" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="I16" s="53" t="s">
+        <v>325</v>
+      </c>
+      <c r="J16" s="49" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="58" t="s">
         <v>296</v>
       </c>
@@ -2710,33 +2687,24 @@
         <v>204</v>
       </c>
       <c r="D17" s="59"/>
-      <c r="E17" s="59" t="inlineStr">
-        <is>
-          <t>Safrican Serenity Funeral (2000)</t>
-        </is>
+      <c r="E17" s="59" t="s">
+        <v>327</v>
       </c>
       <c r="F17" s="59" t="s">
         <v>208</v>
       </c>
       <c r="G17" s="60"/>
-      <c r="H17" s="61" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="I17" s="62" t="inlineStr">
-        <is>
-          <t>no such element: Unable to locate element: method:css selectorselector:#t0_749
-  (Session info: chrome=970469271)</t>
-        </is>
-      </c>
-      <c r="J17" s="63" t="inlineStr">
-        <is>
-          <t>21/02/2022 10:58:04</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:10" ht="29" x14ac:dyDescent="0.35" outlineLevel="0" r="18">
+      <c r="H17" s="61" t="s">
+        <v>307</v>
+      </c>
+      <c r="I17" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="J17" s="63" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="58" t="s">
         <v>286</v>
       </c>
@@ -2747,25 +2715,19 @@
         <v>205</v>
       </c>
       <c r="D18" s="59"/>
-      <c r="E18" s="59" t="inlineStr">
-        <is>
-          <t>Safrican Serenity Funeral (2000)</t>
-        </is>
+      <c r="E18" s="59" t="s">
+        <v>327</v>
       </c>
       <c r="F18" s="59" t="s">
         <v>207</v>
       </c>
       <c r="G18" s="60"/>
-      <c r="H18" s="61" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
+      <c r="H18" s="61" t="s">
+        <v>303</v>
       </c>
       <c r="I18" s="62"/>
-      <c r="J18" s="63" t="inlineStr">
-        <is>
-          <t>21/02/2022 10:59:36</t>
-        </is>
+      <c r="J18" s="63" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -3075,8 +3037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12AD877-0D36-4EA9-9659-038739FDFBD2}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
